--- a/BackTest/2020-01-11 BackTest FX.xlsx
+++ b/BackTest/2020-01-11 BackTest FX.xlsx
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -4966,13 +4966,17 @@
         <v>64.6883333333333</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="K131" t="n">
+        <v>62.8</v>
+      </c>
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
@@ -5001,14 +5005,22 @@
         <v>64.67349999999996</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>64</v>
+      </c>
+      <c r="K132" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5036,14 +5048,22 @@
         <v>64.6368333333333</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>64</v>
+      </c>
+      <c r="K133" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5071,13 +5091,17 @@
         <v>64.60016666666664</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>62.77</v>
+      </c>
+      <c r="K134" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
@@ -5106,14 +5130,22 @@
         <v>64.56249999999997</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>62.77</v>
+      </c>
+      <c r="K135" t="n">
+        <v>62.77</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5147,8 +5179,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>62.77</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5182,8 +5220,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>62.77</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5217,8 +5261,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>62.77</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5252,8 +5302,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>62.77</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5287,8 +5343,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>62.77</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5322,8 +5384,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>62.77</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5357,8 +5425,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>62.77</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5392,8 +5466,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>62.77</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5427,8 +5507,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>62.77</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5462,8 +5548,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>62.77</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5497,8 +5589,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>62.77</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5526,18 +5624,20 @@
         <v>63.82333333333331</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>62.8</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="L147" t="inlineStr"/>
+        <v>62.77</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5565,18 +5665,20 @@
         <v>63.78116666666665</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>62.8</v>
+      </c>
       <c r="K148" t="n">
-        <v>62.8</v>
+        <v>62.77</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M148" t="n">
@@ -5613,11 +5715,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>62.8</v>
+        <v>62.77</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M149" t="n">
@@ -5653,8 +5755,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>62.77</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5688,8 +5796,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>62.77</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5717,18 +5831,18 @@
         <v>63.47683333333332</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M152" t="n">
@@ -5758,15 +5872,15 @@
         <v>63.407</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>61.51</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5805,7 +5919,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5838,15 +5954,15 @@
         <v>63.28583333333334</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>62</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5879,15 +5995,15 @@
         <v>63.23333333333334</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>61.51</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5920,15 +6036,15 @@
         <v>63.17833333333333</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>62</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5961,15 +6077,15 @@
         <v>63.12583333333334</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>61.5</v>
-      </c>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6002,15 +6118,15 @@
         <v>63.09483333333333</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>61.5</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6043,15 +6159,15 @@
         <v>63.05916666666667</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6084,15 +6200,15 @@
         <v>63.01183333333334</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>62.79</v>
-      </c>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6125,15 +6241,15 @@
         <v>62.9635</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>62.4</v>
-      </c>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6166,15 +6282,15 @@
         <v>62.93666666666667</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6207,15 +6323,15 @@
         <v>62.91183333333334</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6248,15 +6364,15 @@
         <v>62.88716666666667</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6289,15 +6405,15 @@
         <v>62.86666666666667</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6330,15 +6446,15 @@
         <v>62.85683333333334</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>62.75</v>
-      </c>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6371,15 +6487,15 @@
         <v>62.83366666666667</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6412,15 +6528,15 @@
         <v>62.81150000000001</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>62.07</v>
-      </c>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6453,15 +6569,15 @@
         <v>62.80066666666667</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>62.75</v>
-      </c>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6494,15 +6610,15 @@
         <v>62.76583333333335</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6535,15 +6651,15 @@
         <v>62.75233333333335</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>62.75</v>
-      </c>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6576,15 +6692,15 @@
         <v>62.74150000000002</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>63</v>
-      </c>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6617,15 +6733,15 @@
         <v>62.73133333333335</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>63</v>
-      </c>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6658,15 +6774,15 @@
         <v>62.72450000000001</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>63.19</v>
-      </c>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6699,15 +6815,15 @@
         <v>62.71766666666667</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>63.99</v>
-      </c>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6740,15 +6856,15 @@
         <v>62.67316666666667</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>63</v>
-      </c>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6787,7 +6903,9 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6820,15 +6938,15 @@
         <v>62.65300000000001</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6861,15 +6979,15 @@
         <v>62.62916666666668</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6908,7 +7026,9 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6941,15 +7061,15 @@
         <v>62.57716666666667</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6982,15 +7102,15 @@
         <v>62.575</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7023,15 +7143,15 @@
         <v>62.57366666666667</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>63.37</v>
-      </c>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7064,15 +7184,15 @@
         <v>62.5725</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>63.37</v>
-      </c>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7105,22 +7225,22 @@
         <v>62.57866666666666</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="n">
-        <v>63.37</v>
-      </c>
-      <c r="K186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>62.77</v>
+      </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>1</v>
+        <v>1.004558706388402</v>
       </c>
     </row>
     <row r="187">
@@ -7153,11 +7273,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7188,15 +7304,11 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7231,11 +7343,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7266,15 +7374,11 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7305,15 +7409,11 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7344,15 +7444,11 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7387,11 +7483,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7426,11 +7518,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7461,15 +7549,11 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7500,15 +7584,11 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7539,15 +7619,11 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7578,15 +7654,11 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7621,11 +7693,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7660,11 +7728,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7699,11 +7763,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7738,11 +7798,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7773,15 +7829,11 @@
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7816,11 +7868,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7855,11 +7903,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7894,11 +7938,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7933,11 +7973,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7972,11 +8008,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8011,11 +8043,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8050,11 +8078,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8089,11 +8113,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8128,11 +8148,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8167,11 +8183,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8206,11 +8218,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8245,11 +8253,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8284,11 +8288,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8323,11 +8323,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8362,11 +8358,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8401,11 +8393,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8440,11 +8428,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8479,11 +8463,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8518,11 +8498,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8557,11 +8533,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8596,11 +8568,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8635,11 +8603,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8674,11 +8638,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8709,15 +8669,11 @@
         <v>0</v>
       </c>
       <c r="I227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8752,11 +8708,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8791,11 +8743,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8830,11 +8778,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8869,11 +8813,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8908,11 +8848,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8947,11 +8883,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8986,11 +8918,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9025,11 +8953,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9064,11 +8988,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9103,11 +9023,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9142,11 +9058,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9181,11 +9093,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9220,11 +9128,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9259,11 +9163,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9298,11 +9198,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9337,11 +9233,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9376,11 +9268,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9415,11 +9303,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9454,11 +9338,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9493,11 +9373,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9532,11 +9408,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9571,11 +9443,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9610,11 +9478,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-11 BackTest FX.xlsx
+++ b/BackTest/2020-01-11 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M250"/>
+  <dimension ref="A1:M251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>66.29000000000001</v>
+      </c>
+      <c r="C2" t="n">
         <v>66.8</v>
       </c>
-      <c r="C2" t="n">
-        <v>66.84999999999999</v>
-      </c>
       <c r="D2" t="n">
-        <v>66.84999999999999</v>
+        <v>66.8</v>
       </c>
       <c r="E2" t="n">
-        <v>66.8</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>159.3524</v>
+        <v>1011.4527</v>
       </c>
       <c r="G2" t="n">
-        <v>64.62983333333334</v>
+        <v>64.56566666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>66.8</v>
       </c>
       <c r="C3" t="n">
-        <v>66.8</v>
+        <v>66.84999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>66.8</v>
+        <v>66.84999999999999</v>
       </c>
       <c r="E3" t="n">
         <v>66.8</v>
       </c>
       <c r="F3" t="n">
-        <v>1511.166</v>
+        <v>159.3524</v>
       </c>
       <c r="G3" t="n">
-        <v>64.69616666666667</v>
+        <v>64.62983333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>66.79000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="C4" t="n">
-        <v>66.79000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="D4" t="n">
-        <v>66.79000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="E4" t="n">
-        <v>66.79000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="F4" t="n">
-        <v>3263.089</v>
+        <v>1511.166</v>
       </c>
       <c r="G4" t="n">
-        <v>64.76716666666667</v>
+        <v>64.69616666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>66.8</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>66.8</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>66.8</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>66.8</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>3238.9548</v>
+        <v>3263.089</v>
       </c>
       <c r="G5" t="n">
-        <v>64.8175</v>
+        <v>64.76716666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>66.8</v>
       </c>
       <c r="F6" t="n">
-        <v>6464.7029</v>
+        <v>3238.9548</v>
       </c>
       <c r="G6" t="n">
-        <v>64.86816666666667</v>
+        <v>64.8175</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>66.75</v>
+        <v>66.8</v>
       </c>
       <c r="C7" t="n">
         <v>66.8</v>
@@ -617,19 +617,19 @@
         <v>66.8</v>
       </c>
       <c r="E7" t="n">
-        <v>66.75</v>
+        <v>66.8</v>
       </c>
       <c r="F7" t="n">
-        <v>3833.7164</v>
+        <v>6464.7029</v>
       </c>
       <c r="G7" t="n">
-        <v>64.91233333333334</v>
+        <v>64.86816666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66.02</v>
+        <v>66.75</v>
       </c>
       <c r="C8" t="n">
-        <v>66.02</v>
+        <v>66.8</v>
       </c>
       <c r="D8" t="n">
-        <v>66.02</v>
+        <v>66.8</v>
       </c>
       <c r="E8" t="n">
-        <v>66.02</v>
+        <v>66.75</v>
       </c>
       <c r="F8" t="n">
-        <v>11</v>
+        <v>3833.7164</v>
       </c>
       <c r="G8" t="n">
-        <v>64.94433333333333</v>
+        <v>64.91233333333334</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>66.79000000000001</v>
+        <v>66.02</v>
       </c>
       <c r="C9" t="n">
-        <v>67</v>
+        <v>66.02</v>
       </c>
       <c r="D9" t="n">
-        <v>67</v>
+        <v>66.02</v>
       </c>
       <c r="E9" t="n">
-        <v>66.79000000000001</v>
+        <v>66.02</v>
       </c>
       <c r="F9" t="n">
-        <v>45879.8118</v>
+        <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>64.99266666666666</v>
+        <v>64.94433333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>67.02</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>67.40000000000001</v>
+        <v>67</v>
       </c>
       <c r="D10" t="n">
-        <v>67.40000000000001</v>
+        <v>67</v>
       </c>
       <c r="E10" t="n">
-        <v>67.02</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>6015.1781</v>
+        <v>45879.8118</v>
       </c>
       <c r="G10" t="n">
-        <v>65.04600000000001</v>
+        <v>64.99266666666666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>67.40000000000001</v>
+        <v>67.02</v>
       </c>
       <c r="C11" t="n">
         <v>67.40000000000001</v>
@@ -757,13 +757,13 @@
         <v>67.40000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>67.40000000000001</v>
+        <v>67.02</v>
       </c>
       <c r="F11" t="n">
-        <v>741.839762611276</v>
+        <v>6015.1781</v>
       </c>
       <c r="G11" t="n">
-        <v>65.10100000000001</v>
+        <v>65.04600000000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>67.40000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>13063.94723738872</v>
+        <v>741.839762611276</v>
       </c>
       <c r="G12" t="n">
-        <v>65.15766666666667</v>
+        <v>65.10100000000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -818,28 +818,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>67.8</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>67.02</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>67.8</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>67.02</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>30.1268</v>
+        <v>13063.94723738872</v>
       </c>
       <c r="G13" t="n">
-        <v>65.20633333333335</v>
+        <v>65.15766666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>67</v>
+        <v>67.8</v>
       </c>
       <c r="C14" t="n">
-        <v>67</v>
+        <v>67.02</v>
       </c>
       <c r="D14" t="n">
-        <v>67</v>
+        <v>67.8</v>
       </c>
       <c r="E14" t="n">
-        <v>67</v>
+        <v>67.02</v>
       </c>
       <c r="F14" t="n">
-        <v>706.0334</v>
+        <v>30.1268</v>
       </c>
       <c r="G14" t="n">
-        <v>65.27300000000001</v>
+        <v>65.20633333333335</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>67</v>
       </c>
       <c r="C15" t="n">
-        <v>67.8</v>
+        <v>67</v>
       </c>
       <c r="D15" t="n">
-        <v>67.8</v>
+        <v>67</v>
       </c>
       <c r="E15" t="n">
         <v>67</v>
       </c>
       <c r="F15" t="n">
-        <v>7281.6398</v>
+        <v>706.0334</v>
       </c>
       <c r="G15" t="n">
-        <v>65.35300000000001</v>
+        <v>65.27300000000001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -923,7 +923,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>67.8</v>
+        <v>67</v>
       </c>
       <c r="C16" t="n">
         <v>67.8</v>
@@ -932,13 +932,13 @@
         <v>67.8</v>
       </c>
       <c r="E16" t="n">
-        <v>67.8</v>
+        <v>67</v>
       </c>
       <c r="F16" t="n">
-        <v>11015.159</v>
+        <v>7281.6398</v>
       </c>
       <c r="G16" t="n">
-        <v>65.41483333333335</v>
+        <v>65.35300000000001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>67.09999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="C17" t="n">
-        <v>67.09999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="D17" t="n">
-        <v>67.09999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="E17" t="n">
-        <v>67.09999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="F17" t="n">
-        <v>2058.054</v>
+        <v>11015.159</v>
       </c>
       <c r="G17" t="n">
-        <v>65.46650000000001</v>
+        <v>65.41483333333335</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,28 +993,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>67.8</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>67.8</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>67.8</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>67.8</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>8.69</v>
+        <v>2058.054</v>
       </c>
       <c r="G18" t="n">
-        <v>65.52983333333334</v>
+        <v>65.46650000000001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1040,10 +1040,10 @@
         <v>67.8</v>
       </c>
       <c r="F19" t="n">
-        <v>2016.359</v>
+        <v>8.69</v>
       </c>
       <c r="G19" t="n">
-        <v>65.60650000000003</v>
+        <v>65.52983333333334</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>67.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="C20" t="n">
-        <v>68</v>
+        <v>67.8</v>
       </c>
       <c r="D20" t="n">
-        <v>68</v>
+        <v>67.8</v>
       </c>
       <c r="E20" t="n">
-        <v>67.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="F20" t="n">
-        <v>17826.2336</v>
+        <v>2016.359</v>
       </c>
       <c r="G20" t="n">
-        <v>65.68483333333334</v>
+        <v>65.60650000000003</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,28 +1098,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>66.02</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>66.02</v>
+        <v>68</v>
       </c>
       <c r="D21" t="n">
-        <v>66.02</v>
+        <v>68</v>
       </c>
       <c r="E21" t="n">
-        <v>66.02</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>196.3789</v>
+        <v>17826.2336</v>
       </c>
       <c r="G21" t="n">
-        <v>65.71850000000002</v>
+        <v>65.68483333333334</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1145,16 +1145,16 @@
         <v>66.02</v>
       </c>
       <c r="F22" t="n">
-        <v>459.6902</v>
+        <v>196.3789</v>
       </c>
       <c r="G22" t="n">
-        <v>65.75050000000002</v>
+        <v>65.71850000000002</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>66</v>
+        <v>66.02</v>
       </c>
       <c r="C23" t="n">
-        <v>66</v>
+        <v>66.02</v>
       </c>
       <c r="D23" t="n">
-        <v>66</v>
+        <v>66.02</v>
       </c>
       <c r="E23" t="n">
-        <v>66</v>
+        <v>66.02</v>
       </c>
       <c r="F23" t="n">
-        <v>10.0408</v>
+        <v>459.6902</v>
       </c>
       <c r="G23" t="n">
-        <v>65.78383333333335</v>
+        <v>65.75050000000002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>66.02</v>
+        <v>66</v>
       </c>
       <c r="C24" t="n">
-        <v>66.02</v>
+        <v>66</v>
       </c>
       <c r="D24" t="n">
-        <v>66.02</v>
+        <v>66</v>
       </c>
       <c r="E24" t="n">
-        <v>66.02</v>
+        <v>66</v>
       </c>
       <c r="F24" t="n">
-        <v>8.9</v>
+        <v>10.0408</v>
       </c>
       <c r="G24" t="n">
-        <v>65.81216666666668</v>
+        <v>65.78383333333335</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>66</v>
+        <v>66.02</v>
       </c>
       <c r="C25" t="n">
-        <v>62.6</v>
+        <v>66.02</v>
       </c>
       <c r="D25" t="n">
-        <v>66</v>
+        <v>66.02</v>
       </c>
       <c r="E25" t="n">
-        <v>62.6</v>
+        <v>66.02</v>
       </c>
       <c r="F25" t="n">
-        <v>32065.2815</v>
+        <v>8.9</v>
       </c>
       <c r="G25" t="n">
-        <v>65.78883333333334</v>
+        <v>65.81216666666668</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>62.9</v>
+        <v>62.6</v>
       </c>
       <c r="D26" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E26" t="n">
-        <v>62.9</v>
+        <v>62.6</v>
       </c>
       <c r="F26" t="n">
-        <v>1254.2192</v>
+        <v>32065.2815</v>
       </c>
       <c r="G26" t="n">
-        <v>65.75433333333335</v>
+        <v>65.78883333333334</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>62.7</v>
+        <v>63</v>
       </c>
       <c r="C27" t="n">
-        <v>62.55</v>
+        <v>62.9</v>
       </c>
       <c r="D27" t="n">
-        <v>62.7</v>
+        <v>63</v>
       </c>
       <c r="E27" t="n">
-        <v>62.55</v>
+        <v>62.9</v>
       </c>
       <c r="F27" t="n">
-        <v>24652.9485</v>
+        <v>1254.2192</v>
       </c>
       <c r="G27" t="n">
-        <v>65.71350000000002</v>
+        <v>65.75433333333335</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>62.9</v>
+        <v>62.7</v>
       </c>
       <c r="C28" t="n">
-        <v>63</v>
+        <v>62.55</v>
       </c>
       <c r="D28" t="n">
-        <v>63</v>
+        <v>62.7</v>
       </c>
       <c r="E28" t="n">
-        <v>62.9</v>
+        <v>62.55</v>
       </c>
       <c r="F28" t="n">
-        <v>11667.3785</v>
+        <v>24652.9485</v>
       </c>
       <c r="G28" t="n">
-        <v>65.69683333333336</v>
+        <v>65.71350000000002</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>64.09999999999999</v>
+        <v>62.9</v>
       </c>
       <c r="C29" t="n">
-        <v>64.09999999999999</v>
+        <v>63</v>
       </c>
       <c r="D29" t="n">
-        <v>64.09999999999999</v>
+        <v>63</v>
       </c>
       <c r="E29" t="n">
-        <v>64.09999999999999</v>
+        <v>62.9</v>
       </c>
       <c r="F29" t="n">
-        <v>8</v>
+        <v>11667.3785</v>
       </c>
       <c r="G29" t="n">
-        <v>65.68183333333336</v>
+        <v>65.69683333333336</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>64</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>68</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>68</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>64</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>1250</v>
+        <v>8</v>
       </c>
       <c r="G30" t="n">
-        <v>65.73183333333336</v>
+        <v>65.68183333333336</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C31" t="n">
         <v>68</v>
@@ -1457,13 +1457,13 @@
         <v>68</v>
       </c>
       <c r="E31" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F31" t="n">
-        <v>8.9</v>
+        <v>1250</v>
       </c>
       <c r="G31" t="n">
-        <v>65.79883333333335</v>
+        <v>65.73183333333336</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>68</v>
       </c>
       <c r="F32" t="n">
-        <v>10.9</v>
+        <v>8.9</v>
       </c>
       <c r="G32" t="n">
-        <v>65.85066666666668</v>
+        <v>65.79883333333335</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,25 +1521,25 @@
         <v>68</v>
       </c>
       <c r="C33" t="n">
-        <v>68.84999999999999</v>
+        <v>68</v>
       </c>
       <c r="D33" t="n">
-        <v>68.84999999999999</v>
+        <v>68</v>
       </c>
       <c r="E33" t="n">
         <v>68</v>
       </c>
       <c r="F33" t="n">
-        <v>4972.9391</v>
+        <v>10.9</v>
       </c>
       <c r="G33" t="n">
-        <v>65.91650000000001</v>
+        <v>65.85066666666668</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1565,16 +1565,16 @@
         <v>68</v>
       </c>
       <c r="F34" t="n">
-        <v>1327.7997</v>
+        <v>4972.9391</v>
       </c>
       <c r="G34" t="n">
-        <v>65.96533333333335</v>
+        <v>65.91650000000001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1591,25 +1591,25 @@
         <v>68</v>
       </c>
       <c r="C35" t="n">
-        <v>68</v>
+        <v>68.84999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>68</v>
+        <v>68.84999999999999</v>
       </c>
       <c r="E35" t="n">
         <v>68</v>
       </c>
       <c r="F35" t="n">
-        <v>85.4442</v>
+        <v>1327.7997</v>
       </c>
       <c r="G35" t="n">
-        <v>66.02850000000002</v>
+        <v>65.96533333333335</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>68.84999999999999</v>
+        <v>68</v>
       </c>
       <c r="C36" t="n">
-        <v>68.84999999999999</v>
+        <v>68</v>
       </c>
       <c r="D36" t="n">
-        <v>68.84999999999999</v>
+        <v>68</v>
       </c>
       <c r="E36" t="n">
-        <v>68.84999999999999</v>
+        <v>68</v>
       </c>
       <c r="F36" t="n">
-        <v>19</v>
+        <v>85.4442</v>
       </c>
       <c r="G36" t="n">
-        <v>66.10583333333335</v>
+        <v>66.02850000000002</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>68.09999999999999</v>
+        <v>68.84999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>68</v>
+        <v>68.84999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>68.09999999999999</v>
+        <v>68.84999999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>68</v>
+        <v>68.84999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>17236.0194</v>
+        <v>19</v>
       </c>
       <c r="G37" t="n">
-        <v>66.17233333333334</v>
+        <v>66.10583333333335</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>68.8</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>68.8</v>
+        <v>68</v>
       </c>
       <c r="D38" t="n">
-        <v>68.8</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>68.8</v>
+        <v>68</v>
       </c>
       <c r="F38" t="n">
-        <v>8.800000000000001</v>
+        <v>17236.0194</v>
       </c>
       <c r="G38" t="n">
-        <v>66.26366666666668</v>
+        <v>66.17233333333334</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>65.61</v>
+        <v>68.8</v>
       </c>
       <c r="C39" t="n">
-        <v>65.61</v>
+        <v>68.8</v>
       </c>
       <c r="D39" t="n">
-        <v>65.61</v>
+        <v>68.8</v>
       </c>
       <c r="E39" t="n">
-        <v>65.61</v>
+        <v>68.8</v>
       </c>
       <c r="F39" t="n">
-        <v>240</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>66.30183333333335</v>
+        <v>66.26366666666668</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>67.48999999999999</v>
+        <v>65.61</v>
       </c>
       <c r="C40" t="n">
-        <v>67.48999999999999</v>
+        <v>65.61</v>
       </c>
       <c r="D40" t="n">
-        <v>67.48999999999999</v>
+        <v>65.61</v>
       </c>
       <c r="E40" t="n">
-        <v>67.48999999999999</v>
+        <v>65.61</v>
       </c>
       <c r="F40" t="n">
-        <v>7.8</v>
+        <v>240</v>
       </c>
       <c r="G40" t="n">
-        <v>66.35466666666667</v>
+        <v>66.30183333333335</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>68.79000000000001</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>68.79000000000001</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>68.79000000000001</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>68.79000000000001</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>11963.4542</v>
+        <v>7.8</v>
       </c>
       <c r="G41" t="n">
-        <v>66.444</v>
+        <v>66.35466666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1836,19 +1836,19 @@
         <v>68.79000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>65.11</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="D42" t="n">
         <v>68.79000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>65.11</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>10620.1958</v>
+        <v>11963.4542</v>
       </c>
       <c r="G42" t="n">
-        <v>66.44633333333334</v>
+        <v>66.444</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>65.31999999999999</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>64.97</v>
+        <v>65.11</v>
       </c>
       <c r="D43" t="n">
-        <v>65.31999999999999</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>64.97</v>
+        <v>65.11</v>
       </c>
       <c r="F43" t="n">
-        <v>22648.5585</v>
+        <v>10620.1958</v>
       </c>
       <c r="G43" t="n">
-        <v>66.43766666666667</v>
+        <v>66.44633333333334</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>64.98</v>
+        <v>65.31999999999999</v>
       </c>
       <c r="C44" t="n">
         <v>64.97</v>
       </c>
       <c r="D44" t="n">
-        <v>64.98</v>
+        <v>65.31999999999999</v>
       </c>
       <c r="E44" t="n">
         <v>64.97</v>
       </c>
       <c r="F44" t="n">
-        <v>32595.5806</v>
+        <v>22648.5585</v>
       </c>
       <c r="G44" t="n">
-        <v>66.42200000000001</v>
+        <v>66.43766666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>67</v>
+        <v>64.98</v>
       </c>
       <c r="C45" t="n">
-        <v>67</v>
+        <v>64.97</v>
       </c>
       <c r="D45" t="n">
-        <v>67</v>
+        <v>64.98</v>
       </c>
       <c r="E45" t="n">
-        <v>67</v>
+        <v>64.97</v>
       </c>
       <c r="F45" t="n">
-        <v>8</v>
+        <v>32595.5806</v>
       </c>
       <c r="G45" t="n">
-        <v>66.44033333333334</v>
+        <v>66.42200000000001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C46" t="n">
-        <v>66.98</v>
+        <v>67</v>
       </c>
       <c r="D46" t="n">
-        <v>66.98</v>
+        <v>67</v>
       </c>
       <c r="E46" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F46" t="n">
-        <v>8505.731599999999</v>
+        <v>8</v>
       </c>
       <c r="G46" t="n">
-        <v>66.45833333333334</v>
+        <v>66.44033333333334</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>65.09999999999999</v>
+        <v>66</v>
       </c>
       <c r="C47" t="n">
-        <v>65.09999999999999</v>
+        <v>66.98</v>
       </c>
       <c r="D47" t="n">
-        <v>65.09999999999999</v>
+        <v>66.98</v>
       </c>
       <c r="E47" t="n">
-        <v>65.09999999999999</v>
+        <v>66</v>
       </c>
       <c r="F47" t="n">
-        <v>2074.0793</v>
+        <v>8505.731599999999</v>
       </c>
       <c r="G47" t="n">
-        <v>66.44516666666668</v>
+        <v>66.45833333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>65.11</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>65.11</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>65.11</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>65.11</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>1796.6144</v>
+        <v>2074.0793</v>
       </c>
       <c r="G48" t="n">
-        <v>66.46683333333334</v>
+        <v>66.44516666666668</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>65.2</v>
+        <v>65.11</v>
       </c>
       <c r="C49" t="n">
-        <v>65.2</v>
+        <v>65.11</v>
       </c>
       <c r="D49" t="n">
-        <v>65.2</v>
+        <v>65.11</v>
       </c>
       <c r="E49" t="n">
-        <v>65.2</v>
+        <v>65.11</v>
       </c>
       <c r="F49" t="n">
-        <v>896.9681</v>
+        <v>1796.6144</v>
       </c>
       <c r="G49" t="n">
-        <v>66.47066666666667</v>
+        <v>66.46683333333334</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>66.09</v>
+        <v>65.2</v>
       </c>
       <c r="C50" t="n">
-        <v>66.09</v>
+        <v>65.2</v>
       </c>
       <c r="D50" t="n">
-        <v>66.09</v>
+        <v>65.2</v>
       </c>
       <c r="E50" t="n">
-        <v>66.09</v>
+        <v>65.2</v>
       </c>
       <c r="F50" t="n">
-        <v>1633.739</v>
+        <v>896.9681</v>
       </c>
       <c r="G50" t="n">
-        <v>66.50850000000001</v>
+        <v>66.47066666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>66.09</v>
       </c>
       <c r="F51" t="n">
-        <v>500</v>
+        <v>1633.739</v>
       </c>
       <c r="G51" t="n">
-        <v>66.51166666666668</v>
+        <v>66.50850000000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>66.09</v>
       </c>
       <c r="F52" t="n">
-        <v>650.2104</v>
+        <v>500</v>
       </c>
       <c r="G52" t="n">
-        <v>66.51483333333334</v>
+        <v>66.51166666666668</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2221,19 +2221,19 @@
         <v>66.09</v>
       </c>
       <c r="C53" t="n">
-        <v>66.09999999999999</v>
+        <v>66.09</v>
       </c>
       <c r="D53" t="n">
-        <v>66.09999999999999</v>
+        <v>66.09</v>
       </c>
       <c r="E53" t="n">
         <v>66.09</v>
       </c>
       <c r="F53" t="n">
-        <v>2239.7879</v>
+        <v>650.2104</v>
       </c>
       <c r="G53" t="n">
-        <v>66.51816666666667</v>
+        <v>66.51483333333334</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>66.29000000000001</v>
+        <v>66.09</v>
       </c>
       <c r="C54" t="n">
-        <v>66.69</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>66.69</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>66.29000000000001</v>
+        <v>66.09</v>
       </c>
       <c r="F54" t="n">
-        <v>6465.625369452406</v>
+        <v>2239.7879</v>
       </c>
       <c r="G54" t="n">
-        <v>66.533</v>
+        <v>66.51816666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>66.84999999999999</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>66.84999999999999</v>
+        <v>66.69</v>
       </c>
       <c r="D55" t="n">
-        <v>66.84999999999999</v>
+        <v>66.69</v>
       </c>
       <c r="E55" t="n">
-        <v>66.84999999999999</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>1000</v>
+        <v>6465.625369452406</v>
       </c>
       <c r="G55" t="n">
-        <v>66.55066666666667</v>
+        <v>66.533</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>66.90000000000001</v>
+        <v>66.84999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>66.98</v>
+        <v>66.84999999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>66.98</v>
+        <v>66.84999999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>66.90000000000001</v>
+        <v>66.84999999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>4822.81</v>
+        <v>1000</v>
       </c>
       <c r="G56" t="n">
-        <v>66.56833333333334</v>
+        <v>66.55066666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>66.98999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>64.97</v>
+        <v>66.98</v>
       </c>
       <c r="D57" t="n">
-        <v>67.02</v>
+        <v>66.98</v>
       </c>
       <c r="E57" t="n">
-        <v>64.97</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>33269.2494</v>
+        <v>4822.81</v>
       </c>
       <c r="G57" t="n">
-        <v>66.54649999999999</v>
+        <v>66.56833333333334</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>65.13</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>65.13</v>
+        <v>64.97</v>
       </c>
       <c r="D58" t="n">
-        <v>65.13</v>
+        <v>67.02</v>
       </c>
       <c r="E58" t="n">
-        <v>65.13</v>
+        <v>64.97</v>
       </c>
       <c r="F58" t="n">
-        <v>123.2166</v>
+        <v>33269.2494</v>
       </c>
       <c r="G58" t="n">
-        <v>66.52733333333333</v>
+        <v>66.54649999999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,10 +2440,10 @@
         <v>65.13</v>
       </c>
       <c r="F59" t="n">
-        <v>61.6083</v>
+        <v>123.2166</v>
       </c>
       <c r="G59" t="n">
-        <v>66.508</v>
+        <v>66.52733333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2466,19 +2466,19 @@
         <v>65.13</v>
       </c>
       <c r="C60" t="n">
-        <v>64.97</v>
+        <v>65.13</v>
       </c>
       <c r="D60" t="n">
         <v>65.13</v>
       </c>
       <c r="E60" t="n">
-        <v>64.97</v>
+        <v>65.13</v>
       </c>
       <c r="F60" t="n">
-        <v>27914.0815</v>
+        <v>61.6083</v>
       </c>
       <c r="G60" t="n">
-        <v>66.486</v>
+        <v>66.508</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>64.97</v>
+        <v>65.13</v>
       </c>
       <c r="C61" t="n">
         <v>64.97</v>
       </c>
       <c r="D61" t="n">
-        <v>64.97</v>
+        <v>65.13</v>
       </c>
       <c r="E61" t="n">
         <v>64.97</v>
       </c>
       <c r="F61" t="n">
-        <v>2441.954064771877</v>
+        <v>27914.0815</v>
       </c>
       <c r="G61" t="n">
-        <v>66.45549999999999</v>
+        <v>66.486</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>64.89</v>
+        <v>64.97</v>
       </c>
       <c r="C62" t="n">
-        <v>64.89</v>
+        <v>64.97</v>
       </c>
       <c r="D62" t="n">
-        <v>64.89</v>
+        <v>64.97</v>
       </c>
       <c r="E62" t="n">
-        <v>64.89</v>
+        <v>64.97</v>
       </c>
       <c r="F62" t="n">
-        <v>11271.1552</v>
+        <v>2441.954064771877</v>
       </c>
       <c r="G62" t="n">
-        <v>66.42283333333333</v>
+        <v>66.45549999999999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>64.59999999999999</v>
+        <v>64.89</v>
       </c>
       <c r="C63" t="n">
-        <v>64.5</v>
+        <v>64.89</v>
       </c>
       <c r="D63" t="n">
-        <v>64.59999999999999</v>
+        <v>64.89</v>
       </c>
       <c r="E63" t="n">
-        <v>64.5</v>
+        <v>64.89</v>
       </c>
       <c r="F63" t="n">
-        <v>759.5291</v>
+        <v>11271.1552</v>
       </c>
       <c r="G63" t="n">
-        <v>66.38449999999999</v>
+        <v>66.42283333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>64</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>63.98</v>
+        <v>64.5</v>
       </c>
       <c r="D64" t="n">
-        <v>64</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="E64" t="n">
-        <v>63.98</v>
+        <v>64.5</v>
       </c>
       <c r="F64" t="n">
-        <v>906.9238</v>
+        <v>759.5291</v>
       </c>
       <c r="G64" t="n">
-        <v>66.33766666666665</v>
+        <v>66.38449999999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>63.5</v>
+        <v>64</v>
       </c>
       <c r="C65" t="n">
-        <v>62.8</v>
+        <v>63.98</v>
       </c>
       <c r="D65" t="n">
-        <v>63.5</v>
+        <v>64</v>
       </c>
       <c r="E65" t="n">
-        <v>62.8</v>
+        <v>63.98</v>
       </c>
       <c r="F65" t="n">
-        <v>2554.8604</v>
+        <v>906.9238</v>
       </c>
       <c r="G65" t="n">
-        <v>66.27099999999999</v>
+        <v>66.33766666666665</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>62.81</v>
+        <v>63.5</v>
       </c>
       <c r="C66" t="n">
-        <v>62.81</v>
+        <v>62.8</v>
       </c>
       <c r="D66" t="n">
-        <v>62.81</v>
+        <v>63.5</v>
       </c>
       <c r="E66" t="n">
-        <v>62.81</v>
+        <v>62.8</v>
       </c>
       <c r="F66" t="n">
-        <v>216.8836</v>
+        <v>2554.8604</v>
       </c>
       <c r="G66" t="n">
-        <v>66.20449999999998</v>
+        <v>66.27099999999999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>63.1</v>
+        <v>62.81</v>
       </c>
       <c r="C67" t="n">
-        <v>63.1</v>
+        <v>62.81</v>
       </c>
       <c r="D67" t="n">
-        <v>63.1</v>
+        <v>62.81</v>
       </c>
       <c r="E67" t="n">
-        <v>63.1</v>
+        <v>62.81</v>
       </c>
       <c r="F67" t="n">
-        <v>163.2478</v>
+        <v>216.8836</v>
       </c>
       <c r="G67" t="n">
-        <v>66.14283333333331</v>
+        <v>66.20449999999998</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>64.06999999999999</v>
+        <v>63.1</v>
       </c>
       <c r="C68" t="n">
-        <v>64.06999999999999</v>
+        <v>63.1</v>
       </c>
       <c r="D68" t="n">
-        <v>64.06999999999999</v>
+        <v>63.1</v>
       </c>
       <c r="E68" t="n">
-        <v>64.06999999999999</v>
+        <v>63.1</v>
       </c>
       <c r="F68" t="n">
-        <v>8</v>
+        <v>163.2478</v>
       </c>
       <c r="G68" t="n">
-        <v>66.11033333333332</v>
+        <v>66.14283333333331</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>64</v>
+        <v>64.06999999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>64.31</v>
+        <v>64.06999999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>64.31</v>
+        <v>64.06999999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>64</v>
+        <v>64.06999999999999</v>
       </c>
       <c r="F69" t="n">
-        <v>11384.24918000311</v>
+        <v>8</v>
       </c>
       <c r="G69" t="n">
-        <v>66.06549999999999</v>
+        <v>66.11033333333332</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>64.31999999999999</v>
+        <v>64</v>
       </c>
       <c r="C70" t="n">
-        <v>64.31999999999999</v>
+        <v>64.31</v>
       </c>
       <c r="D70" t="n">
-        <v>64.31999999999999</v>
+        <v>64.31</v>
       </c>
       <c r="E70" t="n">
-        <v>64.31999999999999</v>
+        <v>64</v>
       </c>
       <c r="F70" t="n">
-        <v>1046.6281</v>
+        <v>11384.24918000311</v>
       </c>
       <c r="G70" t="n">
-        <v>66.01416666666665</v>
+        <v>66.06549999999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>63.5</v>
+        <v>64.31999999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>63.5</v>
+        <v>64.31999999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>63.5</v>
+        <v>64.31999999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>63.5</v>
+        <v>64.31999999999999</v>
       </c>
       <c r="F71" t="n">
-        <v>7074.4546</v>
+        <v>1046.6281</v>
       </c>
       <c r="G71" t="n">
-        <v>65.94916666666664</v>
+        <v>66.01416666666665</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2886,19 +2886,19 @@
         <v>63.5</v>
       </c>
       <c r="C72" t="n">
-        <v>64.89</v>
+        <v>63.5</v>
       </c>
       <c r="D72" t="n">
-        <v>64.89</v>
+        <v>63.5</v>
       </c>
       <c r="E72" t="n">
         <v>63.5</v>
       </c>
       <c r="F72" t="n">
-        <v>12683.2245</v>
+        <v>7074.4546</v>
       </c>
       <c r="G72" t="n">
-        <v>65.90733333333331</v>
+        <v>65.94916666666664</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>64.91</v>
+        <v>63.5</v>
       </c>
       <c r="C73" t="n">
-        <v>64.97</v>
+        <v>64.89</v>
       </c>
       <c r="D73" t="n">
-        <v>64.97</v>
+        <v>64.89</v>
       </c>
       <c r="E73" t="n">
-        <v>64.91</v>
+        <v>63.5</v>
       </c>
       <c r="F73" t="n">
-        <v>1656.2988</v>
+        <v>12683.2245</v>
       </c>
       <c r="G73" t="n">
-        <v>65.87316666666665</v>
+        <v>65.90733333333331</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>64.97</v>
+        <v>64.91</v>
       </c>
       <c r="C74" t="n">
         <v>64.97</v>
@@ -2962,13 +2962,13 @@
         <v>64.97</v>
       </c>
       <c r="E74" t="n">
-        <v>64.97</v>
+        <v>64.91</v>
       </c>
       <c r="F74" t="n">
-        <v>6525.2239</v>
+        <v>1656.2988</v>
       </c>
       <c r="G74" t="n">
-        <v>65.8393333333333</v>
+        <v>65.87316666666665</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>63.7</v>
+        <v>64.97</v>
       </c>
       <c r="C75" t="n">
-        <v>64.95999999999999</v>
+        <v>64.97</v>
       </c>
       <c r="D75" t="n">
-        <v>64.95999999999999</v>
+        <v>64.97</v>
       </c>
       <c r="E75" t="n">
-        <v>63.01</v>
+        <v>64.97</v>
       </c>
       <c r="F75" t="n">
-        <v>42019.6331</v>
+        <v>6525.2239</v>
       </c>
       <c r="G75" t="n">
-        <v>65.79199999999997</v>
+        <v>65.8393333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>64.31999999999999</v>
+        <v>63.7</v>
       </c>
       <c r="C76" t="n">
-        <v>66.8</v>
+        <v>64.95999999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>66.83</v>
+        <v>64.95999999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>64.31999999999999</v>
+        <v>63.01</v>
       </c>
       <c r="F76" t="n">
-        <v>50518.27900883234</v>
+        <v>42019.6331</v>
       </c>
       <c r="G76" t="n">
-        <v>65.77533333333331</v>
+        <v>65.79199999999997</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>66</v>
+        <v>64.31999999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>66</v>
+        <v>66.8</v>
       </c>
       <c r="D77" t="n">
-        <v>66</v>
+        <v>66.83</v>
       </c>
       <c r="E77" t="n">
-        <v>66</v>
+        <v>64.31999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>1534.7571</v>
+        <v>50518.27900883234</v>
       </c>
       <c r="G77" t="n">
-        <v>65.75699999999998</v>
+        <v>65.77533333333331</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>65.09999999999999</v>
+        <v>66</v>
       </c>
       <c r="C78" t="n">
-        <v>64.14</v>
+        <v>66</v>
       </c>
       <c r="D78" t="n">
-        <v>65.09999999999999</v>
+        <v>66</v>
       </c>
       <c r="E78" t="n">
-        <v>64.14</v>
+        <v>66</v>
       </c>
       <c r="F78" t="n">
-        <v>3023.5343</v>
+        <v>1534.7571</v>
       </c>
       <c r="G78" t="n">
-        <v>65.69599999999997</v>
+        <v>65.75699999999998</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>65.98999999999999</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>65.98999999999999</v>
+        <v>64.14</v>
       </c>
       <c r="D79" t="n">
-        <v>65.98999999999999</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>65.98999999999999</v>
+        <v>64.14</v>
       </c>
       <c r="F79" t="n">
-        <v>107.2544</v>
+        <v>3023.5343</v>
       </c>
       <c r="G79" t="n">
-        <v>65.6658333333333</v>
+        <v>65.69599999999997</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,10 +3175,10 @@
         <v>65.98999999999999</v>
       </c>
       <c r="F80" t="n">
-        <v>99.1795</v>
+        <v>107.2544</v>
       </c>
       <c r="G80" t="n">
-        <v>65.63233333333329</v>
+        <v>65.6658333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3201,19 +3201,19 @@
         <v>65.98999999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>65.94</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="D81" t="n">
         <v>65.98999999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>64.20999999999999</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>1479.9502</v>
+        <v>99.1795</v>
       </c>
       <c r="G81" t="n">
-        <v>65.63099999999996</v>
+        <v>65.63233333333329</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>65.91</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>65.91</v>
+        <v>65.94</v>
       </c>
       <c r="D82" t="n">
-        <v>65.91</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>65.91</v>
+        <v>64.20999999999999</v>
       </c>
       <c r="F82" t="n">
-        <v>9.09</v>
+        <v>1479.9502</v>
       </c>
       <c r="G82" t="n">
-        <v>65.62916666666662</v>
+        <v>65.63099999999996</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>65.73</v>
+        <v>65.91</v>
       </c>
       <c r="C83" t="n">
-        <v>67</v>
+        <v>65.91</v>
       </c>
       <c r="D83" t="n">
-        <v>67</v>
+        <v>65.91</v>
       </c>
       <c r="E83" t="n">
-        <v>65.73</v>
+        <v>65.91</v>
       </c>
       <c r="F83" t="n">
-        <v>47656.5415</v>
+        <v>9.09</v>
       </c>
       <c r="G83" t="n">
-        <v>65.64583333333329</v>
+        <v>65.62916666666662</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,7 +3303,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>67</v>
+        <v>65.73</v>
       </c>
       <c r="C84" t="n">
         <v>67</v>
@@ -3312,13 +3312,13 @@
         <v>67</v>
       </c>
       <c r="E84" t="n">
-        <v>67</v>
+        <v>65.73</v>
       </c>
       <c r="F84" t="n">
-        <v>1437.5077</v>
+        <v>47656.5415</v>
       </c>
       <c r="G84" t="n">
-        <v>65.66216666666662</v>
+        <v>65.64583333333329</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>66.8</v>
+        <v>67</v>
       </c>
       <c r="C85" t="n">
-        <v>66.8</v>
+        <v>67</v>
       </c>
       <c r="D85" t="n">
-        <v>66.8</v>
+        <v>67</v>
       </c>
       <c r="E85" t="n">
-        <v>66.8</v>
+        <v>67</v>
       </c>
       <c r="F85" t="n">
-        <v>10.9908</v>
+        <v>1437.5077</v>
       </c>
       <c r="G85" t="n">
-        <v>65.73216666666663</v>
+        <v>65.66216666666662</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3385,10 +3385,10 @@
         <v>66.8</v>
       </c>
       <c r="F86" t="n">
-        <v>9.08</v>
+        <v>10.9908</v>
       </c>
       <c r="G86" t="n">
-        <v>65.79716666666663</v>
+        <v>65.73216666666663</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>66.79000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="C87" t="n">
-        <v>66.79000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="D87" t="n">
-        <v>66.79000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="E87" t="n">
-        <v>66.79000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="F87" t="n">
-        <v>4892.2285</v>
+        <v>9.08</v>
       </c>
       <c r="G87" t="n">
-        <v>65.86783333333329</v>
+        <v>65.79716666666663</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>65.40000000000001</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>65.33</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>65.40000000000001</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>65.33</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>3077.567</v>
+        <v>4892.2285</v>
       </c>
       <c r="G88" t="n">
-        <v>65.90666666666662</v>
+        <v>65.86783333333329</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>66.69</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>66.68000000000001</v>
+        <v>65.33</v>
       </c>
       <c r="D89" t="n">
-        <v>66.69</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>66.68000000000001</v>
+        <v>65.33</v>
       </c>
       <c r="F89" t="n">
-        <v>18.999</v>
+        <v>3077.567</v>
       </c>
       <c r="G89" t="n">
-        <v>65.94966666666662</v>
+        <v>65.90666666666662</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>66.59999999999999</v>
+        <v>66.69</v>
       </c>
       <c r="C90" t="n">
-        <v>66.64</v>
+        <v>66.68000000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>66.64</v>
+        <v>66.69</v>
       </c>
       <c r="E90" t="n">
-        <v>66.59999999999999</v>
+        <v>66.68000000000001</v>
       </c>
       <c r="F90" t="n">
-        <v>200</v>
+        <v>18.999</v>
       </c>
       <c r="G90" t="n">
-        <v>65.92699999999995</v>
+        <v>65.94966666666662</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>66.64</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C91" t="n">
         <v>66.64</v>
@@ -3557,13 +3557,13 @@
         <v>66.64</v>
       </c>
       <c r="E91" t="n">
-        <v>66.64</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F91" t="n">
-        <v>1933.3164</v>
+        <v>200</v>
       </c>
       <c r="G91" t="n">
-        <v>65.90433333333328</v>
+        <v>65.92699999999995</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3595,10 @@
         <v>66.64</v>
       </c>
       <c r="F92" t="n">
-        <v>3671.2422</v>
+        <v>1933.3164</v>
       </c>
       <c r="G92" t="n">
-        <v>65.88166666666662</v>
+        <v>65.90433333333328</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>65.7</v>
+        <v>66.64</v>
       </c>
       <c r="C93" t="n">
-        <v>65.7</v>
+        <v>66.64</v>
       </c>
       <c r="D93" t="n">
-        <v>65.7</v>
+        <v>66.64</v>
       </c>
       <c r="E93" t="n">
-        <v>65.7</v>
+        <v>66.64</v>
       </c>
       <c r="F93" t="n">
-        <v>1089</v>
+        <v>3671.2422</v>
       </c>
       <c r="G93" t="n">
-        <v>65.82916666666661</v>
+        <v>65.88166666666662</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>64.20999999999999</v>
+        <v>65.7</v>
       </c>
       <c r="C94" t="n">
-        <v>64.20999999999999</v>
+        <v>65.7</v>
       </c>
       <c r="D94" t="n">
-        <v>64.20999999999999</v>
+        <v>65.7</v>
       </c>
       <c r="E94" t="n">
-        <v>64.20999999999999</v>
+        <v>65.7</v>
       </c>
       <c r="F94" t="n">
-        <v>3092.4725</v>
+        <v>1089</v>
       </c>
       <c r="G94" t="n">
-        <v>65.75183333333328</v>
+        <v>65.82916666666661</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>66.45999999999999</v>
+        <v>64.20999999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>66.45999999999999</v>
+        <v>64.20999999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>66.45999999999999</v>
+        <v>64.20999999999999</v>
       </c>
       <c r="E95" t="n">
-        <v>66.45999999999999</v>
+        <v>64.20999999999999</v>
       </c>
       <c r="F95" t="n">
-        <v>8</v>
+        <v>3092.4725</v>
       </c>
       <c r="G95" t="n">
-        <v>65.72616666666661</v>
+        <v>65.75183333333328</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>64.8</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>64.66</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>64.8</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>64.66</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="F96" t="n">
-        <v>2267.599</v>
+        <v>8</v>
       </c>
       <c r="G96" t="n">
-        <v>65.65633333333328</v>
+        <v>65.72616666666661</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3761,19 +3761,19 @@
         <v>64.8</v>
       </c>
       <c r="C97" t="n">
-        <v>64.8</v>
+        <v>64.66</v>
       </c>
       <c r="D97" t="n">
         <v>64.8</v>
       </c>
       <c r="E97" t="n">
-        <v>64.8</v>
+        <v>64.66</v>
       </c>
       <c r="F97" t="n">
-        <v>5604.5586</v>
+        <v>2267.599</v>
       </c>
       <c r="G97" t="n">
-        <v>65.60299999999995</v>
+        <v>65.65633333333328</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>64.65000000000001</v>
+        <v>64.8</v>
       </c>
       <c r="C98" t="n">
-        <v>64.65000000000001</v>
+        <v>64.8</v>
       </c>
       <c r="D98" t="n">
-        <v>64.65000000000001</v>
+        <v>64.8</v>
       </c>
       <c r="E98" t="n">
-        <v>64.65000000000001</v>
+        <v>64.8</v>
       </c>
       <c r="F98" t="n">
-        <v>1600</v>
+        <v>5604.5586</v>
       </c>
       <c r="G98" t="n">
-        <v>65.53383333333328</v>
+        <v>65.60299999999995</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3840,10 +3840,10 @@
         <v>64.65000000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>841.8013999999999</v>
+        <v>1600</v>
       </c>
       <c r="G99" t="n">
-        <v>65.51783333333329</v>
+        <v>65.53383333333328</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3875,10 +3875,10 @@
         <v>64.65000000000001</v>
       </c>
       <c r="F100" t="n">
-        <v>4308.1986</v>
+        <v>841.8013999999999</v>
       </c>
       <c r="G100" t="n">
-        <v>65.47049999999996</v>
+        <v>65.51783333333329</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>64.11</v>
+        <v>64.65000000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>65.64</v>
+        <v>64.65000000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>65.64</v>
+        <v>64.65000000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>64.11</v>
+        <v>64.65000000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>3525.6996</v>
+        <v>4308.1986</v>
       </c>
       <c r="G101" t="n">
-        <v>65.41799999999995</v>
+        <v>65.47049999999996</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>65.29000000000001</v>
+        <v>64.11</v>
       </c>
       <c r="C102" t="n">
-        <v>64.90000000000001</v>
+        <v>65.64</v>
       </c>
       <c r="D102" t="n">
-        <v>65.29000000000001</v>
+        <v>65.64</v>
       </c>
       <c r="E102" t="n">
         <v>64.11</v>
       </c>
       <c r="F102" t="n">
-        <v>11894.1367</v>
+        <v>3525.6996</v>
       </c>
       <c r="G102" t="n">
-        <v>65.41449999999995</v>
+        <v>65.41799999999995</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>64.11</v>
+        <v>65.29000000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>64.11</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>64.11</v>
+        <v>65.29000000000001</v>
       </c>
       <c r="E103" t="n">
         <v>64.11</v>
       </c>
       <c r="F103" t="n">
-        <v>11110.0891</v>
+        <v>11894.1367</v>
       </c>
       <c r="G103" t="n">
-        <v>65.40016666666662</v>
+        <v>65.41449999999995</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4006,19 +4006,19 @@
         <v>64.11</v>
       </c>
       <c r="C104" t="n">
-        <v>63.99</v>
+        <v>64.11</v>
       </c>
       <c r="D104" t="n">
         <v>64.11</v>
       </c>
       <c r="E104" t="n">
-        <v>63.99</v>
+        <v>64.11</v>
       </c>
       <c r="F104" t="n">
-        <v>106247.7112</v>
+        <v>11110.0891</v>
       </c>
       <c r="G104" t="n">
-        <v>65.38383333333329</v>
+        <v>65.40016666666662</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
+        <v>64.11</v>
+      </c>
+      <c r="C105" t="n">
         <v>63.99</v>
       </c>
-      <c r="C105" t="n">
-        <v>63.98</v>
-      </c>
       <c r="D105" t="n">
+        <v>64.11</v>
+      </c>
+      <c r="E105" t="n">
         <v>63.99</v>
       </c>
-      <c r="E105" t="n">
-        <v>63.98</v>
-      </c>
       <c r="F105" t="n">
-        <v>5627.4101</v>
+        <v>106247.7112</v>
       </c>
       <c r="G105" t="n">
-        <v>65.33349999999996</v>
+        <v>65.38383333333329</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>63.98</v>
+        <v>63.99</v>
       </c>
       <c r="C106" t="n">
         <v>63.98</v>
       </c>
       <c r="D106" t="n">
-        <v>63.98</v>
+        <v>63.99</v>
       </c>
       <c r="E106" t="n">
         <v>63.98</v>
       </c>
       <c r="F106" t="n">
-        <v>3199.4322</v>
+        <v>5627.4101</v>
       </c>
       <c r="G106" t="n">
-        <v>65.28349999999996</v>
+        <v>65.33349999999996</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>63.35</v>
+        <v>63.98</v>
       </c>
       <c r="C107" t="n">
-        <v>63.34</v>
+        <v>63.98</v>
       </c>
       <c r="D107" t="n">
-        <v>63.35</v>
+        <v>63.98</v>
       </c>
       <c r="E107" t="n">
-        <v>63.34</v>
+        <v>63.98</v>
       </c>
       <c r="F107" t="n">
-        <v>1528.3444</v>
+        <v>3199.4322</v>
       </c>
       <c r="G107" t="n">
-        <v>65.25416666666663</v>
+        <v>65.28349999999996</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>63.41</v>
+        <v>63.35</v>
       </c>
       <c r="C108" t="n">
-        <v>63.41</v>
+        <v>63.34</v>
       </c>
       <c r="D108" t="n">
-        <v>63.41</v>
+        <v>63.35</v>
       </c>
       <c r="E108" t="n">
-        <v>63.41</v>
+        <v>63.34</v>
       </c>
       <c r="F108" t="n">
-        <v>11046.778</v>
+        <v>1528.3444</v>
       </c>
       <c r="G108" t="n">
-        <v>65.22583333333328</v>
+        <v>65.25416666666663</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>63.61</v>
+        <v>63.41</v>
       </c>
       <c r="C109" t="n">
-        <v>63.4</v>
+        <v>63.41</v>
       </c>
       <c r="D109" t="n">
-        <v>63.61</v>
+        <v>63.41</v>
       </c>
       <c r="E109" t="n">
-        <v>63.4</v>
+        <v>63.41</v>
       </c>
       <c r="F109" t="n">
-        <v>16649.19</v>
+        <v>11046.778</v>
       </c>
       <c r="G109" t="n">
-        <v>65.1958333333333</v>
+        <v>65.22583333333328</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>63.4</v>
+        <v>63.61</v>
       </c>
       <c r="C110" t="n">
         <v>63.4</v>
       </c>
       <c r="D110" t="n">
-        <v>63.4</v>
+        <v>63.61</v>
       </c>
       <c r="E110" t="n">
         <v>63.4</v>
       </c>
       <c r="F110" t="n">
-        <v>1769.4471</v>
+        <v>16649.19</v>
       </c>
       <c r="G110" t="n">
-        <v>65.15099999999997</v>
+        <v>65.1958333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>64.7</v>
+        <v>63.4</v>
       </c>
       <c r="C111" t="n">
-        <v>64.89</v>
+        <v>63.4</v>
       </c>
       <c r="D111" t="n">
-        <v>64.89</v>
+        <v>63.4</v>
       </c>
       <c r="E111" t="n">
-        <v>64.7</v>
+        <v>63.4</v>
       </c>
       <c r="F111" t="n">
-        <v>201.9909076899368</v>
+        <v>1769.4471</v>
       </c>
       <c r="G111" t="n">
-        <v>65.13099999999996</v>
+        <v>65.15099999999997</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>63.61</v>
+        <v>64.7</v>
       </c>
       <c r="C112" t="n">
-        <v>63.61</v>
+        <v>64.89</v>
       </c>
       <c r="D112" t="n">
-        <v>63.61</v>
+        <v>64.89</v>
       </c>
       <c r="E112" t="n">
-        <v>63.61</v>
+        <v>64.7</v>
       </c>
       <c r="F112" t="n">
-        <v>3504.1845</v>
+        <v>201.9909076899368</v>
       </c>
       <c r="G112" t="n">
-        <v>65.08966666666662</v>
+        <v>65.13099999999996</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>63.45</v>
+        <v>63.61</v>
       </c>
       <c r="C113" t="n">
-        <v>63.45</v>
+        <v>63.61</v>
       </c>
       <c r="D113" t="n">
-        <v>63.45</v>
+        <v>63.61</v>
       </c>
       <c r="E113" t="n">
-        <v>63.45</v>
+        <v>63.61</v>
       </c>
       <c r="F113" t="n">
-        <v>547.7002</v>
+        <v>3504.1845</v>
       </c>
       <c r="G113" t="n">
-        <v>65.04549999999996</v>
+        <v>65.08966666666662</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>63.61</v>
+        <v>63.45</v>
       </c>
       <c r="C114" t="n">
-        <v>63.61</v>
+        <v>63.45</v>
       </c>
       <c r="D114" t="n">
-        <v>63.61</v>
+        <v>63.45</v>
       </c>
       <c r="E114" t="n">
-        <v>63.61</v>
+        <v>63.45</v>
       </c>
       <c r="F114" t="n">
-        <v>1508.2779</v>
+        <v>547.7002</v>
       </c>
       <c r="G114" t="n">
-        <v>64.99416666666663</v>
+        <v>65.04549999999996</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4400,10 +4400,10 @@
         <v>63.61</v>
       </c>
       <c r="F115" t="n">
-        <v>21512.0915</v>
+        <v>1508.2779</v>
       </c>
       <c r="G115" t="n">
-        <v>64.94016666666663</v>
+        <v>64.99416666666663</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4435,10 +4435,10 @@
         <v>63.61</v>
       </c>
       <c r="F116" t="n">
-        <v>8913.784299999999</v>
+        <v>21512.0915</v>
       </c>
       <c r="G116" t="n">
-        <v>64.88399999999996</v>
+        <v>64.94016666666663</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>64.69</v>
+        <v>63.61</v>
       </c>
       <c r="C117" t="n">
-        <v>64.69</v>
+        <v>63.61</v>
       </c>
       <c r="D117" t="n">
-        <v>64.69</v>
+        <v>63.61</v>
       </c>
       <c r="E117" t="n">
-        <v>64.69</v>
+        <v>63.61</v>
       </c>
       <c r="F117" t="n">
-        <v>39.3952</v>
+        <v>8913.784299999999</v>
       </c>
       <c r="G117" t="n">
-        <v>64.87933333333329</v>
+        <v>64.88399999999996</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>64</v>
+        <v>64.69</v>
       </c>
       <c r="C118" t="n">
-        <v>63.62</v>
+        <v>64.69</v>
       </c>
       <c r="D118" t="n">
-        <v>64</v>
+        <v>64.69</v>
       </c>
       <c r="E118" t="n">
-        <v>63.62</v>
+        <v>64.69</v>
       </c>
       <c r="F118" t="n">
-        <v>13696.9042</v>
+        <v>39.3952</v>
       </c>
       <c r="G118" t="n">
-        <v>64.85416666666663</v>
+        <v>64.87933333333329</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>63.62</v>
+        <v>64</v>
       </c>
       <c r="C119" t="n">
         <v>63.62</v>
       </c>
       <c r="D119" t="n">
-        <v>63.62</v>
+        <v>64</v>
       </c>
       <c r="E119" t="n">
         <v>63.62</v>
       </c>
       <c r="F119" t="n">
-        <v>344.8052</v>
+        <v>13696.9042</v>
       </c>
       <c r="G119" t="n">
-        <v>64.82899999999997</v>
+        <v>64.85416666666663</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>63.63</v>
+        <v>63.62</v>
       </c>
       <c r="C120" t="n">
-        <v>63.63</v>
+        <v>63.62</v>
       </c>
       <c r="D120" t="n">
-        <v>63.63</v>
+        <v>63.62</v>
       </c>
       <c r="E120" t="n">
-        <v>63.63</v>
+        <v>63.62</v>
       </c>
       <c r="F120" t="n">
-        <v>8567.0147</v>
+        <v>344.8052</v>
       </c>
       <c r="G120" t="n">
-        <v>64.80666666666663</v>
+        <v>64.82899999999997</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4601,19 +4601,19 @@
         <v>63.63</v>
       </c>
       <c r="C121" t="n">
-        <v>63.61</v>
+        <v>63.63</v>
       </c>
       <c r="D121" t="n">
         <v>63.63</v>
       </c>
       <c r="E121" t="n">
-        <v>63.61</v>
+        <v>63.63</v>
       </c>
       <c r="F121" t="n">
-        <v>6858.6988</v>
+        <v>8567.0147</v>
       </c>
       <c r="G121" t="n">
-        <v>64.78399999999996</v>
+        <v>64.80666666666663</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>63.61</v>
+        <v>63.63</v>
       </c>
       <c r="C122" t="n">
         <v>63.61</v>
       </c>
       <c r="D122" t="n">
-        <v>63.61</v>
+        <v>63.63</v>
       </c>
       <c r="E122" t="n">
         <v>63.61</v>
       </c>
       <c r="F122" t="n">
-        <v>3237.2086</v>
+        <v>6858.6988</v>
       </c>
       <c r="G122" t="n">
-        <v>64.76266666666665</v>
+        <v>64.78399999999996</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>63.63</v>
+        <v>63.61</v>
       </c>
       <c r="C123" t="n">
-        <v>63.63</v>
+        <v>63.61</v>
       </c>
       <c r="D123" t="n">
-        <v>63.63</v>
+        <v>63.61</v>
       </c>
       <c r="E123" t="n">
-        <v>63.63</v>
+        <v>63.61</v>
       </c>
       <c r="F123" t="n">
-        <v>745.7356</v>
+        <v>3237.2086</v>
       </c>
       <c r="G123" t="n">
-        <v>64.74816666666665</v>
+        <v>64.76266666666665</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>63.61</v>
+        <v>63.63</v>
       </c>
       <c r="C124" t="n">
-        <v>63.45</v>
+        <v>63.63</v>
       </c>
       <c r="D124" t="n">
-        <v>63.61</v>
+        <v>63.63</v>
       </c>
       <c r="E124" t="n">
-        <v>63.45</v>
+        <v>63.63</v>
       </c>
       <c r="F124" t="n">
-        <v>15161.8629</v>
+        <v>745.7356</v>
       </c>
       <c r="G124" t="n">
-        <v>64.73933333333331</v>
+        <v>64.74816666666665</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
+        <v>63.61</v>
+      </c>
+      <c r="C125" t="n">
         <v>63.45</v>
       </c>
-      <c r="C125" t="n">
-        <v>63.44</v>
-      </c>
       <c r="D125" t="n">
+        <v>63.61</v>
+      </c>
+      <c r="E125" t="n">
         <v>63.45</v>
       </c>
-      <c r="E125" t="n">
-        <v>63.44</v>
-      </c>
       <c r="F125" t="n">
-        <v>41703.7982</v>
+        <v>15161.8629</v>
       </c>
       <c r="G125" t="n">
-        <v>64.74999999999997</v>
+        <v>64.73933333333331</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>63.42</v>
+        <v>63.45</v>
       </c>
       <c r="C126" t="n">
-        <v>63</v>
+        <v>63.44</v>
       </c>
       <c r="D126" t="n">
-        <v>63.42</v>
+        <v>63.45</v>
       </c>
       <c r="E126" t="n">
-        <v>63</v>
+        <v>63.44</v>
       </c>
       <c r="F126" t="n">
-        <v>32369.9214</v>
+        <v>41703.7982</v>
       </c>
       <c r="G126" t="n">
-        <v>64.75316666666664</v>
+        <v>64.74999999999997</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>62.97</v>
+        <v>63.42</v>
       </c>
       <c r="C127" t="n">
-        <v>62.97</v>
+        <v>63</v>
       </c>
       <c r="D127" t="n">
-        <v>62.97</v>
+        <v>63.42</v>
       </c>
       <c r="E127" t="n">
-        <v>62.97</v>
+        <v>63</v>
       </c>
       <c r="F127" t="n">
-        <v>4329.4238</v>
+        <v>32369.9214</v>
       </c>
       <c r="G127" t="n">
-        <v>64.75099999999996</v>
+        <v>64.75316666666664</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>63</v>
+        <v>62.97</v>
       </c>
       <c r="C128" t="n">
-        <v>62.87</v>
+        <v>62.97</v>
       </c>
       <c r="D128" t="n">
-        <v>63</v>
+        <v>62.97</v>
       </c>
       <c r="E128" t="n">
-        <v>62.87</v>
+        <v>62.97</v>
       </c>
       <c r="F128" t="n">
-        <v>19629.7752</v>
+        <v>4329.4238</v>
       </c>
       <c r="G128" t="n">
-        <v>64.73099999999997</v>
+        <v>64.75099999999996</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>62.77</v>
+        <v>63</v>
       </c>
       <c r="C129" t="n">
-        <v>62.77</v>
+        <v>62.87</v>
       </c>
       <c r="D129" t="n">
-        <v>62.77</v>
+        <v>63</v>
       </c>
       <c r="E129" t="n">
-        <v>62.77</v>
+        <v>62.87</v>
       </c>
       <c r="F129" t="n">
-        <v>830.8225</v>
+        <v>19629.7752</v>
       </c>
       <c r="G129" t="n">
-        <v>64.7053333333333</v>
+        <v>64.73099999999997</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>63.49</v>
+        <v>62.77</v>
       </c>
       <c r="C130" t="n">
-        <v>62.8</v>
+        <v>62.77</v>
       </c>
       <c r="D130" t="n">
-        <v>63.49</v>
+        <v>62.77</v>
       </c>
       <c r="E130" t="n">
-        <v>62.8</v>
+        <v>62.77</v>
       </c>
       <c r="F130" t="n">
-        <v>15649.2775</v>
+        <v>830.8225</v>
       </c>
       <c r="G130" t="n">
-        <v>64.67999999999996</v>
+        <v>64.7053333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,35 +4948,31 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>64</v>
+        <v>63.49</v>
       </c>
       <c r="C131" t="n">
-        <v>64</v>
+        <v>62.8</v>
       </c>
       <c r="D131" t="n">
-        <v>64</v>
+        <v>63.49</v>
       </c>
       <c r="E131" t="n">
-        <v>64</v>
+        <v>62.8</v>
       </c>
       <c r="F131" t="n">
-        <v>8</v>
+        <v>15649.2775</v>
       </c>
       <c r="G131" t="n">
-        <v>64.6883333333333</v>
+        <v>64.67999999999996</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="K131" t="n">
-        <v>62.8</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
@@ -4999,10 +4995,10 @@
         <v>64</v>
       </c>
       <c r="F132" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G132" t="n">
-        <v>64.67349999999996</v>
+        <v>64.6883333333333</v>
       </c>
       <c r="H132" t="n">
         <v>1</v>
@@ -5011,16 +5007,12 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>64</v>
+        <v>62.8</v>
       </c>
       <c r="K132" t="n">
         <v>62.8</v>
       </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5030,32 +5022,30 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>62.77</v>
+        <v>64</v>
       </c>
       <c r="C133" t="n">
-        <v>62.77</v>
+        <v>64</v>
       </c>
       <c r="D133" t="n">
-        <v>62.77</v>
+        <v>64</v>
       </c>
       <c r="E133" t="n">
-        <v>62.77</v>
+        <v>64</v>
       </c>
       <c r="F133" t="n">
-        <v>10045.5409</v>
+        <v>20</v>
       </c>
       <c r="G133" t="n">
-        <v>64.6368333333333</v>
+        <v>64.67349999999996</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>64</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
         <v>62.8</v>
       </c>
@@ -5085,24 +5075,26 @@
         <v>62.77</v>
       </c>
       <c r="F134" t="n">
-        <v>7751.8777</v>
+        <v>10045.5409</v>
       </c>
       <c r="G134" t="n">
-        <v>64.60016666666664</v>
+        <v>64.6368333333333</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>62.77</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>62.77</v>
-      </c>
-      <c r="L134" t="inlineStr"/>
+        <v>62.8</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5115,777 +5107,689 @@
         <v>62.77</v>
       </c>
       <c r="C135" t="n">
-        <v>62.7</v>
+        <v>62.77</v>
       </c>
       <c r="D135" t="n">
         <v>62.77</v>
       </c>
       <c r="E135" t="n">
+        <v>62.77</v>
+      </c>
+      <c r="F135" t="n">
+        <v>7751.8777</v>
+      </c>
+      <c r="G135" t="n">
+        <v>64.60016666666664</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>62.77</v>
+      </c>
+      <c r="C136" t="n">
         <v>62.7</v>
       </c>
-      <c r="F135" t="n">
+      <c r="D136" t="n">
+        <v>62.77</v>
+      </c>
+      <c r="E136" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="F136" t="n">
         <v>22464.8932</v>
       </c>
-      <c r="G135" t="n">
+      <c r="G136" t="n">
         <v>64.56249999999997</v>
       </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>62.77</v>
-      </c>
-      <c r="K135" t="n">
-        <v>62.77</v>
-      </c>
-      <c r="L135" t="inlineStr">
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>62.61</v>
+      </c>
+      <c r="C137" t="n">
+        <v>62.55</v>
+      </c>
+      <c r="D137" t="n">
+        <v>62.61</v>
+      </c>
+      <c r="E137" t="n">
+        <v>62.55</v>
+      </c>
+      <c r="F137" t="n">
+        <v>27067.917</v>
+      </c>
+      <c r="G137" t="n">
+        <v>64.49166666666663</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="C138" t="n">
+        <v>62.55</v>
+      </c>
+      <c r="D138" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="E138" t="n">
+        <v>62.55</v>
+      </c>
+      <c r="F138" t="n">
+        <v>4829.6336</v>
+      </c>
+      <c r="G138" t="n">
+        <v>64.43416666666664</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>62.56</v>
+      </c>
+      <c r="C139" t="n">
+        <v>62.56</v>
+      </c>
+      <c r="D139" t="n">
+        <v>62.56</v>
+      </c>
+      <c r="E139" t="n">
+        <v>62.56</v>
+      </c>
+      <c r="F139" t="n">
+        <v>10316.7262</v>
+      </c>
+      <c r="G139" t="n">
+        <v>64.4078333333333</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>62.56</v>
+      </c>
+      <c r="C140" t="n">
+        <v>62.51</v>
+      </c>
+      <c r="D140" t="n">
+        <v>62.56</v>
+      </c>
+      <c r="E140" t="n">
+        <v>62.51</v>
+      </c>
+      <c r="F140" t="n">
+        <v>17814.2318</v>
+      </c>
+      <c r="G140" t="n">
+        <v>64.34983333333331</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>62.51</v>
+      </c>
+      <c r="C141" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="D141" t="n">
+        <v>62.51</v>
+      </c>
+      <c r="E141" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="F141" t="n">
+        <v>62549.5971</v>
+      </c>
+      <c r="G141" t="n">
+        <v>64.29166666666666</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="C142" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="D142" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="E142" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2024.7172</v>
+      </c>
+      <c r="G142" t="n">
+        <v>64.23433333333331</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="C143" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="D143" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="E143" t="n">
+        <v>62.01</v>
+      </c>
+      <c r="F143" t="n">
+        <v>22335.8961</v>
+      </c>
+      <c r="G143" t="n">
+        <v>64.19749999999998</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>62.01</v>
+      </c>
+      <c r="C144" t="n">
+        <v>62</v>
+      </c>
+      <c r="D144" t="n">
+        <v>62.01</v>
+      </c>
+      <c r="E144" t="n">
+        <v>62</v>
+      </c>
+      <c r="F144" t="n">
+        <v>10640.6326</v>
+      </c>
+      <c r="G144" t="n">
+        <v>64.11416666666665</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="C145" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="D145" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="E145" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G145" t="n">
+        <v>64.03116666666665</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="C146" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="D146" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="E146" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="F146" t="n">
+        <v>12529.0105</v>
+      </c>
+      <c r="G146" t="n">
+        <v>63.95149999999998</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="C147" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="E147" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="F147" t="n">
+        <v>10.9664</v>
+      </c>
+      <c r="G147" t="n">
+        <v>63.88983333333331</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="K147" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="C148" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="D148" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="E148" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="F148" t="n">
+        <v>7052.1524</v>
+      </c>
+      <c r="G148" t="n">
+        <v>63.82333333333331</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="K148" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="C149" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="D149" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="E149" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="F149" t="n">
+        <v>7945</v>
+      </c>
+      <c r="G149" t="n">
+        <v>63.78116666666665</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="C150" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="D150" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="E150" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="F150" t="n">
+        <v>10780.3103</v>
+      </c>
+      <c r="G150" t="n">
+        <v>63.71649999999999</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>62.05</v>
+      </c>
+      <c r="C151" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="D151" t="n">
+        <v>62.05</v>
+      </c>
+      <c r="E151" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="F151" t="n">
+        <v>8097.752</v>
+      </c>
+      <c r="G151" t="n">
+        <v>63.63949999999999</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="C152" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="D152" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="E152" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="F152" t="n">
+        <v>558.4539</v>
+      </c>
+      <c r="G152" t="n">
+        <v>63.56249999999999</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="K152" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="C153" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D153" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="E153" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="F153" t="n">
+        <v>62091.4315</v>
+      </c>
+      <c r="G153" t="n">
+        <v>63.47683333333332</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="K153" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="L153" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>62.61</v>
-      </c>
-      <c r="C136" t="n">
-        <v>62.55</v>
-      </c>
-      <c r="D136" t="n">
-        <v>62.61</v>
-      </c>
-      <c r="E136" t="n">
-        <v>62.55</v>
-      </c>
-      <c r="F136" t="n">
-        <v>27067.917</v>
-      </c>
-      <c r="G136" t="n">
-        <v>64.49166666666663</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>62.77</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>62.6</v>
-      </c>
-      <c r="C137" t="n">
-        <v>62.55</v>
-      </c>
-      <c r="D137" t="n">
-        <v>62.6</v>
-      </c>
-      <c r="E137" t="n">
-        <v>62.55</v>
-      </c>
-      <c r="F137" t="n">
-        <v>4829.6336</v>
-      </c>
-      <c r="G137" t="n">
-        <v>64.43416666666664</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>62.77</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>62.56</v>
-      </c>
-      <c r="C138" t="n">
-        <v>62.56</v>
-      </c>
-      <c r="D138" t="n">
-        <v>62.56</v>
-      </c>
-      <c r="E138" t="n">
-        <v>62.56</v>
-      </c>
-      <c r="F138" t="n">
-        <v>10316.7262</v>
-      </c>
-      <c r="G138" t="n">
-        <v>64.4078333333333</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>62.77</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>62.56</v>
-      </c>
-      <c r="C139" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="D139" t="n">
-        <v>62.56</v>
-      </c>
-      <c r="E139" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="F139" t="n">
-        <v>17814.2318</v>
-      </c>
-      <c r="G139" t="n">
-        <v>64.34983333333331</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>62.77</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="C140" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="D140" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="E140" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="F140" t="n">
-        <v>62549.5971</v>
-      </c>
-      <c r="G140" t="n">
-        <v>64.29166666666666</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>62.77</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="C141" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="D141" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="E141" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="F141" t="n">
-        <v>2024.7172</v>
-      </c>
-      <c r="G141" t="n">
-        <v>64.23433333333331</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>62.77</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="C142" t="n">
-        <v>63.7</v>
-      </c>
-      <c r="D142" t="n">
-        <v>63.7</v>
-      </c>
-      <c r="E142" t="n">
-        <v>62.01</v>
-      </c>
-      <c r="F142" t="n">
-        <v>22335.8961</v>
-      </c>
-      <c r="G142" t="n">
-        <v>64.19749999999998</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>62.77</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>62.01</v>
-      </c>
-      <c r="C143" t="n">
-        <v>62</v>
-      </c>
-      <c r="D143" t="n">
-        <v>62.01</v>
-      </c>
-      <c r="E143" t="n">
-        <v>62</v>
-      </c>
-      <c r="F143" t="n">
-        <v>10640.6326</v>
-      </c>
-      <c r="G143" t="n">
-        <v>64.11416666666665</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>62.77</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="C144" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="D144" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="E144" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="F144" t="n">
-        <v>1800</v>
-      </c>
-      <c r="G144" t="n">
-        <v>64.03116666666665</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>62.77</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="C145" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="D145" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="E145" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="F145" t="n">
-        <v>12529.0105</v>
-      </c>
-      <c r="G145" t="n">
-        <v>63.95149999999998</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>62.77</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>63.1</v>
-      </c>
-      <c r="C146" t="n">
-        <v>63.1</v>
-      </c>
-      <c r="D146" t="n">
-        <v>63.1</v>
-      </c>
-      <c r="E146" t="n">
-        <v>63.1</v>
-      </c>
-      <c r="F146" t="n">
-        <v>10.9664</v>
-      </c>
-      <c r="G146" t="n">
-        <v>63.88983333333331</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>62.77</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="C147" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="D147" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="E147" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="F147" t="n">
-        <v>7052.1524</v>
-      </c>
-      <c r="G147" t="n">
-        <v>63.82333333333331</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>62.77</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="C148" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="D148" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="E148" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="F148" t="n">
-        <v>7945</v>
-      </c>
-      <c r="G148" t="n">
-        <v>63.78116666666665</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="K148" t="n">
-        <v>62.77</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="C149" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="D149" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="E149" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="F149" t="n">
-        <v>10780.3103</v>
-      </c>
-      <c r="G149" t="n">
-        <v>63.71649999999999</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>62.77</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>62.05</v>
-      </c>
-      <c r="C150" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="D150" t="n">
-        <v>62.05</v>
-      </c>
-      <c r="E150" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="F150" t="n">
-        <v>8097.752</v>
-      </c>
-      <c r="G150" t="n">
-        <v>63.63949999999999</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>62.77</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="C151" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="D151" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="E151" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="F151" t="n">
-        <v>558.4539</v>
-      </c>
-      <c r="G151" t="n">
-        <v>63.56249999999999</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>62.77</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="C152" t="n">
-        <v>61.5</v>
-      </c>
-      <c r="D152" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="E152" t="n">
-        <v>61.5</v>
-      </c>
-      <c r="F152" t="n">
-        <v>62091.4315</v>
-      </c>
-      <c r="G152" t="n">
-        <v>63.47683333333332</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>62.77</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>61.51</v>
-      </c>
-      <c r="C153" t="n">
-        <v>61.51</v>
-      </c>
-      <c r="D153" t="n">
-        <v>61.51</v>
-      </c>
-      <c r="E153" t="n">
-        <v>61.51</v>
-      </c>
-      <c r="F153" t="n">
-        <v>11.9322</v>
-      </c>
-      <c r="G153" t="n">
-        <v>63.407</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>62.77</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5895,22 +5799,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>61.9</v>
+        <v>61.51</v>
       </c>
       <c r="C154" t="n">
-        <v>61.9</v>
+        <v>61.51</v>
       </c>
       <c r="D154" t="n">
-        <v>61.9</v>
+        <v>61.51</v>
       </c>
       <c r="E154" t="n">
-        <v>61.9</v>
+        <v>61.51</v>
       </c>
       <c r="F154" t="n">
-        <v>304</v>
+        <v>11.9322</v>
       </c>
       <c r="G154" t="n">
-        <v>63.3685</v>
+        <v>63.407</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5920,7 +5824,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>62.77</v>
+        <v>62.02</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -5936,32 +5840,34 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>62</v>
+        <v>61.9</v>
       </c>
       <c r="C155" t="n">
-        <v>61.5</v>
+        <v>61.9</v>
       </c>
       <c r="D155" t="n">
-        <v>62</v>
+        <v>61.9</v>
       </c>
       <c r="E155" t="n">
-        <v>61.5</v>
+        <v>61.9</v>
       </c>
       <c r="F155" t="n">
-        <v>23950.0339</v>
+        <v>304</v>
       </c>
       <c r="G155" t="n">
-        <v>63.28583333333334</v>
+        <v>63.3685</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>61.51</v>
+      </c>
       <c r="K155" t="n">
-        <v>62.77</v>
+        <v>62.02</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -5977,32 +5883,34 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>61.51</v>
+        <v>62</v>
       </c>
       <c r="C156" t="n">
-        <v>61.51</v>
+        <v>61.5</v>
       </c>
       <c r="D156" t="n">
-        <v>61.51</v>
+        <v>62</v>
       </c>
       <c r="E156" t="n">
-        <v>61.51</v>
+        <v>61.5</v>
       </c>
       <c r="F156" t="n">
-        <v>1368</v>
+        <v>23950.0339</v>
       </c>
       <c r="G156" t="n">
-        <v>63.23333333333334</v>
+        <v>63.28583333333334</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>61.9</v>
+      </c>
       <c r="K156" t="n">
-        <v>62.77</v>
+        <v>62.02</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6018,22 +5926,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>62</v>
+        <v>61.51</v>
       </c>
       <c r="C157" t="n">
-        <v>61.5</v>
+        <v>61.51</v>
       </c>
       <c r="D157" t="n">
-        <v>62</v>
+        <v>61.51</v>
       </c>
       <c r="E157" t="n">
-        <v>61.5</v>
+        <v>61.51</v>
       </c>
       <c r="F157" t="n">
-        <v>23431.5816</v>
+        <v>1368</v>
       </c>
       <c r="G157" t="n">
-        <v>63.17833333333333</v>
+        <v>63.23333333333334</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6043,7 +5951,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>62.77</v>
+        <v>62.02</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6059,32 +5967,34 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>61.5</v>
+        <v>62</v>
       </c>
       <c r="C158" t="n">
         <v>61.5</v>
       </c>
       <c r="D158" t="n">
-        <v>61.5</v>
+        <v>62</v>
       </c>
       <c r="E158" t="n">
         <v>61.5</v>
       </c>
       <c r="F158" t="n">
-        <v>8574.400299999999</v>
+        <v>23431.5816</v>
       </c>
       <c r="G158" t="n">
-        <v>63.12583333333334</v>
+        <v>63.17833333333333</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>61.51</v>
+      </c>
       <c r="K158" t="n">
-        <v>62.77</v>
+        <v>62.02</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6103,19 +6013,19 @@
         <v>61.5</v>
       </c>
       <c r="C159" t="n">
-        <v>62.79</v>
+        <v>61.5</v>
       </c>
       <c r="D159" t="n">
-        <v>62.79</v>
+        <v>61.5</v>
       </c>
       <c r="E159" t="n">
         <v>61.5</v>
       </c>
       <c r="F159" t="n">
-        <v>33</v>
+        <v>8574.400299999999</v>
       </c>
       <c r="G159" t="n">
-        <v>63.09483333333333</v>
+        <v>63.12583333333334</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6125,7 +6035,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>62.77</v>
+        <v>62.02</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6141,22 +6051,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>62.51</v>
+        <v>61.5</v>
       </c>
       <c r="C160" t="n">
-        <v>62.51</v>
+        <v>62.79</v>
       </c>
       <c r="D160" t="n">
-        <v>62.51</v>
+        <v>62.79</v>
       </c>
       <c r="E160" t="n">
-        <v>62.51</v>
+        <v>61.5</v>
       </c>
       <c r="F160" t="n">
-        <v>1000</v>
+        <v>33</v>
       </c>
       <c r="G160" t="n">
-        <v>63.05916666666667</v>
+        <v>63.09483333333333</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6166,7 +6076,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>62.77</v>
+        <v>62.02</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6182,22 +6092,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>62.79</v>
+        <v>62.51</v>
       </c>
       <c r="C161" t="n">
-        <v>62.8</v>
+        <v>62.51</v>
       </c>
       <c r="D161" t="n">
-        <v>62.8</v>
+        <v>62.51</v>
       </c>
       <c r="E161" t="n">
-        <v>62.79</v>
+        <v>62.51</v>
       </c>
       <c r="F161" t="n">
-        <v>12000</v>
+        <v>1000</v>
       </c>
       <c r="G161" t="n">
-        <v>63.01183333333334</v>
+        <v>63.05916666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6207,7 +6117,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>62.77</v>
+        <v>62.02</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -6223,22 +6133,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>62.4</v>
+        <v>62.79</v>
       </c>
       <c r="C162" t="n">
-        <v>62</v>
+        <v>62.8</v>
       </c>
       <c r="D162" t="n">
-        <v>62.4</v>
+        <v>62.8</v>
       </c>
       <c r="E162" t="n">
-        <v>62</v>
+        <v>62.79</v>
       </c>
       <c r="F162" t="n">
-        <v>29322.1215</v>
+        <v>12000</v>
       </c>
       <c r="G162" t="n">
-        <v>62.9635</v>
+        <v>63.01183333333334</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6248,7 +6158,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>62.77</v>
+        <v>62.02</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -6264,22 +6174,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>62.5</v>
+        <v>62.4</v>
       </c>
       <c r="C163" t="n">
-        <v>62.5</v>
+        <v>62</v>
       </c>
       <c r="D163" t="n">
-        <v>62.5</v>
+        <v>62.4</v>
       </c>
       <c r="E163" t="n">
-        <v>62.5</v>
+        <v>62</v>
       </c>
       <c r="F163" t="n">
-        <v>591</v>
+        <v>29322.1215</v>
       </c>
       <c r="G163" t="n">
-        <v>62.93666666666667</v>
+        <v>62.9635</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6289,7 +6199,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>62.77</v>
+        <v>62.02</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -6317,10 +6227,10 @@
         <v>62.5</v>
       </c>
       <c r="F164" t="n">
-        <v>372.7809</v>
+        <v>591</v>
       </c>
       <c r="G164" t="n">
-        <v>62.91183333333334</v>
+        <v>62.93666666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6330,7 +6240,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>62.77</v>
+        <v>62.02</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -6358,10 +6268,10 @@
         <v>62.5</v>
       </c>
       <c r="F165" t="n">
-        <v>1263.8821</v>
+        <v>372.7809</v>
       </c>
       <c r="G165" t="n">
-        <v>62.88716666666667</v>
+        <v>62.91183333333334</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6371,7 +6281,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>62.77</v>
+        <v>62.02</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -6390,19 +6300,19 @@
         <v>62.5</v>
       </c>
       <c r="C166" t="n">
-        <v>62.75</v>
+        <v>62.5</v>
       </c>
       <c r="D166" t="n">
-        <v>62.75</v>
+        <v>62.5</v>
       </c>
       <c r="E166" t="n">
         <v>62.5</v>
       </c>
       <c r="F166" t="n">
-        <v>7537.5486</v>
+        <v>1263.8821</v>
       </c>
       <c r="G166" t="n">
-        <v>62.86666666666667</v>
+        <v>62.88716666666667</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6412,7 +6322,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>62.77</v>
+        <v>62.02</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -6428,7 +6338,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>62.75</v>
+        <v>62.5</v>
       </c>
       <c r="C167" t="n">
         <v>62.75</v>
@@ -6437,13 +6347,13 @@
         <v>62.75</v>
       </c>
       <c r="E167" t="n">
-        <v>62.75</v>
+        <v>62.5</v>
       </c>
       <c r="F167" t="n">
-        <v>1302.837</v>
+        <v>7537.5486</v>
       </c>
       <c r="G167" t="n">
-        <v>62.85683333333334</v>
+        <v>62.86666666666667</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6453,7 +6363,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>62.77</v>
+        <v>62.02</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -6469,22 +6379,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>62.02</v>
+        <v>62.75</v>
       </c>
       <c r="C168" t="n">
-        <v>62.02</v>
+        <v>62.75</v>
       </c>
       <c r="D168" t="n">
-        <v>62.02</v>
+        <v>62.75</v>
       </c>
       <c r="E168" t="n">
-        <v>62.02</v>
+        <v>62.75</v>
       </c>
       <c r="F168" t="n">
-        <v>1294</v>
+        <v>1302.837</v>
       </c>
       <c r="G168" t="n">
-        <v>62.83366666666667</v>
+        <v>62.85683333333334</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6494,7 +6404,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>62.77</v>
+        <v>62.02</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -6510,22 +6420,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>62.07</v>
+        <v>62.02</v>
       </c>
       <c r="C169" t="n">
-        <v>62.07</v>
+        <v>62.02</v>
       </c>
       <c r="D169" t="n">
-        <v>62.07</v>
+        <v>62.02</v>
       </c>
       <c r="E169" t="n">
-        <v>62.07</v>
+        <v>62.02</v>
       </c>
       <c r="F169" t="n">
-        <v>917</v>
+        <v>1294</v>
       </c>
       <c r="G169" t="n">
-        <v>62.81150000000001</v>
+        <v>62.83366666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6535,7 +6445,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>62.77</v>
+        <v>62.02</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -6551,22 +6461,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>62.75</v>
+        <v>62.07</v>
       </c>
       <c r="C170" t="n">
-        <v>62.75</v>
+        <v>62.07</v>
       </c>
       <c r="D170" t="n">
-        <v>62.75</v>
+        <v>62.07</v>
       </c>
       <c r="E170" t="n">
-        <v>62.75</v>
+        <v>62.07</v>
       </c>
       <c r="F170" t="n">
-        <v>11664.4543</v>
+        <v>917</v>
       </c>
       <c r="G170" t="n">
-        <v>62.80066666666667</v>
+        <v>62.81150000000001</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6576,7 +6486,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>62.77</v>
+        <v>62.02</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -6592,22 +6502,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>62.8</v>
+        <v>62.75</v>
       </c>
       <c r="C171" t="n">
-        <v>62.8</v>
+        <v>62.75</v>
       </c>
       <c r="D171" t="n">
-        <v>62.8</v>
+        <v>62.75</v>
       </c>
       <c r="E171" t="n">
-        <v>62.8</v>
+        <v>62.75</v>
       </c>
       <c r="F171" t="n">
-        <v>8</v>
+        <v>11664.4543</v>
       </c>
       <c r="G171" t="n">
-        <v>62.76583333333335</v>
+        <v>62.80066666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6617,7 +6527,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>62.77</v>
+        <v>62.02</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -6633,7 +6543,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>62.75</v>
+        <v>62.8</v>
       </c>
       <c r="C172" t="n">
         <v>62.8</v>
@@ -6642,13 +6552,13 @@
         <v>62.8</v>
       </c>
       <c r="E172" t="n">
-        <v>62.75</v>
+        <v>62.8</v>
       </c>
       <c r="F172" t="n">
-        <v>1972.6847</v>
+        <v>8</v>
       </c>
       <c r="G172" t="n">
-        <v>62.75233333333335</v>
+        <v>62.76583333333335</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6658,7 +6568,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>62.77</v>
+        <v>62.02</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -6674,22 +6584,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>63</v>
+        <v>62.75</v>
       </c>
       <c r="C173" t="n">
         <v>62.8</v>
       </c>
       <c r="D173" t="n">
-        <v>63</v>
+        <v>62.8</v>
       </c>
       <c r="E173" t="n">
-        <v>62.8</v>
+        <v>62.75</v>
       </c>
       <c r="F173" t="n">
-        <v>1964.5075</v>
+        <v>1972.6847</v>
       </c>
       <c r="G173" t="n">
-        <v>62.74150000000002</v>
+        <v>62.75233333333335</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6699,7 +6609,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>62.77</v>
+        <v>62.02</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -6718,19 +6628,19 @@
         <v>63</v>
       </c>
       <c r="C174" t="n">
-        <v>63</v>
+        <v>62.8</v>
       </c>
       <c r="D174" t="n">
         <v>63</v>
       </c>
       <c r="E174" t="n">
-        <v>63</v>
+        <v>62.8</v>
       </c>
       <c r="F174" t="n">
-        <v>551.4924999999999</v>
+        <v>1964.5075</v>
       </c>
       <c r="G174" t="n">
-        <v>62.73133333333335</v>
+        <v>62.74150000000002</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6740,7 +6650,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>62.77</v>
+        <v>62.02</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -6756,22 +6666,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>63.19</v>
+        <v>63</v>
       </c>
       <c r="C175" t="n">
-        <v>63.2</v>
+        <v>63</v>
       </c>
       <c r="D175" t="n">
-        <v>63.2</v>
+        <v>63</v>
       </c>
       <c r="E175" t="n">
-        <v>63.19</v>
+        <v>63</v>
       </c>
       <c r="F175" t="n">
-        <v>400</v>
+        <v>551.4924999999999</v>
       </c>
       <c r="G175" t="n">
-        <v>62.72450000000001</v>
+        <v>62.73133333333335</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6781,7 +6691,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>62.77</v>
+        <v>62.02</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -6797,22 +6707,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>63.99</v>
+        <v>63.19</v>
       </c>
       <c r="C176" t="n">
         <v>63.2</v>
       </c>
       <c r="D176" t="n">
-        <v>63.99</v>
+        <v>63.2</v>
       </c>
       <c r="E176" t="n">
-        <v>63.2</v>
+        <v>63.19</v>
       </c>
       <c r="F176" t="n">
-        <v>1188.3384</v>
+        <v>400</v>
       </c>
       <c r="G176" t="n">
-        <v>62.71766666666667</v>
+        <v>62.72450000000001</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6822,7 +6732,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>62.77</v>
+        <v>62.02</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -6838,22 +6748,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>63</v>
+        <v>63.99</v>
       </c>
       <c r="C177" t="n">
-        <v>62.02</v>
+        <v>63.2</v>
       </c>
       <c r="D177" t="n">
-        <v>63</v>
+        <v>63.99</v>
       </c>
       <c r="E177" t="n">
-        <v>62.02</v>
+        <v>63.2</v>
       </c>
       <c r="F177" t="n">
-        <v>5855.6847</v>
+        <v>1188.3384</v>
       </c>
       <c r="G177" t="n">
-        <v>62.67316666666667</v>
+        <v>62.71766666666667</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6863,7 +6773,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>62.77</v>
+        <v>62.02</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -6879,22 +6789,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>62.05</v>
+        <v>63</v>
       </c>
       <c r="C178" t="n">
-        <v>62.05</v>
+        <v>62.02</v>
       </c>
       <c r="D178" t="n">
-        <v>62.05</v>
+        <v>63</v>
       </c>
       <c r="E178" t="n">
-        <v>62.05</v>
+        <v>62.02</v>
       </c>
       <c r="F178" t="n">
-        <v>100</v>
+        <v>5855.6847</v>
       </c>
       <c r="G178" t="n">
-        <v>62.64700000000001</v>
+        <v>62.67316666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6904,7 +6814,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>62.77</v>
+        <v>62.02</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -6920,22 +6830,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>63.98</v>
+        <v>62.05</v>
       </c>
       <c r="C179" t="n">
-        <v>63.98</v>
+        <v>62.05</v>
       </c>
       <c r="D179" t="n">
-        <v>63.98</v>
+        <v>62.05</v>
       </c>
       <c r="E179" t="n">
-        <v>63.98</v>
+        <v>62.05</v>
       </c>
       <c r="F179" t="n">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="G179" t="n">
-        <v>62.65300000000001</v>
+        <v>62.64700000000001</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6945,7 +6855,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>62.77</v>
+        <v>62.02</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -6961,22 +6871,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>62.2</v>
+        <v>63.98</v>
       </c>
       <c r="C180" t="n">
-        <v>62.2</v>
+        <v>63.98</v>
       </c>
       <c r="D180" t="n">
-        <v>62.2</v>
+        <v>63.98</v>
       </c>
       <c r="E180" t="n">
-        <v>62.2</v>
+        <v>63.98</v>
       </c>
       <c r="F180" t="n">
-        <v>291.73</v>
+        <v>8</v>
       </c>
       <c r="G180" t="n">
-        <v>62.62916666666668</v>
+        <v>62.65300000000001</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6986,7 +6896,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>62.77</v>
+        <v>62.02</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -7014,10 +6924,10 @@
         <v>62.2</v>
       </c>
       <c r="F181" t="n">
-        <v>1211</v>
+        <v>291.73</v>
       </c>
       <c r="G181" t="n">
-        <v>62.60566666666667</v>
+        <v>62.62916666666668</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7027,7 +6937,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>62.77</v>
+        <v>62.02</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -7046,19 +6956,19 @@
         <v>62.2</v>
       </c>
       <c r="C182" t="n">
-        <v>61.9</v>
+        <v>62.2</v>
       </c>
       <c r="D182" t="n">
         <v>62.2</v>
       </c>
       <c r="E182" t="n">
-        <v>61.9</v>
+        <v>62.2</v>
       </c>
       <c r="F182" t="n">
-        <v>1186</v>
+        <v>1211</v>
       </c>
       <c r="G182" t="n">
-        <v>62.57716666666667</v>
+        <v>62.60566666666667</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7068,7 +6978,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
-        <v>62.77</v>
+        <v>62.02</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -7084,22 +6994,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>63.5</v>
+        <v>62.2</v>
       </c>
       <c r="C183" t="n">
-        <v>63.5</v>
+        <v>61.9</v>
       </c>
       <c r="D183" t="n">
-        <v>63.5</v>
+        <v>62.2</v>
       </c>
       <c r="E183" t="n">
-        <v>63.5</v>
+        <v>61.9</v>
       </c>
       <c r="F183" t="n">
-        <v>8</v>
+        <v>1186</v>
       </c>
       <c r="G183" t="n">
-        <v>62.575</v>
+        <v>62.57716666666667</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7109,7 +7019,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
-        <v>62.77</v>
+        <v>62.02</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -7125,22 +7035,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>63.37</v>
+        <v>63.5</v>
       </c>
       <c r="C184" t="n">
-        <v>63.37</v>
+        <v>63.5</v>
       </c>
       <c r="D184" t="n">
-        <v>63.37</v>
+        <v>63.5</v>
       </c>
       <c r="E184" t="n">
-        <v>63.37</v>
+        <v>63.5</v>
       </c>
       <c r="F184" t="n">
-        <v>2072.7695</v>
+        <v>8</v>
       </c>
       <c r="G184" t="n">
-        <v>62.57366666666667</v>
+        <v>62.575</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7150,7 +7060,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>62.77</v>
+        <v>62.02</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -7178,10 +7088,10 @@
         <v>63.37</v>
       </c>
       <c r="F185" t="n">
-        <v>2805.3922</v>
+        <v>2072.7695</v>
       </c>
       <c r="G185" t="n">
-        <v>62.5725</v>
+        <v>62.57366666666667</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7191,7 +7101,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>62.77</v>
+        <v>62.02</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -7219,413 +7129,479 @@
         <v>63.37</v>
       </c>
       <c r="F186" t="n">
-        <v>1779.8915</v>
+        <v>2805.3922</v>
       </c>
       <c r="G186" t="n">
-        <v>62.57866666666666</v>
+        <v>62.5725</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>62.77</v>
+        <v>62.02</v>
       </c>
       <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>63.37</v>
+      </c>
+      <c r="C187" t="n">
+        <v>63.37</v>
+      </c>
+      <c r="D187" t="n">
+        <v>63.37</v>
+      </c>
+      <c r="E187" t="n">
+        <v>63.37</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1779.8915</v>
+      </c>
+      <c r="G187" t="n">
+        <v>62.57866666666666</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>63.37</v>
+      </c>
+      <c r="C188" t="n">
+        <v>63.37</v>
+      </c>
+      <c r="D188" t="n">
+        <v>63.37</v>
+      </c>
+      <c r="E188" t="n">
+        <v>63.37</v>
+      </c>
+      <c r="F188" t="n">
+        <v>964.8467000000001</v>
+      </c>
+      <c r="G188" t="n">
+        <v>62.58533333333333</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="C189" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="D189" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="E189" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="F189" t="n">
+        <v>8</v>
+      </c>
+      <c r="G189" t="n">
+        <v>62.59583333333333</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="C190" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="D190" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="E190" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="F190" t="n">
+        <v>433.8068</v>
+      </c>
+      <c r="G190" t="n">
+        <v>62.608</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="C191" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="D191" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="E191" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="F191" t="n">
+        <v>10.0957</v>
+      </c>
+      <c r="G191" t="n">
+        <v>62.61966666666667</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="C192" t="n">
+        <v>63.59</v>
+      </c>
+      <c r="D192" t="n">
+        <v>63.59</v>
+      </c>
+      <c r="E192" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2628.9855</v>
+      </c>
+      <c r="G192" t="n">
+        <v>62.61283333333333</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>63.59</v>
+      </c>
+      <c r="C193" t="n">
+        <v>63.59</v>
+      </c>
+      <c r="D193" t="n">
+        <v>63.59</v>
+      </c>
+      <c r="E193" t="n">
+        <v>63.59</v>
+      </c>
+      <c r="F193" t="n">
+        <v>676.4081</v>
+      </c>
+      <c r="G193" t="n">
+        <v>62.606</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="C194" t="n">
+        <v>63.97</v>
+      </c>
+      <c r="D194" t="n">
+        <v>63.97</v>
+      </c>
+      <c r="E194" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="F194" t="n">
+        <v>8605.4</v>
+      </c>
+      <c r="G194" t="n">
+        <v>62.626</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>62.61</v>
+      </c>
+      <c r="C195" t="n">
+        <v>63.97</v>
+      </c>
+      <c r="D195" t="n">
+        <v>63.97</v>
+      </c>
+      <c r="E195" t="n">
+        <v>62.61</v>
+      </c>
+      <c r="F195" t="n">
+        <v>27632.4998</v>
+      </c>
+      <c r="G195" t="n">
+        <v>62.64599999999999</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="C196" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="D196" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="E196" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="F196" t="n">
+        <v>11806.2807</v>
+      </c>
+      <c r="G196" t="n">
+        <v>62.66733333333333</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="C197" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="D197" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="E197" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="F197" t="n">
+        <v>3602.1952</v>
+      </c>
+      <c r="G197" t="n">
+        <v>62.69116666666666</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="L197" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M186" t="n">
-        <v>1.004558706388402</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>63.37</v>
-      </c>
-      <c r="C187" t="n">
-        <v>63.37</v>
-      </c>
-      <c r="D187" t="n">
-        <v>63.37</v>
-      </c>
-      <c r="E187" t="n">
-        <v>63.37</v>
-      </c>
-      <c r="F187" t="n">
-        <v>964.8467000000001</v>
-      </c>
-      <c r="G187" t="n">
-        <v>62.58533333333333</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="C188" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="D188" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="E188" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="F188" t="n">
-        <v>8</v>
-      </c>
-      <c r="G188" t="n">
-        <v>62.59583333333333</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>1</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="C189" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="D189" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="E189" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="F189" t="n">
-        <v>433.8068</v>
-      </c>
-      <c r="G189" t="n">
-        <v>62.608</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="C190" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="D190" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="E190" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="F190" t="n">
-        <v>10.0957</v>
-      </c>
-      <c r="G190" t="n">
-        <v>62.61966666666667</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>1</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="C191" t="n">
-        <v>63.59</v>
-      </c>
-      <c r="D191" t="n">
-        <v>63.59</v>
-      </c>
-      <c r="E191" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="F191" t="n">
-        <v>2628.9855</v>
-      </c>
-      <c r="G191" t="n">
-        <v>62.61283333333333</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>1</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>63.59</v>
-      </c>
-      <c r="C192" t="n">
-        <v>63.59</v>
-      </c>
-      <c r="D192" t="n">
-        <v>63.59</v>
-      </c>
-      <c r="E192" t="n">
-        <v>63.59</v>
-      </c>
-      <c r="F192" t="n">
-        <v>676.4081</v>
-      </c>
-      <c r="G192" t="n">
-        <v>62.606</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>1</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>63.9</v>
-      </c>
-      <c r="C193" t="n">
-        <v>63.97</v>
-      </c>
-      <c r="D193" t="n">
-        <v>63.97</v>
-      </c>
-      <c r="E193" t="n">
-        <v>63.9</v>
-      </c>
-      <c r="F193" t="n">
-        <v>8605.4</v>
-      </c>
-      <c r="G193" t="n">
-        <v>62.626</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>62.61</v>
-      </c>
-      <c r="C194" t="n">
-        <v>63.97</v>
-      </c>
-      <c r="D194" t="n">
-        <v>63.97</v>
-      </c>
-      <c r="E194" t="n">
-        <v>62.61</v>
-      </c>
-      <c r="F194" t="n">
-        <v>27632.4998</v>
-      </c>
-      <c r="G194" t="n">
-        <v>62.64599999999999</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="C195" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="D195" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="E195" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="F195" t="n">
-        <v>11806.2807</v>
-      </c>
-      <c r="G195" t="n">
-        <v>62.66733333333333</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>1</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="C196" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="D196" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="E196" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="F196" t="n">
-        <v>3602.1952</v>
-      </c>
-      <c r="G196" t="n">
-        <v>62.69116666666666</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>1</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="C197" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="D197" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="E197" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="F197" t="n">
-        <v>372.9566</v>
-      </c>
-      <c r="G197" t="n">
-        <v>62.715</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>1</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
-        <v>1</v>
+        <v>1.026602708803612</v>
       </c>
     </row>
     <row r="198">
@@ -7645,10 +7621,10 @@
         <v>63.98</v>
       </c>
       <c r="F198" t="n">
-        <v>372.9567</v>
+        <v>372.9566</v>
       </c>
       <c r="G198" t="n">
-        <v>62.73866666666666</v>
+        <v>62.715</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7680,16 +7656,16 @@
         <v>63.98</v>
       </c>
       <c r="F199" t="n">
-        <v>8771.887699999999</v>
+        <v>372.9567</v>
       </c>
       <c r="G199" t="n">
-        <v>62.76316666666666</v>
+        <v>62.73866666666666</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
@@ -7703,28 +7679,28 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>63.97</v>
+        <v>63.98</v>
       </c>
       <c r="C200" t="n">
-        <v>63.97</v>
+        <v>63.98</v>
       </c>
       <c r="D200" t="n">
-        <v>63.97</v>
+        <v>63.98</v>
       </c>
       <c r="E200" t="n">
-        <v>63.97</v>
+        <v>63.98</v>
       </c>
       <c r="F200" t="n">
-        <v>1285.7455</v>
+        <v>8771.887699999999</v>
       </c>
       <c r="G200" t="n">
-        <v>62.78766666666665</v>
+        <v>62.76316666666666</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
@@ -7738,22 +7714,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>63.99</v>
+        <v>63.97</v>
       </c>
       <c r="C201" t="n">
-        <v>63.99</v>
+        <v>63.97</v>
       </c>
       <c r="D201" t="n">
-        <v>63.99</v>
+        <v>63.97</v>
       </c>
       <c r="E201" t="n">
-        <v>63.99</v>
+        <v>63.97</v>
       </c>
       <c r="F201" t="n">
-        <v>1369.4867</v>
+        <v>1285.7455</v>
       </c>
       <c r="G201" t="n">
-        <v>62.81249999999999</v>
+        <v>62.78766666666665</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7773,22 +7749,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>63.97</v>
+        <v>63.99</v>
       </c>
       <c r="C202" t="n">
-        <v>63.96</v>
+        <v>63.99</v>
       </c>
       <c r="D202" t="n">
-        <v>63.97</v>
+        <v>63.99</v>
       </c>
       <c r="E202" t="n">
-        <v>63.96</v>
+        <v>63.99</v>
       </c>
       <c r="F202" t="n">
-        <v>803.4663</v>
+        <v>1369.4867</v>
       </c>
       <c r="G202" t="n">
-        <v>62.81683333333332</v>
+        <v>62.81249999999999</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7808,28 +7784,28 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>64</v>
+        <v>63.97</v>
       </c>
       <c r="C203" t="n">
-        <v>64</v>
+        <v>63.96</v>
       </c>
       <c r="D203" t="n">
-        <v>64</v>
+        <v>63.97</v>
       </c>
       <c r="E203" t="n">
-        <v>64</v>
+        <v>63.96</v>
       </c>
       <c r="F203" t="n">
-        <v>310.7568</v>
+        <v>803.4663</v>
       </c>
       <c r="G203" t="n">
-        <v>62.85016666666665</v>
+        <v>62.81683333333332</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
@@ -7843,22 +7819,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>64.09</v>
+        <v>64</v>
       </c>
       <c r="C204" t="n">
-        <v>64.09</v>
+        <v>64</v>
       </c>
       <c r="D204" t="n">
-        <v>64.09</v>
+        <v>64</v>
       </c>
       <c r="E204" t="n">
-        <v>64.09</v>
+        <v>64</v>
       </c>
       <c r="F204" t="n">
-        <v>667.3478</v>
+        <v>310.7568</v>
       </c>
       <c r="G204" t="n">
-        <v>62.88466666666666</v>
+        <v>62.85016666666665</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7890,10 +7866,10 @@
         <v>64.09</v>
       </c>
       <c r="F205" t="n">
-        <v>7162.8511</v>
+        <v>667.3478</v>
       </c>
       <c r="G205" t="n">
-        <v>62.91916666666666</v>
+        <v>62.88466666666666</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7913,22 +7889,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>64.09999999999999</v>
+        <v>64.09</v>
       </c>
       <c r="C206" t="n">
-        <v>64.09999999999999</v>
+        <v>64.09</v>
       </c>
       <c r="D206" t="n">
-        <v>64.09999999999999</v>
+        <v>64.09</v>
       </c>
       <c r="E206" t="n">
-        <v>64.09999999999999</v>
+        <v>64.09</v>
       </c>
       <c r="F206" t="n">
-        <v>1152.246</v>
+        <v>7162.8511</v>
       </c>
       <c r="G206" t="n">
-        <v>62.93583333333333</v>
+        <v>62.91916666666666</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7951,19 +7927,19 @@
         <v>64.09999999999999</v>
       </c>
       <c r="C207" t="n">
-        <v>64.3</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="D207" t="n">
-        <v>64.3</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="E207" t="n">
         <v>64.09999999999999</v>
       </c>
       <c r="F207" t="n">
-        <v>10</v>
+        <v>1152.246</v>
       </c>
       <c r="G207" t="n">
-        <v>62.96083333333333</v>
+        <v>62.93583333333333</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7986,25 +7962,25 @@
         <v>64.09999999999999</v>
       </c>
       <c r="C208" t="n">
-        <v>64.09999999999999</v>
+        <v>64.3</v>
       </c>
       <c r="D208" t="n">
-        <v>64.09999999999999</v>
+        <v>64.3</v>
       </c>
       <c r="E208" t="n">
         <v>64.09999999999999</v>
       </c>
       <c r="F208" t="n">
-        <v>761</v>
+        <v>10</v>
       </c>
       <c r="G208" t="n">
-        <v>62.98249999999999</v>
+        <v>62.96083333333333</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
@@ -8030,16 +8006,16 @@
         <v>64.09999999999999</v>
       </c>
       <c r="F209" t="n">
-        <v>80</v>
+        <v>761</v>
       </c>
       <c r="G209" t="n">
-        <v>63.00416666666665</v>
+        <v>62.98249999999999</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
@@ -8053,28 +8029,28 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>64.3</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="C210" t="n">
-        <v>64.3</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="D210" t="n">
-        <v>64.3</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="E210" t="n">
-        <v>64.3</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="F210" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G210" t="n">
-        <v>63.04216666666665</v>
+        <v>63.00416666666665</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
@@ -8088,22 +8064,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>64.09999999999999</v>
+        <v>64.3</v>
       </c>
       <c r="C211" t="n">
-        <v>63.1</v>
+        <v>64.3</v>
       </c>
       <c r="D211" t="n">
-        <v>64.09999999999999</v>
+        <v>64.3</v>
       </c>
       <c r="E211" t="n">
-        <v>63.1</v>
+        <v>64.3</v>
       </c>
       <c r="F211" t="n">
-        <v>1841</v>
+        <v>8</v>
       </c>
       <c r="G211" t="n">
-        <v>63.06016666666665</v>
+        <v>63.04216666666665</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8123,28 +8099,28 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>64.3</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="C212" t="n">
-        <v>64.3</v>
+        <v>63.1</v>
       </c>
       <c r="D212" t="n">
-        <v>64.3</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="E212" t="n">
-        <v>64.3</v>
+        <v>63.1</v>
       </c>
       <c r="F212" t="n">
-        <v>8</v>
+        <v>1841</v>
       </c>
       <c r="G212" t="n">
-        <v>63.10683333333332</v>
+        <v>63.06016666666665</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
@@ -8158,22 +8134,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>63.11</v>
+        <v>64.3</v>
       </c>
       <c r="C213" t="n">
-        <v>63.11</v>
+        <v>64.3</v>
       </c>
       <c r="D213" t="n">
-        <v>63.11</v>
+        <v>64.3</v>
       </c>
       <c r="E213" t="n">
-        <v>63.11</v>
+        <v>64.3</v>
       </c>
       <c r="F213" t="n">
-        <v>2174</v>
+        <v>8</v>
       </c>
       <c r="G213" t="n">
-        <v>63.13349999999999</v>
+        <v>63.10683333333332</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8193,22 +8169,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>64.3</v>
+        <v>63.11</v>
       </c>
       <c r="C214" t="n">
-        <v>64.3</v>
+        <v>63.11</v>
       </c>
       <c r="D214" t="n">
-        <v>64.3</v>
+        <v>63.11</v>
       </c>
       <c r="E214" t="n">
-        <v>64.3</v>
+        <v>63.11</v>
       </c>
       <c r="F214" t="n">
-        <v>10</v>
+        <v>2174</v>
       </c>
       <c r="G214" t="n">
-        <v>63.17349999999999</v>
+        <v>63.13349999999999</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8228,22 +8204,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>63.12</v>
+        <v>64.3</v>
       </c>
       <c r="C215" t="n">
-        <v>63.12</v>
+        <v>64.3</v>
       </c>
       <c r="D215" t="n">
-        <v>63.12</v>
+        <v>64.3</v>
       </c>
       <c r="E215" t="n">
-        <v>63.12</v>
+        <v>64.3</v>
       </c>
       <c r="F215" t="n">
-        <v>85.8342</v>
+        <v>10</v>
       </c>
       <c r="G215" t="n">
-        <v>63.20049999999999</v>
+        <v>63.17349999999999</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8263,22 +8239,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>63.1</v>
+        <v>63.12</v>
       </c>
       <c r="C216" t="n">
-        <v>63</v>
+        <v>63.12</v>
       </c>
       <c r="D216" t="n">
-        <v>63.1</v>
+        <v>63.12</v>
       </c>
       <c r="E216" t="n">
-        <v>63</v>
+        <v>63.12</v>
       </c>
       <c r="F216" t="n">
-        <v>14843.5009</v>
+        <v>85.8342</v>
       </c>
       <c r="G216" t="n">
-        <v>63.22533333333332</v>
+        <v>63.20049999999999</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8298,22 +8274,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>62.81</v>
+        <v>63.1</v>
       </c>
       <c r="C217" t="n">
-        <v>62.8</v>
+        <v>63</v>
       </c>
       <c r="D217" t="n">
-        <v>62.81</v>
+        <v>63.1</v>
       </c>
       <c r="E217" t="n">
-        <v>62.8</v>
+        <v>63</v>
       </c>
       <c r="F217" t="n">
-        <v>3403.3018</v>
+        <v>14843.5009</v>
       </c>
       <c r="G217" t="n">
-        <v>63.24699999999999</v>
+        <v>63.22533333333332</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8333,22 +8309,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
+        <v>62.81</v>
+      </c>
+      <c r="C218" t="n">
         <v>62.8</v>
       </c>
-      <c r="C218" t="n">
-        <v>64.05</v>
-      </c>
       <c r="D218" t="n">
-        <v>64.05</v>
+        <v>62.81</v>
       </c>
       <c r="E218" t="n">
         <v>62.8</v>
       </c>
       <c r="F218" t="n">
-        <v>5981.3924</v>
+        <v>3403.3018</v>
       </c>
       <c r="G218" t="n">
-        <v>63.28949999999999</v>
+        <v>63.24699999999999</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8368,22 +8344,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>62.9</v>
+        <v>62.8</v>
       </c>
       <c r="C219" t="n">
-        <v>62.5</v>
+        <v>64.05</v>
       </c>
       <c r="D219" t="n">
-        <v>62.9</v>
+        <v>64.05</v>
       </c>
       <c r="E219" t="n">
-        <v>62.5</v>
+        <v>62.8</v>
       </c>
       <c r="F219" t="n">
-        <v>5004.6876</v>
+        <v>5981.3924</v>
       </c>
       <c r="G219" t="n">
-        <v>63.28466666666666</v>
+        <v>63.28949999999999</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8403,22 +8379,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>63.97</v>
+        <v>62.9</v>
       </c>
       <c r="C220" t="n">
-        <v>63.97</v>
+        <v>62.5</v>
       </c>
       <c r="D220" t="n">
-        <v>63.97</v>
+        <v>62.9</v>
       </c>
       <c r="E220" t="n">
-        <v>63.97</v>
+        <v>62.5</v>
       </c>
       <c r="F220" t="n">
-        <v>8</v>
+        <v>5004.6876</v>
       </c>
       <c r="G220" t="n">
-        <v>63.30899999999998</v>
+        <v>63.28466666666666</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8438,22 +8414,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>62.61</v>
+        <v>63.97</v>
       </c>
       <c r="C221" t="n">
-        <v>62.61</v>
+        <v>63.97</v>
       </c>
       <c r="D221" t="n">
-        <v>62.61</v>
+        <v>63.97</v>
       </c>
       <c r="E221" t="n">
-        <v>62.61</v>
+        <v>63.97</v>
       </c>
       <c r="F221" t="n">
-        <v>1733</v>
+        <v>8</v>
       </c>
       <c r="G221" t="n">
-        <v>63.30583333333332</v>
+        <v>63.30899999999998</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8473,22 +8449,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>62.7</v>
+        <v>62.61</v>
       </c>
       <c r="C222" t="n">
-        <v>62.9</v>
+        <v>62.61</v>
       </c>
       <c r="D222" t="n">
-        <v>62.9</v>
+        <v>62.61</v>
       </c>
       <c r="E222" t="n">
-        <v>62.7</v>
+        <v>62.61</v>
       </c>
       <c r="F222" t="n">
-        <v>3629.2232</v>
+        <v>1733</v>
       </c>
       <c r="G222" t="n">
-        <v>63.32083333333332</v>
+        <v>63.30583333333332</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8508,22 +8484,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>62.86</v>
+        <v>62.7</v>
       </c>
       <c r="C223" t="n">
-        <v>62.86</v>
+        <v>62.9</v>
       </c>
       <c r="D223" t="n">
-        <v>62.86</v>
+        <v>62.9</v>
       </c>
       <c r="E223" t="n">
-        <v>62.86</v>
+        <v>62.7</v>
       </c>
       <c r="F223" t="n">
-        <v>22001.4134</v>
+        <v>3629.2232</v>
       </c>
       <c r="G223" t="n">
-        <v>63.32683333333332</v>
+        <v>63.32083333333332</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8543,22 +8519,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>63.77</v>
+        <v>62.86</v>
       </c>
       <c r="C224" t="n">
-        <v>63.77</v>
+        <v>62.86</v>
       </c>
       <c r="D224" t="n">
-        <v>63.77</v>
+        <v>62.86</v>
       </c>
       <c r="E224" t="n">
-        <v>63.77</v>
+        <v>62.86</v>
       </c>
       <c r="F224" t="n">
-        <v>54.0677</v>
+        <v>22001.4134</v>
       </c>
       <c r="G224" t="n">
-        <v>63.34799999999998</v>
+        <v>63.32683333333332</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8578,22 +8554,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>63</v>
+        <v>63.77</v>
       </c>
       <c r="C225" t="n">
-        <v>63</v>
+        <v>63.77</v>
       </c>
       <c r="D225" t="n">
-        <v>63</v>
+        <v>63.77</v>
       </c>
       <c r="E225" t="n">
-        <v>63</v>
+        <v>63.77</v>
       </c>
       <c r="F225" t="n">
-        <v>1256</v>
+        <v>54.0677</v>
       </c>
       <c r="G225" t="n">
-        <v>63.35633333333332</v>
+        <v>63.34799999999998</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8613,22 +8589,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>63.3</v>
+        <v>63</v>
       </c>
       <c r="C226" t="n">
-        <v>63.3</v>
+        <v>63</v>
       </c>
       <c r="D226" t="n">
-        <v>63.3</v>
+        <v>63</v>
       </c>
       <c r="E226" t="n">
-        <v>63.3</v>
+        <v>63</v>
       </c>
       <c r="F226" t="n">
-        <v>1192.9744</v>
+        <v>1256</v>
       </c>
       <c r="G226" t="n">
-        <v>63.36549999999999</v>
+        <v>63.35633333333332</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8660,16 +8636,16 @@
         <v>63.3</v>
       </c>
       <c r="F227" t="n">
-        <v>100</v>
+        <v>1192.9744</v>
       </c>
       <c r="G227" t="n">
-        <v>63.37466666666666</v>
+        <v>63.36549999999999</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
       </c>
       <c r="I227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
@@ -8695,10 +8671,10 @@
         <v>63.3</v>
       </c>
       <c r="F228" t="n">
-        <v>331.6758</v>
+        <v>100</v>
       </c>
       <c r="G228" t="n">
-        <v>63.39599999999999</v>
+        <v>63.37466666666666</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8718,22 +8694,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>63.69</v>
+        <v>63.3</v>
       </c>
       <c r="C229" t="n">
-        <v>63.69</v>
+        <v>63.3</v>
       </c>
       <c r="D229" t="n">
-        <v>63.69</v>
+        <v>63.3</v>
       </c>
       <c r="E229" t="n">
-        <v>63.69</v>
+        <v>63.3</v>
       </c>
       <c r="F229" t="n">
-        <v>7533.066</v>
+        <v>331.6758</v>
       </c>
       <c r="G229" t="n">
-        <v>63.42299999999999</v>
+        <v>63.39599999999999</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8765,10 +8741,10 @@
         <v>63.69</v>
       </c>
       <c r="F230" t="n">
-        <v>18.7858</v>
+        <v>7533.066</v>
       </c>
       <c r="G230" t="n">
-        <v>63.43866666666666</v>
+        <v>63.42299999999999</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8788,22 +8764,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>63.3</v>
+        <v>63.69</v>
       </c>
       <c r="C231" t="n">
-        <v>63.3</v>
+        <v>63.69</v>
       </c>
       <c r="D231" t="n">
-        <v>63.3</v>
+        <v>63.69</v>
       </c>
       <c r="E231" t="n">
-        <v>63.3</v>
+        <v>63.69</v>
       </c>
       <c r="F231" t="n">
-        <v>85.8342</v>
+        <v>18.7858</v>
       </c>
       <c r="G231" t="n">
-        <v>63.447</v>
+        <v>63.43866666666666</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8826,19 +8802,19 @@
         <v>63.3</v>
       </c>
       <c r="C232" t="n">
-        <v>62.6</v>
+        <v>63.3</v>
       </c>
       <c r="D232" t="n">
         <v>63.3</v>
       </c>
       <c r="E232" t="n">
-        <v>62.6</v>
+        <v>63.3</v>
       </c>
       <c r="F232" t="n">
-        <v>1344</v>
+        <v>85.8342</v>
       </c>
       <c r="G232" t="n">
-        <v>63.44366666666666</v>
+        <v>63.447</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8858,22 +8834,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>63.69</v>
+        <v>63.3</v>
       </c>
       <c r="C233" t="n">
-        <v>63.7</v>
+        <v>62.6</v>
       </c>
       <c r="D233" t="n">
-        <v>63.7</v>
+        <v>63.3</v>
       </c>
       <c r="E233" t="n">
-        <v>63.69</v>
+        <v>62.6</v>
       </c>
       <c r="F233" t="n">
-        <v>2949.5329</v>
+        <v>1344</v>
       </c>
       <c r="G233" t="n">
-        <v>63.45866666666665</v>
+        <v>63.44366666666666</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8893,22 +8869,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>63.8</v>
+        <v>63.69</v>
       </c>
       <c r="C234" t="n">
-        <v>63.8</v>
+        <v>63.7</v>
       </c>
       <c r="D234" t="n">
-        <v>63.8</v>
+        <v>63.7</v>
       </c>
       <c r="E234" t="n">
-        <v>63.8</v>
+        <v>63.69</v>
       </c>
       <c r="F234" t="n">
-        <v>486.6506</v>
+        <v>2949.5329</v>
       </c>
       <c r="G234" t="n">
-        <v>63.47199999999999</v>
+        <v>63.45866666666665</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8928,22 +8904,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>62.62</v>
+        <v>63.8</v>
       </c>
       <c r="C235" t="n">
-        <v>62.62</v>
+        <v>63.8</v>
       </c>
       <c r="D235" t="n">
-        <v>62.62</v>
+        <v>63.8</v>
       </c>
       <c r="E235" t="n">
-        <v>62.62</v>
+        <v>63.8</v>
       </c>
       <c r="F235" t="n">
-        <v>100</v>
+        <v>486.6506</v>
       </c>
       <c r="G235" t="n">
-        <v>63.46233333333332</v>
+        <v>63.47199999999999</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8963,22 +8939,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>63.79</v>
+        <v>62.62</v>
       </c>
       <c r="C236" t="n">
-        <v>63.79</v>
+        <v>62.62</v>
       </c>
       <c r="D236" t="n">
-        <v>63.79</v>
+        <v>62.62</v>
       </c>
       <c r="E236" t="n">
-        <v>63.79</v>
+        <v>62.62</v>
       </c>
       <c r="F236" t="n">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="G236" t="n">
-        <v>63.47216666666666</v>
+        <v>63.46233333333332</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9001,19 +8977,19 @@
         <v>63.79</v>
       </c>
       <c r="C237" t="n">
-        <v>63.92</v>
+        <v>63.79</v>
       </c>
       <c r="D237" t="n">
-        <v>63.92</v>
+        <v>63.79</v>
       </c>
       <c r="E237" t="n">
         <v>63.79</v>
       </c>
       <c r="F237" t="n">
-        <v>10736.3362</v>
+        <v>8</v>
       </c>
       <c r="G237" t="n">
-        <v>63.50383333333333</v>
+        <v>63.47216666666666</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9033,7 +9009,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>63.92</v>
+        <v>63.79</v>
       </c>
       <c r="C238" t="n">
         <v>63.92</v>
@@ -9042,13 +9018,13 @@
         <v>63.92</v>
       </c>
       <c r="E238" t="n">
-        <v>63.92</v>
+        <v>63.79</v>
       </c>
       <c r="F238" t="n">
-        <v>544.3747</v>
+        <v>10736.3362</v>
       </c>
       <c r="G238" t="n">
-        <v>63.53499999999999</v>
+        <v>63.50383333333333</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9080,10 +9056,10 @@
         <v>63.92</v>
       </c>
       <c r="F239" t="n">
-        <v>2295.025829208385</v>
+        <v>544.3747</v>
       </c>
       <c r="G239" t="n">
-        <v>63.53399999999999</v>
+        <v>63.53499999999999</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9103,22 +9079,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>62.81</v>
+        <v>63.92</v>
       </c>
       <c r="C240" t="n">
-        <v>62.81</v>
+        <v>63.92</v>
       </c>
       <c r="D240" t="n">
-        <v>62.81</v>
+        <v>63.92</v>
       </c>
       <c r="E240" t="n">
-        <v>62.81</v>
+        <v>63.92</v>
       </c>
       <c r="F240" t="n">
-        <v>204.9741</v>
+        <v>2295.025829208385</v>
       </c>
       <c r="G240" t="n">
-        <v>63.54416666666666</v>
+        <v>63.53399999999999</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9138,22 +9114,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>62.82</v>
+        <v>62.81</v>
       </c>
       <c r="C241" t="n">
-        <v>62.82</v>
+        <v>62.81</v>
       </c>
       <c r="D241" t="n">
-        <v>62.82</v>
+        <v>62.81</v>
       </c>
       <c r="E241" t="n">
-        <v>62.82</v>
+        <v>62.81</v>
       </c>
       <c r="F241" t="n">
-        <v>1951</v>
+        <v>204.9741</v>
       </c>
       <c r="G241" t="n">
-        <v>63.5545</v>
+        <v>63.54416666666666</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9185,10 +9161,10 @@
         <v>62.82</v>
       </c>
       <c r="F242" t="n">
-        <v>1379</v>
+        <v>1951</v>
       </c>
       <c r="G242" t="n">
-        <v>63.56983333333334</v>
+        <v>63.5545</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9208,22 +9184,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>63.86</v>
+        <v>62.82</v>
       </c>
       <c r="C243" t="n">
-        <v>63.89</v>
+        <v>62.82</v>
       </c>
       <c r="D243" t="n">
-        <v>63.89</v>
+        <v>62.82</v>
       </c>
       <c r="E243" t="n">
-        <v>63.86</v>
+        <v>62.82</v>
       </c>
       <c r="F243" t="n">
-        <v>1816.6939</v>
+        <v>1379</v>
       </c>
       <c r="G243" t="n">
-        <v>63.57633333333333</v>
+        <v>63.56983333333334</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9243,22 +9219,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
+        <v>63.86</v>
+      </c>
+      <c r="C244" t="n">
         <v>63.89</v>
       </c>
-      <c r="C244" t="n">
-        <v>63.92</v>
-      </c>
       <c r="D244" t="n">
-        <v>63.92</v>
+        <v>63.89</v>
       </c>
       <c r="E244" t="n">
-        <v>63.89</v>
+        <v>63.86</v>
       </c>
       <c r="F244" t="n">
-        <v>9823.3451</v>
+        <v>1816.6939</v>
       </c>
       <c r="G244" t="n">
-        <v>63.5855</v>
+        <v>63.57633333333333</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9278,7 +9254,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>63.92</v>
+        <v>63.89</v>
       </c>
       <c r="C245" t="n">
         <v>63.92</v>
@@ -9287,13 +9263,13 @@
         <v>63.92</v>
       </c>
       <c r="E245" t="n">
-        <v>63.92</v>
+        <v>63.89</v>
       </c>
       <c r="F245" t="n">
-        <v>100</v>
+        <v>9823.3451</v>
       </c>
       <c r="G245" t="n">
-        <v>63.59466666666667</v>
+        <v>63.5855</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9325,10 +9301,10 @@
         <v>63.92</v>
       </c>
       <c r="F246" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G246" t="n">
-        <v>63.60383333333334</v>
+        <v>63.59466666666667</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9351,19 +9327,19 @@
         <v>63.92</v>
       </c>
       <c r="C247" t="n">
-        <v>63</v>
+        <v>63.92</v>
       </c>
       <c r="D247" t="n">
         <v>63.92</v>
       </c>
       <c r="E247" t="n">
-        <v>63</v>
+        <v>63.92</v>
       </c>
       <c r="F247" t="n">
-        <v>4095.790569461827</v>
+        <v>20</v>
       </c>
       <c r="G247" t="n">
-        <v>63.59766666666668</v>
+        <v>63.60383333333334</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9383,22 +9359,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>63.8</v>
+        <v>63.92</v>
       </c>
       <c r="C248" t="n">
-        <v>63.8</v>
+        <v>63</v>
       </c>
       <c r="D248" t="n">
-        <v>63.8</v>
+        <v>63.92</v>
       </c>
       <c r="E248" t="n">
-        <v>63.8</v>
+        <v>63</v>
       </c>
       <c r="F248" t="n">
-        <v>260.3402</v>
+        <v>4095.790569461827</v>
       </c>
       <c r="G248" t="n">
-        <v>63.60266666666668</v>
+        <v>63.59766666666668</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9430,10 +9406,10 @@
         <v>63.8</v>
       </c>
       <c r="F249" t="n">
-        <v>40</v>
+        <v>260.3402</v>
       </c>
       <c r="G249" t="n">
-        <v>63.60766666666668</v>
+        <v>63.60266666666668</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9453,22 +9429,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>63</v>
+        <v>63.8</v>
       </c>
       <c r="C250" t="n">
-        <v>63</v>
+        <v>63.8</v>
       </c>
       <c r="D250" t="n">
-        <v>63</v>
+        <v>63.8</v>
       </c>
       <c r="E250" t="n">
-        <v>63</v>
+        <v>63.8</v>
       </c>
       <c r="F250" t="n">
-        <v>1676</v>
+        <v>40</v>
       </c>
       <c r="G250" t="n">
-        <v>63.59933333333335</v>
+        <v>63.60766666666668</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9483,6 +9459,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>63</v>
+      </c>
+      <c r="C251" t="n">
+        <v>63</v>
+      </c>
+      <c r="D251" t="n">
+        <v>63</v>
+      </c>
+      <c r="E251" t="n">
+        <v>63</v>
+      </c>
+      <c r="F251" t="n">
+        <v>1676</v>
+      </c>
+      <c r="G251" t="n">
+        <v>63.59933333333335</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-11 BackTest FX.xlsx
+++ b/BackTest/2020-01-11 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M251"/>
+  <dimension ref="A1:N261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1011.4527</v>
       </c>
       <c r="G2" t="n">
+        <v>65.70933333333339</v>
+      </c>
+      <c r="H2" t="n">
         <v>64.56566666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>159.3524</v>
       </c>
       <c r="G3" t="n">
+        <v>65.7733333333334</v>
+      </c>
+      <c r="H3" t="n">
         <v>64.62983333333334</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>1511.166</v>
       </c>
       <c r="G4" t="n">
+        <v>65.97266666666674</v>
+      </c>
+      <c r="H4" t="n">
         <v>64.69616666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>3263.089</v>
       </c>
       <c r="G5" t="n">
+        <v>66.09400000000007</v>
+      </c>
+      <c r="H5" t="n">
         <v>64.76716666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>3238.9548</v>
       </c>
       <c r="G6" t="n">
+        <v>66.29266666666673</v>
+      </c>
+      <c r="H6" t="n">
         <v>64.8175</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>6464.7029</v>
       </c>
       <c r="G7" t="n">
+        <v>66.35266666666674</v>
+      </c>
+      <c r="H7" t="n">
         <v>64.86816666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>3833.7164</v>
       </c>
       <c r="G8" t="n">
+        <v>66.41266666666674</v>
+      </c>
+      <c r="H8" t="n">
         <v>64.91233333333334</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>11</v>
       </c>
       <c r="G9" t="n">
+        <v>66.42066666666675</v>
+      </c>
+      <c r="H9" t="n">
         <v>64.94433333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>45879.8118</v>
       </c>
       <c r="G10" t="n">
+        <v>66.50066666666676</v>
+      </c>
+      <c r="H10" t="n">
         <v>64.99266666666666</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>6015.1781</v>
       </c>
       <c r="G11" t="n">
+        <v>66.6080000000001</v>
+      </c>
+      <c r="H11" t="n">
         <v>65.04600000000001</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>741.839762611276</v>
       </c>
       <c r="G12" t="n">
+        <v>66.70666666666678</v>
+      </c>
+      <c r="H12" t="n">
         <v>65.10100000000001</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>13063.94723738872</v>
       </c>
       <c r="G13" t="n">
+        <v>66.78133333333344</v>
+      </c>
+      <c r="H13" t="n">
         <v>65.15766666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>30.1268</v>
       </c>
       <c r="G14" t="n">
+        <v>66.83066666666677</v>
+      </c>
+      <c r="H14" t="n">
         <v>65.20633333333335</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>706.0334</v>
       </c>
       <c r="G15" t="n">
+        <v>66.87800000000011</v>
+      </c>
+      <c r="H15" t="n">
         <v>65.27300000000001</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>7281.6398</v>
       </c>
       <c r="G16" t="n">
+        <v>66.97866666666678</v>
+      </c>
+      <c r="H16" t="n">
         <v>65.35300000000001</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>11015.159</v>
       </c>
       <c r="G17" t="n">
+        <v>67.04533333333345</v>
+      </c>
+      <c r="H17" t="n">
         <v>65.41483333333335</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>2058.054</v>
       </c>
       <c r="G18" t="n">
+        <v>67.0620000000001</v>
+      </c>
+      <c r="H18" t="n">
         <v>65.46650000000001</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>8.69</v>
       </c>
       <c r="G19" t="n">
+        <v>67.12866666666677</v>
+      </c>
+      <c r="H19" t="n">
         <v>65.52983333333334</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>2016.359</v>
       </c>
       <c r="G20" t="n">
+        <v>67.19600000000011</v>
+      </c>
+      <c r="H20" t="n">
         <v>65.60650000000003</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>17826.2336</v>
       </c>
       <c r="G21" t="n">
+        <v>67.27600000000011</v>
+      </c>
+      <c r="H21" t="n">
         <v>65.68483333333334</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>196.3789</v>
       </c>
       <c r="G22" t="n">
+        <v>67.22400000000012</v>
+      </c>
+      <c r="H22" t="n">
         <v>65.71850000000002</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>459.6902</v>
       </c>
       <c r="G23" t="n">
+        <v>67.17200000000011</v>
+      </c>
+      <c r="H23" t="n">
         <v>65.75050000000002</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>10.0408</v>
       </c>
       <c r="G24" t="n">
+        <v>67.17066666666679</v>
+      </c>
+      <c r="H24" t="n">
         <v>65.78383333333335</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>8.9</v>
       </c>
       <c r="G25" t="n">
+        <v>67.10533333333345</v>
+      </c>
+      <c r="H25" t="n">
         <v>65.81216666666668</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>32065.2815</v>
       </c>
       <c r="G26" t="n">
+        <v>66.78533333333344</v>
+      </c>
+      <c r="H26" t="n">
         <v>65.78883333333334</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>1254.2192</v>
       </c>
       <c r="G27" t="n">
+        <v>66.48533333333344</v>
+      </c>
+      <c r="H27" t="n">
         <v>65.75433333333335</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>24652.9485</v>
       </c>
       <c r="G28" t="n">
+        <v>66.16200000000012</v>
+      </c>
+      <c r="H28" t="n">
         <v>65.71350000000002</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>11667.3785</v>
       </c>
       <c r="G29" t="n">
+        <v>65.8940000000001</v>
+      </c>
+      <c r="H29" t="n">
         <v>65.69683333333336</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>8</v>
       </c>
       <c r="G30" t="n">
+        <v>65.70066666666678</v>
+      </c>
+      <c r="H30" t="n">
         <v>65.68183333333336</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>1250</v>
       </c>
       <c r="G31" t="n">
+        <v>65.71400000000011</v>
+      </c>
+      <c r="H31" t="n">
         <v>65.73183333333336</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>8.9</v>
       </c>
       <c r="G32" t="n">
+        <v>65.72733333333345</v>
+      </c>
+      <c r="H32" t="n">
         <v>65.79883333333335</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>10.9</v>
       </c>
       <c r="G33" t="n">
+        <v>65.78733333333345</v>
+      </c>
+      <c r="H33" t="n">
         <v>65.85066666666668</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>4972.9391</v>
       </c>
       <c r="G34" t="n">
+        <v>65.85733333333344</v>
+      </c>
+      <c r="H34" t="n">
         <v>65.91650000000001</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>1327.7997</v>
       </c>
       <c r="G35" t="n">
+        <v>65.92733333333345</v>
+      </c>
+      <c r="H35" t="n">
         <v>65.96533333333335</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>85.4442</v>
       </c>
       <c r="G36" t="n">
+        <v>65.92733333333345</v>
+      </c>
+      <c r="H36" t="n">
         <v>66.02850000000002</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>19</v>
       </c>
       <c r="G37" t="n">
+        <v>66.11600000000011</v>
+      </c>
+      <c r="H37" t="n">
         <v>66.10583333333335</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>17236.0194</v>
       </c>
       <c r="G38" t="n">
+        <v>66.2480000000001</v>
+      </c>
+      <c r="H38" t="n">
         <v>66.17233333333334</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>8.800000000000001</v>
       </c>
       <c r="G39" t="n">
+        <v>66.43466666666677</v>
+      </c>
+      <c r="H39" t="n">
         <v>66.26366666666668</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>240</v>
       </c>
       <c r="G40" t="n">
+        <v>66.40733333333343</v>
+      </c>
+      <c r="H40" t="n">
         <v>66.30183333333335</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>7.8</v>
       </c>
       <c r="G41" t="n">
+        <v>66.73333333333343</v>
+      </c>
+      <c r="H41" t="n">
         <v>66.35466666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>11963.4542</v>
       </c>
       <c r="G42" t="n">
+        <v>67.1260000000001</v>
+      </c>
+      <c r="H42" t="n">
         <v>66.444</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>10620.1958</v>
       </c>
       <c r="G43" t="n">
+        <v>67.29666666666678</v>
+      </c>
+      <c r="H43" t="n">
         <v>66.44633333333334</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>22648.5585</v>
       </c>
       <c r="G44" t="n">
+        <v>67.42800000000011</v>
+      </c>
+      <c r="H44" t="n">
         <v>66.43766666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>32595.5806</v>
       </c>
       <c r="G45" t="n">
+        <v>67.48600000000012</v>
+      </c>
+      <c r="H45" t="n">
         <v>66.42200000000001</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>8</v>
       </c>
       <c r="G46" t="n">
+        <v>67.41933333333346</v>
+      </c>
+      <c r="H46" t="n">
         <v>66.44033333333334</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>8505.731599999999</v>
       </c>
       <c r="G47" t="n">
+        <v>67.35133333333346</v>
+      </c>
+      <c r="H47" t="n">
         <v>66.45833333333334</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>2074.0793</v>
       </c>
       <c r="G48" t="n">
+        <v>67.15800000000011</v>
+      </c>
+      <c r="H48" t="n">
         <v>66.44516666666668</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>1796.6144</v>
       </c>
       <c r="G49" t="n">
+        <v>66.90866666666678</v>
+      </c>
+      <c r="H49" t="n">
         <v>66.46683333333334</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>896.9681</v>
       </c>
       <c r="G50" t="n">
+        <v>66.66533333333344</v>
+      </c>
+      <c r="H50" t="n">
         <v>66.47066666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>1633.739</v>
       </c>
       <c r="G51" t="n">
+        <v>66.5380000000001</v>
+      </c>
+      <c r="H51" t="n">
         <v>66.50850000000001</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>500</v>
       </c>
       <c r="G52" t="n">
+        <v>66.3540000000001</v>
+      </c>
+      <c r="H52" t="n">
         <v>66.51166666666668</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>650.2104</v>
       </c>
       <c r="G53" t="n">
+        <v>66.22666666666676</v>
+      </c>
+      <c r="H53" t="n">
         <v>66.51483333333334</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>2239.7879</v>
       </c>
       <c r="G54" t="n">
+        <v>66.04666666666677</v>
+      </c>
+      <c r="H54" t="n">
         <v>66.51816666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>6465.625369452406</v>
       </c>
       <c r="G55" t="n">
+        <v>66.11866666666677</v>
+      </c>
+      <c r="H55" t="n">
         <v>66.533</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>1000</v>
       </c>
       <c r="G56" t="n">
+        <v>66.07600000000009</v>
+      </c>
+      <c r="H56" t="n">
         <v>66.55066666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>4822.81</v>
       </c>
       <c r="G57" t="n">
+        <v>65.95533333333343</v>
+      </c>
+      <c r="H57" t="n">
         <v>66.56833333333334</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>33269.2494</v>
       </c>
       <c r="G58" t="n">
+        <v>65.9460000000001</v>
+      </c>
+      <c r="H58" t="n">
         <v>66.54649999999999</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>123.2166</v>
       </c>
       <c r="G59" t="n">
+        <v>65.95666666666676</v>
+      </c>
+      <c r="H59" t="n">
         <v>66.52733333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>61.6083</v>
       </c>
       <c r="G60" t="n">
+        <v>65.96733333333343</v>
+      </c>
+      <c r="H60" t="n">
         <v>66.508</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>27914.0815</v>
       </c>
       <c r="G61" t="n">
+        <v>65.83200000000009</v>
+      </c>
+      <c r="H61" t="n">
         <v>66.486</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>2441.954064771877</v>
       </c>
       <c r="G62" t="n">
+        <v>65.69800000000009</v>
+      </c>
+      <c r="H62" t="n">
         <v>66.45549999999999</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>11271.1552</v>
       </c>
       <c r="G63" t="n">
+        <v>65.6840000000001</v>
+      </c>
+      <c r="H63" t="n">
         <v>66.42283333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>759.5291</v>
       </c>
       <c r="G64" t="n">
+        <v>65.64333333333344</v>
+      </c>
+      <c r="H64" t="n">
         <v>66.38449999999999</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>906.9238</v>
       </c>
       <c r="G65" t="n">
+        <v>65.5620000000001</v>
+      </c>
+      <c r="H65" t="n">
         <v>66.33766666666665</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>2554.8604</v>
       </c>
       <c r="G66" t="n">
+        <v>65.34266666666676</v>
+      </c>
+      <c r="H66" t="n">
         <v>66.27099999999999</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>216.8836</v>
       </c>
       <c r="G67" t="n">
+        <v>65.12400000000009</v>
+      </c>
+      <c r="H67" t="n">
         <v>66.20449999999998</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>163.2478</v>
       </c>
       <c r="G68" t="n">
+        <v>64.92466666666675</v>
+      </c>
+      <c r="H68" t="n">
         <v>66.14283333333331</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>8</v>
       </c>
       <c r="G69" t="n">
+        <v>64.78933333333343</v>
+      </c>
+      <c r="H69" t="n">
         <v>66.11033333333332</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>11384.24918000311</v>
       </c>
       <c r="G70" t="n">
+        <v>64.63066666666676</v>
+      </c>
+      <c r="H70" t="n">
         <v>66.06549999999999</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>1046.6281</v>
       </c>
       <c r="G71" t="n">
+        <v>64.46200000000009</v>
+      </c>
+      <c r="H71" t="n">
         <v>66.01416666666665</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>7074.4546</v>
       </c>
       <c r="G72" t="n">
+        <v>64.23000000000008</v>
+      </c>
+      <c r="H72" t="n">
         <v>65.94916666666664</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>12683.2245</v>
       </c>
       <c r="G73" t="n">
+        <v>64.22466666666675</v>
+      </c>
+      <c r="H73" t="n">
         <v>65.90733333333331</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>1656.2988</v>
       </c>
       <c r="G74" t="n">
+        <v>64.21400000000008</v>
+      </c>
+      <c r="H74" t="n">
         <v>65.87316666666665</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>6525.2239</v>
       </c>
       <c r="G75" t="n">
+        <v>64.20333333333342</v>
+      </c>
+      <c r="H75" t="n">
         <v>65.8393333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>42019.6331</v>
       </c>
       <c r="G76" t="n">
+        <v>64.20266666666674</v>
+      </c>
+      <c r="H76" t="n">
         <v>65.79199999999997</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>50518.27900883234</v>
       </c>
       <c r="G77" t="n">
+        <v>64.32466666666673</v>
+      </c>
+      <c r="H77" t="n">
         <v>65.77533333333331</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>1534.7571</v>
       </c>
       <c r="G78" t="n">
+        <v>64.39866666666674</v>
+      </c>
+      <c r="H78" t="n">
         <v>65.75699999999998</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>3023.5343</v>
       </c>
       <c r="G79" t="n">
+        <v>64.37466666666674</v>
+      </c>
+      <c r="H79" t="n">
         <v>65.69599999999997</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>107.2544</v>
       </c>
       <c r="G80" t="n">
+        <v>64.50866666666674</v>
+      </c>
+      <c r="H80" t="n">
         <v>65.6658333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>99.1795</v>
       </c>
       <c r="G81" t="n">
+        <v>64.7213333333334</v>
+      </c>
+      <c r="H81" t="n">
         <v>65.63233333333329</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>1479.9502</v>
       </c>
       <c r="G82" t="n">
+        <v>64.93000000000008</v>
+      </c>
+      <c r="H82" t="n">
         <v>65.63099999999996</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>9.09</v>
       </c>
       <c r="G83" t="n">
+        <v>65.11733333333342</v>
+      </c>
+      <c r="H83" t="n">
         <v>65.62916666666662</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>47656.5415</v>
       </c>
       <c r="G84" t="n">
+        <v>65.31266666666674</v>
+      </c>
+      <c r="H84" t="n">
         <v>65.64583333333329</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>1437.5077</v>
       </c>
       <c r="G85" t="n">
+        <v>65.49200000000009</v>
+      </c>
+      <c r="H85" t="n">
         <v>65.66216666666662</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>10.9908</v>
       </c>
       <c r="G86" t="n">
+        <v>65.65733333333341</v>
+      </c>
+      <c r="H86" t="n">
         <v>65.73216666666663</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>9.08</v>
       </c>
       <c r="G87" t="n">
+        <v>65.87733333333341</v>
+      </c>
+      <c r="H87" t="n">
         <v>65.79716666666663</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>4892.2285</v>
       </c>
       <c r="G88" t="n">
+        <v>66.00400000000008</v>
+      </c>
+      <c r="H88" t="n">
         <v>65.86783333333329</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>3077.567</v>
       </c>
       <c r="G89" t="n">
+        <v>66.02800000000008</v>
+      </c>
+      <c r="H89" t="n">
         <v>65.90666666666662</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>18.999</v>
       </c>
       <c r="G90" t="n">
+        <v>66.14200000000008</v>
+      </c>
+      <c r="H90" t="n">
         <v>65.94966666666662</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>200</v>
       </c>
       <c r="G91" t="n">
+        <v>66.25400000000009</v>
+      </c>
+      <c r="H91" t="n">
         <v>65.92699999999995</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>1933.3164</v>
       </c>
       <c r="G92" t="n">
+        <v>66.24333333333342</v>
+      </c>
+      <c r="H92" t="n">
         <v>65.90433333333328</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>3671.2422</v>
       </c>
       <c r="G93" t="n">
+        <v>66.2860000000001</v>
+      </c>
+      <c r="H93" t="n">
         <v>65.88166666666662</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>1089</v>
       </c>
       <c r="G94" t="n">
+        <v>66.39000000000011</v>
+      </c>
+      <c r="H94" t="n">
         <v>65.82916666666661</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>3092.4725</v>
       </c>
       <c r="G95" t="n">
+        <v>66.27133333333343</v>
+      </c>
+      <c r="H95" t="n">
         <v>65.75183333333328</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>8</v>
       </c>
       <c r="G96" t="n">
+        <v>66.30266666666677</v>
+      </c>
+      <c r="H96" t="n">
         <v>65.72616666666661</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>2267.599</v>
       </c>
       <c r="G97" t="n">
+        <v>66.21733333333344</v>
+      </c>
+      <c r="H97" t="n">
         <v>65.65633333333328</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>5604.5586</v>
       </c>
       <c r="G98" t="n">
+        <v>66.14333333333344</v>
+      </c>
+      <c r="H98" t="n">
         <v>65.60299999999995</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>1600</v>
       </c>
       <c r="G99" t="n">
+        <v>65.98666666666676</v>
+      </c>
+      <c r="H99" t="n">
         <v>65.53383333333328</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>841.8013999999999</v>
       </c>
       <c r="G100" t="n">
+        <v>65.83000000000011</v>
+      </c>
+      <c r="H100" t="n">
         <v>65.51783333333329</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>4308.1986</v>
       </c>
       <c r="G101" t="n">
+        <v>65.68666666666678</v>
+      </c>
+      <c r="H101" t="n">
         <v>65.47049999999996</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>3525.6996</v>
       </c>
       <c r="G102" t="n">
+        <v>65.60933333333347</v>
+      </c>
+      <c r="H102" t="n">
         <v>65.41799999999995</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>11894.1367</v>
       </c>
       <c r="G103" t="n">
+        <v>65.48333333333348</v>
+      </c>
+      <c r="H103" t="n">
         <v>65.41449999999995</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>11110.0891</v>
       </c>
       <c r="G104" t="n">
+        <v>65.40200000000013</v>
+      </c>
+      <c r="H104" t="n">
         <v>65.40016666666662</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>106247.7112</v>
       </c>
       <c r="G105" t="n">
+        <v>65.22266666666678</v>
+      </c>
+      <c r="H105" t="n">
         <v>65.38383333333329</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>5627.4101</v>
       </c>
       <c r="G106" t="n">
+        <v>65.04533333333345</v>
+      </c>
+      <c r="H106" t="n">
         <v>65.33349999999996</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>3199.4322</v>
       </c>
       <c r="G107" t="n">
+        <v>64.86800000000011</v>
+      </c>
+      <c r="H107" t="n">
         <v>65.28349999999996</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>1528.3444</v>
       </c>
       <c r="G108" t="n">
+        <v>64.64800000000011</v>
+      </c>
+      <c r="H108" t="n">
         <v>65.25416666666663</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>11046.778</v>
       </c>
       <c r="G109" t="n">
+        <v>64.49533333333345</v>
+      </c>
+      <c r="H109" t="n">
         <v>65.22583333333328</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>16649.19</v>
       </c>
       <c r="G110" t="n">
+        <v>64.44133333333345</v>
+      </c>
+      <c r="H110" t="n">
         <v>65.1958333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>1769.4471</v>
       </c>
       <c r="G111" t="n">
+        <v>64.23733333333345</v>
+      </c>
+      <c r="H111" t="n">
         <v>65.15099999999997</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>201.9909076899368</v>
       </c>
       <c r="G112" t="n">
+        <v>64.2526666666668</v>
+      </c>
+      <c r="H112" t="n">
         <v>65.13099999999996</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>3504.1845</v>
       </c>
       <c r="G113" t="n">
+        <v>64.17333333333346</v>
+      </c>
+      <c r="H113" t="n">
         <v>65.08966666666662</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>547.7002</v>
       </c>
       <c r="G114" t="n">
+        <v>64.09333333333346</v>
+      </c>
+      <c r="H114" t="n">
         <v>65.04549999999996</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>1508.2779</v>
       </c>
       <c r="G115" t="n">
+        <v>64.02400000000014</v>
+      </c>
+      <c r="H115" t="n">
         <v>64.99416666666663</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>21512.0915</v>
       </c>
       <c r="G116" t="n">
+        <v>63.9546666666668</v>
+      </c>
+      <c r="H116" t="n">
         <v>64.94016666666663</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>8913.784299999999</v>
       </c>
       <c r="G117" t="n">
+        <v>63.81933333333347</v>
+      </c>
+      <c r="H117" t="n">
         <v>64.88399999999996</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>39.3952</v>
       </c>
       <c r="G118" t="n">
+        <v>63.80533333333347</v>
+      </c>
+      <c r="H118" t="n">
         <v>64.87933333333329</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>13696.9042</v>
       </c>
       <c r="G119" t="n">
+        <v>63.77266666666681</v>
+      </c>
+      <c r="H119" t="n">
         <v>64.85416666666663</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>344.8052</v>
       </c>
       <c r="G120" t="n">
+        <v>63.74800000000014</v>
+      </c>
+      <c r="H120" t="n">
         <v>64.82899999999997</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>8567.0147</v>
       </c>
       <c r="G121" t="n">
+        <v>63.72466666666681</v>
+      </c>
+      <c r="H121" t="n">
         <v>64.80666666666663</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>6858.6988</v>
       </c>
       <c r="G122" t="n">
+        <v>63.70000000000014</v>
+      </c>
+      <c r="H122" t="n">
         <v>64.78399999999996</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>3237.2086</v>
       </c>
       <c r="G123" t="n">
+        <v>63.71800000000014</v>
+      </c>
+      <c r="H123" t="n">
         <v>64.76266666666665</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>745.7356</v>
       </c>
       <c r="G124" t="n">
+        <v>63.7326666666668</v>
+      </c>
+      <c r="H124" t="n">
         <v>64.74816666666665</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,21 @@
         <v>15161.8629</v>
       </c>
       <c r="G125" t="n">
+        <v>63.73600000000014</v>
+      </c>
+      <c r="H125" t="n">
         <v>64.73933333333331</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5165,21 @@
         <v>41703.7982</v>
       </c>
       <c r="G126" t="n">
+        <v>63.73866666666681</v>
+      </c>
+      <c r="H126" t="n">
         <v>64.74999999999997</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5203,21 @@
         <v>32369.9214</v>
       </c>
       <c r="G127" t="n">
+        <v>63.6126666666668</v>
+      </c>
+      <c r="H127" t="n">
         <v>64.75316666666664</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5241,21 @@
         <v>4329.4238</v>
       </c>
       <c r="G128" t="n">
+        <v>63.57000000000014</v>
+      </c>
+      <c r="H128" t="n">
         <v>64.75099999999996</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5279,21 @@
         <v>19629.7752</v>
       </c>
       <c r="G129" t="n">
+        <v>63.53133333333347</v>
+      </c>
+      <c r="H129" t="n">
         <v>64.73099999999997</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5317,21 @@
         <v>830.8225</v>
       </c>
       <c r="G130" t="n">
+        <v>63.47533333333347</v>
+      </c>
+      <c r="H130" t="n">
         <v>64.7053333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5355,21 @@
         <v>15649.2775</v>
       </c>
       <c r="G131" t="n">
+        <v>63.42133333333346</v>
+      </c>
+      <c r="H131" t="n">
         <v>64.67999999999996</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,22 +5393,21 @@
         <v>8</v>
       </c>
       <c r="G132" t="n">
+        <v>63.44733333333347</v>
+      </c>
+      <c r="H132" t="n">
         <v>64.6883333333333</v>
       </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="K132" t="n">
-        <v>62.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5037,24 +5431,21 @@
         <v>20</v>
       </c>
       <c r="G133" t="n">
+        <v>63.40133333333347</v>
+      </c>
+      <c r="H133" t="n">
         <v>64.67349999999996</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5078,24 +5469,21 @@
         <v>10045.5409</v>
       </c>
       <c r="G134" t="n">
+        <v>63.3446666666668</v>
+      </c>
+      <c r="H134" t="n">
         <v>64.6368333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5119,18 +5507,21 @@
         <v>7751.8777</v>
       </c>
       <c r="G135" t="n">
+        <v>63.28800000000013</v>
+      </c>
+      <c r="H135" t="n">
         <v>64.60016666666664</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5154,18 +5545,21 @@
         <v>22464.8932</v>
       </c>
       <c r="G136" t="n">
+        <v>63.22600000000013</v>
+      </c>
+      <c r="H136" t="n">
         <v>64.56249999999997</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5189,18 +5583,21 @@
         <v>27067.917</v>
       </c>
       <c r="G137" t="n">
+        <v>63.15533333333347</v>
+      </c>
+      <c r="H137" t="n">
         <v>64.49166666666663</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5224,18 +5621,21 @@
         <v>4829.6336</v>
       </c>
       <c r="G138" t="n">
+        <v>63.08466666666679</v>
+      </c>
+      <c r="H138" t="n">
         <v>64.43416666666664</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5259,18 +5659,21 @@
         <v>10316.7262</v>
       </c>
       <c r="G139" t="n">
+        <v>63.01333333333346</v>
+      </c>
+      <c r="H139" t="n">
         <v>64.4078333333333</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5294,18 +5697,21 @@
         <v>17814.2318</v>
       </c>
       <c r="G140" t="n">
+        <v>62.9506666666668</v>
+      </c>
+      <c r="H140" t="n">
         <v>64.34983333333331</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5329,18 +5735,21 @@
         <v>62549.5971</v>
       </c>
       <c r="G141" t="n">
+        <v>62.88800000000013</v>
+      </c>
+      <c r="H141" t="n">
         <v>64.29166666666666</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5364,18 +5773,21 @@
         <v>2024.7172</v>
       </c>
       <c r="G142" t="n">
+        <v>62.8546666666668</v>
+      </c>
+      <c r="H142" t="n">
         <v>64.23433333333331</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5399,18 +5811,21 @@
         <v>22335.8961</v>
       </c>
       <c r="G143" t="n">
+        <v>62.90333333333346</v>
+      </c>
+      <c r="H143" t="n">
         <v>64.19749999999998</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5434,18 +5849,21 @@
         <v>10640.6326</v>
       </c>
       <c r="G144" t="n">
+        <v>62.84533333333346</v>
+      </c>
+      <c r="H144" t="n">
         <v>64.11416666666665</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5469,18 +5887,21 @@
         <v>1800</v>
       </c>
       <c r="G145" t="n">
+        <v>62.79533333333347</v>
+      </c>
+      <c r="H145" t="n">
         <v>64.03116666666665</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5504,18 +5925,21 @@
         <v>12529.0105</v>
       </c>
       <c r="G146" t="n">
+        <v>62.74333333333347</v>
+      </c>
+      <c r="H146" t="n">
         <v>63.95149999999998</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5539,22 +5963,21 @@
         <v>10.9664</v>
       </c>
       <c r="G147" t="n">
+        <v>62.68333333333347</v>
+      </c>
+      <c r="H147" t="n">
         <v>63.88983333333331</v>
       </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K147" t="n">
-        <v>62.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5578,26 +6001,21 @@
         <v>7052.1524</v>
       </c>
       <c r="G148" t="n">
+        <v>62.60333333333347</v>
+      </c>
+      <c r="H148" t="n">
         <v>63.82333333333331</v>
       </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>63.1</v>
-      </c>
-      <c r="K148" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5621,24 +6039,21 @@
         <v>7945</v>
       </c>
       <c r="G149" t="n">
+        <v>62.60533333333346</v>
+      </c>
+      <c r="H149" t="n">
         <v>63.78116666666665</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5662,18 +6077,21 @@
         <v>10780.3103</v>
       </c>
       <c r="G150" t="n">
+        <v>62.60733333333346</v>
+      </c>
+      <c r="H150" t="n">
         <v>63.71649999999999</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5697,18 +6115,21 @@
         <v>8097.752</v>
       </c>
       <c r="G151" t="n">
+        <v>62.56200000000013</v>
+      </c>
+      <c r="H151" t="n">
         <v>63.63949999999999</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5732,22 +6153,21 @@
         <v>558.4539</v>
       </c>
       <c r="G152" t="n">
+        <v>62.52666666666679</v>
+      </c>
+      <c r="H152" t="n">
         <v>63.56249999999999</v>
       </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K152" t="n">
-        <v>62.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5771,26 +6191,21 @@
         <v>62091.4315</v>
       </c>
       <c r="G153" t="n">
+        <v>62.4566666666668</v>
+      </c>
+      <c r="H153" t="n">
         <v>63.47683333333332</v>
       </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K153" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5814,24 +6229,21 @@
         <v>11.9322</v>
       </c>
       <c r="G154" t="n">
+        <v>62.3866666666668</v>
+      </c>
+      <c r="H154" t="n">
         <v>63.407</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5855,26 +6267,21 @@
         <v>304</v>
       </c>
       <c r="G155" t="n">
+        <v>62.34600000000013</v>
+      </c>
+      <c r="H155" t="n">
         <v>63.3685</v>
       </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>61.51</v>
-      </c>
-      <c r="K155" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5898,26 +6305,21 @@
         <v>23950.0339</v>
       </c>
       <c r="G156" t="n">
+        <v>62.27933333333347</v>
+      </c>
+      <c r="H156" t="n">
         <v>63.28583333333334</v>
       </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="K156" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5941,24 +6343,21 @@
         <v>1368</v>
       </c>
       <c r="G157" t="n">
+        <v>62.21333333333347</v>
+      </c>
+      <c r="H157" t="n">
         <v>63.23333333333334</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5982,26 +6381,21 @@
         <v>23431.5816</v>
       </c>
       <c r="G158" t="n">
+        <v>62.0666666666668</v>
+      </c>
+      <c r="H158" t="n">
         <v>63.17833333333333</v>
       </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>61.51</v>
-      </c>
-      <c r="K158" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6025,24 +6419,21 @@
         <v>8574.400299999999</v>
       </c>
       <c r="G159" t="n">
+        <v>62.03333333333346</v>
+      </c>
+      <c r="H159" t="n">
         <v>63.12583333333334</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6066,24 +6457,27 @@
         <v>33</v>
       </c>
       <c r="G160" t="n">
+        <v>62.08466666666679</v>
+      </c>
+      <c r="H160" t="n">
         <v>63.09483333333333</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6107,24 +6501,27 @@
         <v>1000</v>
       </c>
       <c r="G161" t="n">
+        <v>62.11733333333346</v>
+      </c>
+      <c r="H161" t="n">
         <v>63.05916666666667</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L161" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6148,24 +6545,27 @@
         <v>12000</v>
       </c>
       <c r="G162" t="n">
+        <v>62.09733333333346</v>
+      </c>
+      <c r="H162" t="n">
         <v>63.01183333333334</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L162" t="inlineStr">
+        <v>62.51</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6189,24 +6589,25 @@
         <v>29322.1215</v>
       </c>
       <c r="G163" t="n">
+        <v>62.04400000000012</v>
+      </c>
+      <c r="H163" t="n">
         <v>62.9635</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L163" t="inlineStr">
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6230,24 +6631,27 @@
         <v>591</v>
       </c>
       <c r="G164" t="n">
+        <v>62.02400000000013</v>
+      </c>
+      <c r="H164" t="n">
         <v>62.93666666666667</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L164" t="inlineStr">
+        <v>62</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6271,24 +6675,25 @@
         <v>372.7809</v>
       </c>
       <c r="G165" t="n">
+        <v>62.00400000000013</v>
+      </c>
+      <c r="H165" t="n">
         <v>62.91183333333334</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L165" t="inlineStr">
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6312,24 +6717,25 @@
         <v>1263.8821</v>
       </c>
       <c r="G166" t="n">
+        <v>62.03600000000014</v>
+      </c>
+      <c r="H166" t="n">
         <v>62.88716666666667</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L166" t="inlineStr">
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6353,24 +6759,27 @@
         <v>7537.5486</v>
       </c>
       <c r="G167" t="n">
+        <v>62.0846666666668</v>
+      </c>
+      <c r="H167" t="n">
         <v>62.86666666666667</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L167" t="inlineStr">
+        <v>62.5</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6394,24 +6803,27 @@
         <v>1302.837</v>
       </c>
       <c r="G168" t="n">
+        <v>62.16800000000013</v>
+      </c>
+      <c r="H168" t="n">
         <v>62.85683333333334</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L168" t="inlineStr">
+        <v>62.75</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6435,24 +6847,27 @@
         <v>1294</v>
       </c>
       <c r="G169" t="n">
+        <v>62.20200000000013</v>
+      </c>
+      <c r="H169" t="n">
         <v>62.83366666666667</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L169" t="inlineStr">
+        <v>62.75</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6476,24 +6891,27 @@
         <v>917</v>
       </c>
       <c r="G170" t="n">
+        <v>62.21333333333347</v>
+      </c>
+      <c r="H170" t="n">
         <v>62.81150000000001</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="n">
         <v>62.02</v>
       </c>
-      <c r="L170" t="inlineStr">
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6517,24 +6935,27 @@
         <v>11664.4543</v>
       </c>
       <c r="G171" t="n">
+        <v>62.29666666666681</v>
+      </c>
+      <c r="H171" t="n">
         <v>62.80066666666667</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L171" t="inlineStr">
+        <v>62.07</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6558,24 +6979,27 @@
         <v>8</v>
       </c>
       <c r="G172" t="n">
+        <v>62.3826666666668</v>
+      </c>
+      <c r="H172" t="n">
         <v>62.76583333333335</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L172" t="inlineStr">
+        <v>62.75</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6599,24 +7023,27 @@
         <v>1972.6847</v>
       </c>
       <c r="G173" t="n">
+        <v>62.46933333333347</v>
+      </c>
+      <c r="H173" t="n">
         <v>62.75233333333335</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L173" t="inlineStr">
+        <v>62.8</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6640,24 +7067,27 @@
         <v>1964.5075</v>
       </c>
       <c r="G174" t="n">
+        <v>62.55600000000013</v>
+      </c>
+      <c r="H174" t="n">
         <v>62.74150000000002</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L174" t="inlineStr">
+        <v>62.8</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6681,24 +7111,27 @@
         <v>551.4924999999999</v>
       </c>
       <c r="G175" t="n">
+        <v>62.57000000000014</v>
+      </c>
+      <c r="H175" t="n">
         <v>62.73133333333335</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L175" t="inlineStr">
+        <v>62.8</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6722,24 +7155,27 @@
         <v>400</v>
       </c>
       <c r="G176" t="n">
+        <v>62.61600000000013</v>
+      </c>
+      <c r="H176" t="n">
         <v>62.72450000000001</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L176" t="inlineStr">
+        <v>63</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6763,24 +7199,27 @@
         <v>1188.3384</v>
       </c>
       <c r="G177" t="n">
+        <v>62.64266666666681</v>
+      </c>
+      <c r="H177" t="n">
         <v>62.71766666666667</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L177" t="inlineStr">
+        <v>63.2</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6804,24 +7243,27 @@
         <v>5855.6847</v>
       </c>
       <c r="G178" t="n">
+        <v>62.64400000000014</v>
+      </c>
+      <c r="H178" t="n">
         <v>62.67316666666667</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L178" t="inlineStr">
+        <v>63.2</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6845,24 +7287,27 @@
         <v>100</v>
       </c>
       <c r="G179" t="n">
+        <v>62.61400000000014</v>
+      </c>
+      <c r="H179" t="n">
         <v>62.64700000000001</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="n">
         <v>62.02</v>
       </c>
-      <c r="L179" t="inlineStr">
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6886,24 +7331,27 @@
         <v>8</v>
       </c>
       <c r="G180" t="n">
+        <v>62.71266666666681</v>
+      </c>
+      <c r="H180" t="n">
         <v>62.65300000000001</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L180" t="inlineStr">
+        <v>62.05</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6927,24 +7375,25 @@
         <v>291.73</v>
       </c>
       <c r="G181" t="n">
+        <v>62.69266666666681</v>
+      </c>
+      <c r="H181" t="n">
         <v>62.62916666666668</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L181" t="inlineStr">
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6968,24 +7417,25 @@
         <v>1211</v>
       </c>
       <c r="G182" t="n">
+        <v>62.65600000000015</v>
+      </c>
+      <c r="H182" t="n">
         <v>62.60566666666667</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L182" t="inlineStr">
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7009,24 +7459,27 @@
         <v>1186</v>
       </c>
       <c r="G183" t="n">
+        <v>62.59933333333348</v>
+      </c>
+      <c r="H183" t="n">
         <v>62.57716666666667</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L183" t="inlineStr">
+        <v>62.2</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7050,24 +7503,27 @@
         <v>8</v>
       </c>
       <c r="G184" t="n">
+        <v>62.69800000000014</v>
+      </c>
+      <c r="H184" t="n">
         <v>62.575</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L184" t="inlineStr">
+        <v>61.9</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7091,24 +7547,27 @@
         <v>2072.7695</v>
       </c>
       <c r="G185" t="n">
+        <v>62.78466666666681</v>
+      </c>
+      <c r="H185" t="n">
         <v>62.57366666666667</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L185" t="inlineStr">
+        <v>63.5</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7132,24 +7591,25 @@
         <v>2805.3922</v>
       </c>
       <c r="G186" t="n">
+        <v>62.82600000000014</v>
+      </c>
+      <c r="H186" t="n">
         <v>62.5725</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L186" t="inlineStr">
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7173,24 +7633,27 @@
         <v>1779.8915</v>
       </c>
       <c r="G187" t="n">
+        <v>62.86400000000015</v>
+      </c>
+      <c r="H187" t="n">
         <v>62.57866666666666</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L187" t="inlineStr">
+        <v>63.37</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7214,24 +7677,27 @@
         <v>964.8467000000001</v>
       </c>
       <c r="G188" t="n">
+        <v>62.90200000000015</v>
+      </c>
+      <c r="H188" t="n">
         <v>62.58533333333333</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L188" t="inlineStr">
+        <v>63.37</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7255,24 +7721,25 @@
         <v>8</v>
       </c>
       <c r="G189" t="n">
+        <v>62.94866666666682</v>
+      </c>
+      <c r="H189" t="n">
         <v>62.59583333333333</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L189" t="inlineStr">
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7296,24 +7763,27 @@
         <v>433.8068</v>
       </c>
       <c r="G190" t="n">
+        <v>62.98200000000016</v>
+      </c>
+      <c r="H190" t="n">
         <v>62.608</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L190" t="inlineStr">
+        <v>63.5</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7337,24 +7807,27 @@
         <v>10.0957</v>
       </c>
       <c r="G191" t="n">
+        <v>63.00200000000015</v>
+      </c>
+      <c r="H191" t="n">
         <v>62.61966666666667</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L191" t="inlineStr">
+        <v>63.5</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7378,24 +7851,25 @@
         <v>2628.9855</v>
       </c>
       <c r="G192" t="n">
+        <v>63.02800000000015</v>
+      </c>
+      <c r="H192" t="n">
         <v>62.61283333333333</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L192" t="inlineStr">
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7419,24 +7893,25 @@
         <v>676.4081</v>
       </c>
       <c r="G193" t="n">
+        <v>63.13266666666682</v>
+      </c>
+      <c r="H193" t="n">
         <v>62.606</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L193" t="inlineStr">
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7460,24 +7935,25 @@
         <v>8605.4</v>
       </c>
       <c r="G194" t="n">
+        <v>63.26066666666682</v>
+      </c>
+      <c r="H194" t="n">
         <v>62.626</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L194" t="inlineStr">
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7501,24 +7977,25 @@
         <v>27632.4998</v>
       </c>
       <c r="G195" t="n">
+        <v>63.26000000000015</v>
+      </c>
+      <c r="H195" t="n">
         <v>62.64599999999999</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L195" t="inlineStr">
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7542,24 +8019,25 @@
         <v>11806.2807</v>
       </c>
       <c r="G196" t="n">
+        <v>63.37866666666682</v>
+      </c>
+      <c r="H196" t="n">
         <v>62.66733333333333</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L196" t="inlineStr">
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7583,25 +8061,28 @@
         <v>3602.1952</v>
       </c>
       <c r="G197" t="n">
+        <v>63.49733333333349</v>
+      </c>
+      <c r="H197" t="n">
         <v>62.69116666666666</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>1</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1.026602708803612</v>
+        <v>63.98</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -7624,18 +8105,27 @@
         <v>372.9566</v>
       </c>
       <c r="G198" t="n">
+        <v>63.63600000000016</v>
+      </c>
+      <c r="H198" t="n">
         <v>62.715</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>1</v>
       </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>63.98</v>
+      </c>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7659,18 +8149,27 @@
         <v>372.9567</v>
       </c>
       <c r="G199" t="n">
+        <v>63.66800000000016</v>
+      </c>
+      <c r="H199" t="n">
         <v>62.73866666666666</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>1</v>
       </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>63.98</v>
+      </c>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7694,18 +8193,27 @@
         <v>8771.887699999999</v>
       </c>
       <c r="G200" t="n">
+        <v>63.70866666666682</v>
+      </c>
+      <c r="H200" t="n">
         <v>62.76316666666666</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>1</v>
       </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>63.98</v>
+      </c>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7729,18 +8237,25 @@
         <v>1285.7455</v>
       </c>
       <c r="G201" t="n">
+        <v>63.74866666666683</v>
+      </c>
+      <c r="H201" t="n">
         <v>62.78766666666665</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7764,18 +8279,27 @@
         <v>1369.4867</v>
       </c>
       <c r="G202" t="n">
+        <v>63.79000000000016</v>
+      </c>
+      <c r="H202" t="n">
         <v>62.81249999999999</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>63.97</v>
+      </c>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7799,18 +8323,27 @@
         <v>803.4663</v>
       </c>
       <c r="G203" t="n">
+        <v>63.82933333333349</v>
+      </c>
+      <c r="H203" t="n">
         <v>62.81683333333332</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>63.99</v>
+      </c>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7834,18 +8367,27 @@
         <v>310.7568</v>
       </c>
       <c r="G204" t="n">
+        <v>63.86266666666683</v>
+      </c>
+      <c r="H204" t="n">
         <v>62.85016666666665</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>63.96</v>
+      </c>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7869,18 +8411,27 @@
         <v>667.3478</v>
       </c>
       <c r="G205" t="n">
+        <v>63.90200000000016</v>
+      </c>
+      <c r="H205" t="n">
         <v>62.88466666666666</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>64</v>
+      </c>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7904,18 +8455,25 @@
         <v>7162.8511</v>
       </c>
       <c r="G206" t="n">
+        <v>63.9413333333335</v>
+      </c>
+      <c r="H206" t="n">
         <v>62.91916666666666</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7939,18 +8497,27 @@
         <v>1152.246</v>
       </c>
       <c r="G207" t="n">
+        <v>63.9753333333335</v>
+      </c>
+      <c r="H207" t="n">
         <v>62.93583333333333</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="n">
+        <v>64.09</v>
+      </c>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7974,18 +8541,27 @@
         <v>10</v>
       </c>
       <c r="G208" t="n">
+        <v>64.02266666666682</v>
+      </c>
+      <c r="H208" t="n">
         <v>62.96083333333333</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>1</v>
       </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="n">
+        <v>64.09999999999999</v>
+      </c>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8009,18 +8585,27 @@
         <v>761</v>
       </c>
       <c r="G209" t="n">
+        <v>64.03133333333349</v>
+      </c>
+      <c r="H209" t="n">
         <v>62.98249999999999</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>1</v>
       </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>64.3</v>
+      </c>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8044,18 +8629,25 @@
         <v>80</v>
       </c>
       <c r="G210" t="n">
+        <v>64.04000000000015</v>
+      </c>
+      <c r="H210" t="n">
         <v>63.00416666666665</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
-        <v>1</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8079,18 +8671,25 @@
         <v>8</v>
       </c>
       <c r="G211" t="n">
+        <v>64.06133333333348</v>
+      </c>
+      <c r="H211" t="n">
         <v>63.04216666666665</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8114,18 +8713,25 @@
         <v>1841</v>
       </c>
       <c r="G212" t="n">
+        <v>64.0026666666668</v>
+      </c>
+      <c r="H212" t="n">
         <v>63.06016666666665</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8149,18 +8755,27 @@
         <v>8</v>
       </c>
       <c r="G213" t="n">
+        <v>64.02400000000013</v>
+      </c>
+      <c r="H213" t="n">
         <v>63.10683333333332</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>63.1</v>
+      </c>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8184,18 +8799,27 @@
         <v>2174</v>
       </c>
       <c r="G214" t="n">
+        <v>63.96600000000013</v>
+      </c>
+      <c r="H214" t="n">
         <v>63.13349999999999</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>64.3</v>
+      </c>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8219,18 +8843,27 @@
         <v>10</v>
       </c>
       <c r="G215" t="n">
+        <v>63.98733333333346</v>
+      </c>
+      <c r="H215" t="n">
         <v>63.17349999999999</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>63.11</v>
+      </c>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8254,18 +8887,27 @@
         <v>85.8342</v>
       </c>
       <c r="G216" t="n">
+        <v>63.93066666666679</v>
+      </c>
+      <c r="H216" t="n">
         <v>63.20049999999999</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>64.3</v>
+      </c>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8289,18 +8931,27 @@
         <v>14843.5009</v>
       </c>
       <c r="G217" t="n">
+        <v>63.86466666666679</v>
+      </c>
+      <c r="H217" t="n">
         <v>63.22533333333332</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>63.12</v>
+      </c>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8324,18 +8975,27 @@
         <v>3403.3018</v>
       </c>
       <c r="G218" t="n">
+        <v>63.78733333333345</v>
+      </c>
+      <c r="H218" t="n">
         <v>63.24699999999999</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>63</v>
+      </c>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8359,18 +9019,27 @@
         <v>5981.3924</v>
       </c>
       <c r="G219" t="n">
+        <v>63.79066666666678</v>
+      </c>
+      <c r="H219" t="n">
         <v>63.28949999999999</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>62.8</v>
+      </c>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8394,18 +9063,27 @@
         <v>5004.6876</v>
       </c>
       <c r="G220" t="n">
+        <v>63.68466666666678</v>
+      </c>
+      <c r="H220" t="n">
         <v>63.28466666666666</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>64.05</v>
+      </c>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8429,18 +9107,27 @@
         <v>8</v>
       </c>
       <c r="G221" t="n">
+        <v>63.67666666666678</v>
+      </c>
+      <c r="H221" t="n">
         <v>63.30899999999998</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>62.5</v>
+      </c>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8464,18 +9151,27 @@
         <v>1733</v>
       </c>
       <c r="G222" t="n">
+        <v>63.57733333333344</v>
+      </c>
+      <c r="H222" t="n">
         <v>63.30583333333332</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>63.97</v>
+      </c>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8499,18 +9195,27 @@
         <v>3629.2232</v>
       </c>
       <c r="G223" t="n">
+        <v>63.48400000000012</v>
+      </c>
+      <c r="H223" t="n">
         <v>63.32083333333332</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>62.61</v>
+      </c>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8534,18 +9239,27 @@
         <v>22001.4134</v>
       </c>
       <c r="G224" t="n">
+        <v>63.40133333333345</v>
+      </c>
+      <c r="H224" t="n">
         <v>63.32683333333332</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>62.9</v>
+      </c>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8569,18 +9283,27 @@
         <v>54.0677</v>
       </c>
       <c r="G225" t="n">
+        <v>63.37933333333344</v>
+      </c>
+      <c r="H225" t="n">
         <v>63.34799999999998</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="n">
+        <v>62.86</v>
+      </c>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8604,18 +9327,25 @@
         <v>1256</v>
       </c>
       <c r="G226" t="n">
+        <v>63.29266666666678</v>
+      </c>
+      <c r="H226" t="n">
         <v>63.35633333333332</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8639,18 +9369,27 @@
         <v>1192.9744</v>
       </c>
       <c r="G227" t="n">
+        <v>63.30600000000011</v>
+      </c>
+      <c r="H227" t="n">
         <v>63.36549999999999</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>63</v>
+      </c>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8674,18 +9413,25 @@
         <v>100</v>
       </c>
       <c r="G228" t="n">
+        <v>63.23933333333344</v>
+      </c>
+      <c r="H228" t="n">
         <v>63.37466666666666</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8709,18 +9455,25 @@
         <v>331.6758</v>
       </c>
       <c r="G229" t="n">
+        <v>63.2520000000001</v>
+      </c>
+      <c r="H229" t="n">
         <v>63.39599999999999</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8744,18 +9497,25 @@
         <v>7533.066</v>
       </c>
       <c r="G230" t="n">
+        <v>63.21133333333344</v>
+      </c>
+      <c r="H230" t="n">
         <v>63.42299999999999</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8779,18 +9539,25 @@
         <v>18.7858</v>
       </c>
       <c r="G231" t="n">
+        <v>63.24933333333345</v>
+      </c>
+      <c r="H231" t="n">
         <v>63.43866666666666</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8814,18 +9581,25 @@
         <v>85.8342</v>
       </c>
       <c r="G232" t="n">
+        <v>63.26933333333344</v>
+      </c>
+      <c r="H232" t="n">
         <v>63.447</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8849,18 +9623,25 @@
         <v>1344</v>
       </c>
       <c r="G233" t="n">
+        <v>63.25600000000011</v>
+      </c>
+      <c r="H233" t="n">
         <v>63.44366666666666</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8884,18 +9665,25 @@
         <v>2949.5329</v>
       </c>
       <c r="G234" t="n">
+        <v>63.23266666666679</v>
+      </c>
+      <c r="H234" t="n">
         <v>63.45866666666665</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8919,18 +9707,25 @@
         <v>486.6506</v>
       </c>
       <c r="G235" t="n">
+        <v>63.31933333333345</v>
+      </c>
+      <c r="H235" t="n">
         <v>63.47199999999999</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8954,18 +9749,25 @@
         <v>100</v>
       </c>
       <c r="G236" t="n">
+        <v>63.22933333333345</v>
+      </c>
+      <c r="H236" t="n">
         <v>63.46233333333332</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8989,18 +9791,25 @@
         <v>8</v>
       </c>
       <c r="G237" t="n">
+        <v>63.30800000000011</v>
+      </c>
+      <c r="H237" t="n">
         <v>63.47216666666666</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9024,18 +9833,25 @@
         <v>10736.3362</v>
       </c>
       <c r="G238" t="n">
+        <v>63.37600000000011</v>
+      </c>
+      <c r="H238" t="n">
         <v>63.50383333333333</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9059,18 +9875,25 @@
         <v>544.3747</v>
       </c>
       <c r="G239" t="n">
+        <v>63.44666666666678</v>
+      </c>
+      <c r="H239" t="n">
         <v>63.53499999999999</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9094,18 +9917,25 @@
         <v>2295.025829208385</v>
       </c>
       <c r="G240" t="n">
+        <v>63.45666666666678</v>
+      </c>
+      <c r="H240" t="n">
         <v>63.53399999999999</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9129,18 +9959,25 @@
         <v>204.9741</v>
       </c>
       <c r="G241" t="n">
+        <v>63.44400000000011</v>
+      </c>
+      <c r="H241" t="n">
         <v>63.54416666666666</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9164,18 +10001,25 @@
         <v>1951</v>
       </c>
       <c r="G242" t="n">
+        <v>63.41200000000012</v>
+      </c>
+      <c r="H242" t="n">
         <v>63.5545</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9199,18 +10043,25 @@
         <v>1379</v>
       </c>
       <c r="G243" t="n">
+        <v>63.38000000000012</v>
+      </c>
+      <c r="H243" t="n">
         <v>63.56983333333334</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9234,18 +10085,25 @@
         <v>1816.6939</v>
       </c>
       <c r="G244" t="n">
+        <v>63.41933333333346</v>
+      </c>
+      <c r="H244" t="n">
         <v>63.57633333333333</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9269,18 +10127,25 @@
         <v>9823.3451</v>
       </c>
       <c r="G245" t="n">
+        <v>63.43466666666679</v>
+      </c>
+      <c r="H245" t="n">
         <v>63.5855</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9304,18 +10169,25 @@
         <v>100</v>
       </c>
       <c r="G246" t="n">
+        <v>63.45000000000012</v>
+      </c>
+      <c r="H246" t="n">
         <v>63.59466666666667</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9339,18 +10211,25 @@
         <v>20</v>
       </c>
       <c r="G247" t="n">
+        <v>63.49133333333346</v>
+      </c>
+      <c r="H247" t="n">
         <v>63.60383333333334</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9374,18 +10253,25 @@
         <v>4095.790569461827</v>
       </c>
       <c r="G248" t="n">
+        <v>63.51800000000012</v>
+      </c>
+      <c r="H248" t="n">
         <v>63.59766666666668</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9409,18 +10295,25 @@
         <v>260.3402</v>
       </c>
       <c r="G249" t="n">
+        <v>63.52466666666678</v>
+      </c>
+      <c r="H249" t="n">
         <v>63.60266666666668</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9444,18 +10337,25 @@
         <v>40</v>
       </c>
       <c r="G250" t="n">
+        <v>63.52466666666678</v>
+      </c>
+      <c r="H250" t="n">
         <v>63.60766666666668</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9479,18 +10379,445 @@
         <v>1676</v>
       </c>
       <c r="G251" t="n">
+        <v>63.55000000000011</v>
+      </c>
+      <c r="H251" t="n">
         <v>63.59933333333335</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>62.91</v>
+      </c>
+      <c r="C252" t="n">
+        <v>62.91</v>
+      </c>
+      <c r="D252" t="n">
+        <v>62.91</v>
+      </c>
+      <c r="E252" t="n">
+        <v>62.91</v>
+      </c>
+      <c r="F252" t="n">
+        <v>1088.0846</v>
+      </c>
+      <c r="G252" t="n">
+        <v>63.49133333333345</v>
+      </c>
+      <c r="H252" t="n">
+        <v>63.58800000000001</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>62.91</v>
+      </c>
+      <c r="C253" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="D253" t="n">
+        <v>62.91</v>
+      </c>
+      <c r="E253" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="F253" t="n">
+        <v>19546.9198</v>
+      </c>
+      <c r="G253" t="n">
+        <v>63.42333333333345</v>
+      </c>
+      <c r="H253" t="n">
+        <v>63.57650000000001</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>62.72</v>
+      </c>
+      <c r="C254" t="n">
+        <v>62.62</v>
+      </c>
+      <c r="D254" t="n">
+        <v>62.72</v>
+      </c>
+      <c r="E254" t="n">
+        <v>62.62</v>
+      </c>
+      <c r="F254" t="n">
+        <v>35593.8583</v>
+      </c>
+      <c r="G254" t="n">
+        <v>63.33666666666679</v>
+      </c>
+      <c r="H254" t="n">
+        <v>63.55400000000001</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>62.62</v>
+      </c>
+      <c r="C255" t="n">
+        <v>62.62</v>
+      </c>
+      <c r="D255" t="n">
+        <v>62.62</v>
+      </c>
+      <c r="E255" t="n">
+        <v>62.62</v>
+      </c>
+      <c r="F255" t="n">
+        <v>11541.26</v>
+      </c>
+      <c r="G255" t="n">
+        <v>63.25000000000012</v>
+      </c>
+      <c r="H255" t="n">
+        <v>63.53150000000002</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="C256" t="n">
+        <v>62.16</v>
+      </c>
+      <c r="D256" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="E256" t="n">
+        <v>62.16</v>
+      </c>
+      <c r="F256" t="n">
+        <v>9687.3568</v>
+      </c>
+      <c r="G256" t="n">
+        <v>63.20666666666678</v>
+      </c>
+      <c r="H256" t="n">
+        <v>63.50116666666668</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>62.17</v>
+      </c>
+      <c r="C257" t="n">
+        <v>62.16</v>
+      </c>
+      <c r="D257" t="n">
+        <v>62.17</v>
+      </c>
+      <c r="E257" t="n">
+        <v>62.16</v>
+      </c>
+      <c r="F257" t="n">
+        <v>4700.4416</v>
+      </c>
+      <c r="G257" t="n">
+        <v>63.16266666666677</v>
+      </c>
+      <c r="H257" t="n">
+        <v>63.47083333333334</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>62.18</v>
+      </c>
+      <c r="C258" t="n">
+        <v>62.16</v>
+      </c>
+      <c r="D258" t="n">
+        <v>62.18</v>
+      </c>
+      <c r="E258" t="n">
+        <v>62.16</v>
+      </c>
+      <c r="F258" t="n">
+        <v>6526.1037</v>
+      </c>
+      <c r="G258" t="n">
+        <v>63.11866666666677</v>
+      </c>
+      <c r="H258" t="n">
+        <v>63.44050000000001</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>62.16</v>
+      </c>
+      <c r="C259" t="n">
+        <v>62.16</v>
+      </c>
+      <c r="D259" t="n">
+        <v>62.16</v>
+      </c>
+      <c r="E259" t="n">
+        <v>62.16</v>
+      </c>
+      <c r="F259" t="n">
+        <v>531.5403</v>
+      </c>
+      <c r="G259" t="n">
+        <v>63.00333333333344</v>
+      </c>
+      <c r="H259" t="n">
+        <v>63.41016666666667</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>62.29</v>
+      </c>
+      <c r="C260" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="D260" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="E260" t="n">
+        <v>62.29</v>
+      </c>
+      <c r="F260" t="n">
+        <v>11867.7456</v>
+      </c>
+      <c r="G260" t="n">
+        <v>62.96466666666677</v>
+      </c>
+      <c r="H260" t="n">
+        <v>63.3995</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>62.98</v>
+      </c>
+      <c r="C261" t="n">
+        <v>62.98</v>
+      </c>
+      <c r="D261" t="n">
+        <v>62.98</v>
+      </c>
+      <c r="E261" t="n">
+        <v>62.98</v>
+      </c>
+      <c r="F261" t="n">
+        <v>86.7518</v>
+      </c>
+      <c r="G261" t="n">
+        <v>62.90200000000011</v>
+      </c>
+      <c r="H261" t="n">
+        <v>63.38300000000001</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-11 BackTest FX.xlsx
+++ b/BackTest/2020-01-11 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N319"/>
+  <dimension ref="A1:M319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,18 +2761,15 @@
         <v>-281757.4980140231</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3012,18 +2794,15 @@
         <v>-282463.5314140231</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +2827,15 @@
         <v>-275181.8916140231</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,18 +2860,15 @@
         <v>-275181.8916140231</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,18 +2992,15 @@
         <v>-259405.0220140231</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,18 +3025,15 @@
         <v>-259601.4009140231</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3058,15 @@
         <v>-259601.4009140231</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3190,15 @@
         <v>-290413.6040140231</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3696,18 +3421,15 @@
         <v>-297168.2349140231</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3732,18 +3454,15 @@
         <v>-297168.2349140231</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3487,15 @@
         <v>-297253.6791140231</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3804,18 +3520,15 @@
         <v>-297234.6791140231</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3840,18 +3553,15 @@
         <v>-314470.6985140231</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3876,18 +3586,15 @@
         <v>-314461.8985140231</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3912,18 +3619,15 @@
         <v>-314701.8985140231</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3948,18 +3652,15 @@
         <v>-314694.0985140231</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3984,18 +3685,15 @@
         <v>-302730.6443140231</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4020,18 +3718,15 @@
         <v>-313350.8401140231</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4056,18 +3751,15 @@
         <v>-335999.3986140231</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4092,18 +3784,15 @@
         <v>-335999.3986140231</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4164,18 +3850,15 @@
         <v>-344497.1302140231</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4200,18 +3883,15 @@
         <v>-346571.2095140231</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4236,18 +3916,15 @@
         <v>-344774.5951140231</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4272,18 +3949,15 @@
         <v>-343877.6270140231</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4632,18 +4279,15 @@
         <v>-360861.6975445707</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4704,18 +4345,15 @@
         <v>-388775.7790445708</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4776,18 +4411,15 @@
         <v>-400806.4633445707</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4812,18 +4444,15 @@
         <v>-401713.3871445707</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4848,18 +4477,15 @@
         <v>-404268.2475445707</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4884,18 +4510,15 @@
         <v>-404051.3639445707</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4920,18 +4543,15 @@
         <v>-403888.1161445707</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4956,18 +4576,15 @@
         <v>-403880.1161445707</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4992,18 +4609,15 @@
         <v>-392495.8669645676</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5028,18 +4642,15 @@
         <v>-391449.2388645676</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5100,18 +4708,15 @@
         <v>-385840.4689645676</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5136,18 +4741,15 @@
         <v>-384184.1701645676</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5280,18 +4873,15 @@
         <v>-377220.2813557352</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5352,18 +4939,15 @@
         <v>-380136.5612557352</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5388,18 +4972,15 @@
         <v>-380136.5612557352</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5964,18 +5500,15 @@
         <v>-348571.9187557353</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6000,18 +5533,15 @@
         <v>-342967.3601557353</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6072,18 +5599,15 @@
         <v>-344567.3601557353</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6108,18 +5632,15 @@
         <v>-344567.3601557353</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6144,18 +5665,15 @@
         <v>-341041.6605557353</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6180,18 +5698,15 @@
         <v>-352935.7972557353</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6216,18 +5731,15 @@
         <v>-364045.8863557352</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6252,18 +5764,15 @@
         <v>-470293.5975557353</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6288,18 +5797,15 @@
         <v>-475921.0076557352</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6324,18 +5830,15 @@
         <v>-475921.0076557352</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6360,18 +5863,15 @@
         <v>-477449.3520557352</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6624,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6789,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6822,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6855,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +6888,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +6921,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +6954,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +6987,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7020,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7053,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7086,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7119,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7152,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7802,16 +7185,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7218,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7874,16 +7251,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7910,16 +7284,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7946,16 +7317,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7982,16 +7350,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8018,16 +7383,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8052,18 +7414,19 @@
         <v>-788009.7915480452</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
+        <v>61.51</v>
+      </c>
+      <c r="J213" t="n">
+        <v>61.51</v>
+      </c>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8090,16 +7453,19 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>61.51</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8126,16 +7492,19 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>61.51</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8162,16 +7531,19 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>61.51</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8198,16 +7570,19 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>61.51</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8232,18 +7607,23 @@
         <v>-833990.4070480453</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+        <v>61.5</v>
+      </c>
+      <c r="J218" t="n">
+        <v>61.51</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8268,18 +7648,23 @@
         <v>-834990.4070480453</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+        <v>62.79</v>
+      </c>
+      <c r="J219" t="n">
+        <v>61.51</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8304,22 +7689,23 @@
         <v>-822990.4070480453</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I220" t="n">
-        <v>0</v>
+        <v>62.51</v>
       </c>
       <c r="J220" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="K220" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+        <v>61.51</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8344,26 +7730,23 @@
         <v>-852312.5285480453</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
+        <v>62.8</v>
       </c>
       <c r="J221" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="K221" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L221" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K221" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8388,26 +7771,23 @@
         <v>-851721.5285480453</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I222" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="J222" t="n">
-        <v>62</v>
-      </c>
-      <c r="K222" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L222" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8432,26 +7812,23 @@
         <v>-851721.5285480453</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I223" t="n">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="J223" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="K223" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L223" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8476,26 +7853,21 @@
         <v>-851721.5285480453</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="K224" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L224" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8520,26 +7892,21 @@
         <v>-844183.9799480453</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="K225" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L225" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8564,26 +7931,21 @@
         <v>-844183.9799480453</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>62.75</v>
-      </c>
-      <c r="K226" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L226" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8608,26 +7970,23 @@
         <v>-845477.9799480453</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I227" t="n">
-        <v>0</v>
+        <v>62.75</v>
       </c>
       <c r="J227" t="n">
-        <v>62.75</v>
-      </c>
-      <c r="K227" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L227" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8652,26 +8011,23 @@
         <v>-844560.9799480453</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I228" t="n">
-        <v>0</v>
+        <v>62.02</v>
       </c>
       <c r="J228" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K228" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L228" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8696,26 +8052,23 @@
         <v>-832896.5256480454</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I229" t="n">
-        <v>0</v>
+        <v>62.07</v>
       </c>
       <c r="J229" t="n">
-        <v>62.07</v>
-      </c>
-      <c r="K229" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L229" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8740,26 +8093,23 @@
         <v>-832888.5256480454</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
+        <v>62.75</v>
       </c>
       <c r="J230" t="n">
-        <v>62.75</v>
-      </c>
-      <c r="K230" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L230" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8784,26 +8134,23 @@
         <v>-832888.5256480454</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
+        <v>62.8</v>
       </c>
       <c r="J231" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="K231" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L231" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8828,26 +8175,23 @@
         <v>-832888.5256480454</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
+        <v>62.8</v>
       </c>
       <c r="J232" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="K232" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L232" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8872,26 +8216,23 @@
         <v>-832337.0331480453</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I233" t="n">
-        <v>0</v>
+        <v>62.8</v>
       </c>
       <c r="J233" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="K233" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L233" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8916,26 +8257,23 @@
         <v>-831937.0331480453</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I234" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="J234" t="n">
-        <v>63</v>
-      </c>
-      <c r="K234" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L234" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8960,26 +8298,21 @@
         <v>-831937.0331480453</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>63.2</v>
-      </c>
-      <c r="K235" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L235" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9004,26 +8337,21 @@
         <v>-837792.7178480453</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>63.2</v>
-      </c>
-      <c r="K236" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L236" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9048,26 +8376,21 @@
         <v>-837692.7178480453</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K237" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L237" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9092,26 +8415,21 @@
         <v>-837684.7178480453</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>62.05</v>
-      </c>
-      <c r="K238" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L238" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9136,26 +8454,21 @@
         <v>-837976.4478480453</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="K239" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L239" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9180,26 +8493,21 @@
         <v>-837976.4478480453</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="K240" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L240" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9224,26 +8532,21 @@
         <v>-839162.4478480453</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="K241" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L241" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9268,26 +8571,21 @@
         <v>-839154.4478480453</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="K242" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L242" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9312,26 +8610,21 @@
         <v>-841227.2173480453</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="K243" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L243" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9356,26 +8649,21 @@
         <v>-841227.2173480453</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>63.37</v>
-      </c>
-      <c r="K244" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L244" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9400,26 +8688,21 @@
         <v>-841227.2173480453</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>63.37</v>
-      </c>
-      <c r="K245" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L245" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9444,26 +8727,23 @@
         <v>-841227.2173480453</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
+        <v>63.37</v>
       </c>
       <c r="J246" t="n">
-        <v>63.37</v>
-      </c>
-      <c r="K246" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L246" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9488,26 +8768,23 @@
         <v>-841219.2173480453</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
+        <v>63.37</v>
       </c>
       <c r="J247" t="n">
-        <v>63.37</v>
-      </c>
-      <c r="K247" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L247" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9532,26 +8809,23 @@
         <v>-841219.2173480453</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
+        <v>63.5</v>
       </c>
       <c r="J248" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="K248" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L248" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9576,26 +8850,23 @@
         <v>-841219.2173480453</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
+        <v>63.5</v>
       </c>
       <c r="J249" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="K249" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L249" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9620,26 +8891,21 @@
         <v>-838590.2318480454</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="K250" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L250" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9664,26 +8930,23 @@
         <v>-838590.2318480454</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I251" t="n">
-        <v>0</v>
+        <v>63.59</v>
       </c>
       <c r="J251" t="n">
-        <v>63.59</v>
-      </c>
-      <c r="K251" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L251" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9708,26 +8971,21 @@
         <v>-829984.8318480453</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>63.59</v>
-      </c>
-      <c r="K252" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L252" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9752,26 +9010,21 @@
         <v>-829984.8318480453</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>63.97</v>
-      </c>
-      <c r="K253" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L253" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9796,26 +9049,23 @@
         <v>-818178.5511480453</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I254" t="n">
-        <v>0</v>
+        <v>63.97</v>
       </c>
       <c r="J254" t="n">
-        <v>63.97</v>
-      </c>
-      <c r="K254" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L254" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9840,26 +9090,23 @@
         <v>-818178.5511480453</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I255" t="n">
-        <v>0</v>
+        <v>63.98</v>
       </c>
       <c r="J255" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="K255" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L255" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9884,26 +9131,23 @@
         <v>-818178.5511480453</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I256" t="n">
-        <v>0</v>
+        <v>63.98</v>
       </c>
       <c r="J256" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="K256" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L256" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9928,26 +9172,21 @@
         <v>-818178.5511480453</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="K257" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L257" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9974,22 +9213,19 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L258" t="inlineStr">
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>61.51</v>
+      </c>
+      <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10014,24 +9250,23 @@
         <v>-819464.2966480453</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="n">
-        <v>0</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L259" t="inlineStr">
+        <v>63.98</v>
+      </c>
+      <c r="J259" t="n">
+        <v>61.51</v>
+      </c>
+      <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10056,24 +9291,23 @@
         <v>-818094.8099480453</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="n">
-        <v>0</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L260" t="inlineStr">
+        <v>63.97</v>
+      </c>
+      <c r="J260" t="n">
+        <v>61.51</v>
+      </c>
+      <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10098,24 +9332,23 @@
         <v>-818898.2762480453</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L261" t="inlineStr">
+        <v>63.99</v>
+      </c>
+      <c r="J261" t="n">
+        <v>61.51</v>
+      </c>
+      <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10142,22 +9375,19 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L262" t="inlineStr">
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>61.51</v>
+      </c>
+      <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10184,22 +9414,19 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L263" t="inlineStr">
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>61.51</v>
+      </c>
+      <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10226,22 +9453,19 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L264" t="inlineStr">
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>61.51</v>
+      </c>
+      <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10268,22 +9492,19 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L265" t="inlineStr">
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>61.51</v>
+      </c>
+      <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10308,26 +9529,23 @@
         <v>-816757.9256480453</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I266" t="n">
-        <v>0</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="J266" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="K266" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L266" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10352,26 +9570,23 @@
         <v>-817518.9256480453</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I267" t="n">
-        <v>0</v>
+        <v>64.3</v>
       </c>
       <c r="J267" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="K267" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L267" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10396,26 +9611,21 @@
         <v>-817518.9256480453</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="K268" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L268" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10440,26 +9650,21 @@
         <v>-817510.9256480453</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="K269" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L269" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10484,26 +9689,21 @@
         <v>-819351.9256480453</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="K270" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L270" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10528,26 +9728,23 @@
         <v>-819343.9256480453</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I271" t="n">
-        <v>0</v>
+        <v>63.1</v>
       </c>
       <c r="J271" t="n">
-        <v>63.1</v>
-      </c>
-      <c r="K271" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L271" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10572,26 +9769,23 @@
         <v>-821517.9256480453</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I272" t="n">
-        <v>0</v>
+        <v>64.3</v>
       </c>
       <c r="J272" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="K272" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L272" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10616,26 +9810,23 @@
         <v>-821507.9256480453</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I273" t="n">
-        <v>0</v>
+        <v>63.11</v>
       </c>
       <c r="J273" t="n">
-        <v>63.11</v>
-      </c>
-      <c r="K273" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L273" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10660,26 +9851,23 @@
         <v>-821593.7598480453</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I274" t="n">
-        <v>0</v>
+        <v>64.3</v>
       </c>
       <c r="J274" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="K274" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L274" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10704,26 +9892,23 @@
         <v>-836437.2607480453</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I275" t="n">
-        <v>0</v>
+        <v>63.12</v>
       </c>
       <c r="J275" t="n">
-        <v>63.12</v>
-      </c>
-      <c r="K275" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L275" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10748,26 +9933,23 @@
         <v>-839840.5625480453</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I276" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="J276" t="n">
-        <v>63</v>
-      </c>
-      <c r="K276" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L276" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10792,26 +9974,23 @@
         <v>-833859.1701480453</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I277" t="n">
-        <v>0</v>
+        <v>62.8</v>
       </c>
       <c r="J277" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="K277" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L277" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10836,26 +10015,23 @@
         <v>-838863.8577480452</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I278" t="n">
-        <v>0</v>
+        <v>64.05</v>
       </c>
       <c r="J278" t="n">
-        <v>64.05</v>
-      </c>
-      <c r="K278" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L278" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10880,26 +10056,23 @@
         <v>-838855.8577480452</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I279" t="n">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="J279" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="K279" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L279" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10924,26 +10097,23 @@
         <v>-840588.8577480452</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I280" t="n">
-        <v>0</v>
+        <v>63.97</v>
       </c>
       <c r="J280" t="n">
-        <v>63.97</v>
-      </c>
-      <c r="K280" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L280" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10968,26 +10138,23 @@
         <v>-836959.6345480452</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I281" t="n">
-        <v>0</v>
+        <v>62.61</v>
       </c>
       <c r="J281" t="n">
-        <v>62.61</v>
-      </c>
-      <c r="K281" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L281" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11012,26 +10179,23 @@
         <v>-858961.0479480452</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I282" t="n">
-        <v>0</v>
+        <v>62.9</v>
       </c>
       <c r="J282" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="K282" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L282" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11056,26 +10220,23 @@
         <v>-858906.9802480452</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I283" t="n">
-        <v>0</v>
+        <v>62.86</v>
       </c>
       <c r="J283" t="n">
-        <v>62.86</v>
-      </c>
-      <c r="K283" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L283" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11100,26 +10261,23 @@
         <v>-860162.9802480452</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I284" t="n">
-        <v>0</v>
+        <v>63.77</v>
       </c>
       <c r="J284" t="n">
-        <v>63.77</v>
-      </c>
-      <c r="K284" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L284" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11144,26 +10302,23 @@
         <v>-858970.0058480452</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I285" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="J285" t="n">
-        <v>63</v>
-      </c>
-      <c r="K285" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L285" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11188,26 +10343,23 @@
         <v>-858970.0058480452</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I286" t="n">
-        <v>0</v>
+        <v>63.3</v>
       </c>
       <c r="J286" t="n">
-        <v>63.3</v>
-      </c>
-      <c r="K286" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L286" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11232,26 +10384,23 @@
         <v>-858970.0058480452</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I287" t="n">
-        <v>0</v>
+        <v>63.3</v>
       </c>
       <c r="J287" t="n">
-        <v>63.3</v>
-      </c>
-      <c r="K287" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L287" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11276,26 +10425,23 @@
         <v>-851436.9398480452</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I288" t="n">
-        <v>0</v>
+        <v>63.3</v>
       </c>
       <c r="J288" t="n">
-        <v>63.3</v>
-      </c>
-      <c r="K288" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L288" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11320,26 +10466,23 @@
         <v>-851436.9398480452</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I289" t="n">
-        <v>0</v>
+        <v>63.69</v>
       </c>
       <c r="J289" t="n">
-        <v>63.69</v>
-      </c>
-      <c r="K289" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L289" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11364,26 +10507,23 @@
         <v>-851522.7740480453</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I290" t="n">
-        <v>0</v>
+        <v>63.69</v>
       </c>
       <c r="J290" t="n">
-        <v>63.69</v>
-      </c>
-      <c r="K290" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L290" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11408,26 +10548,23 @@
         <v>-852866.7740480453</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I291" t="n">
-        <v>0</v>
+        <v>63.3</v>
       </c>
       <c r="J291" t="n">
-        <v>63.3</v>
-      </c>
-      <c r="K291" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L291" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11452,26 +10589,23 @@
         <v>-849917.2411480453</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I292" t="n">
-        <v>0</v>
+        <v>62.6</v>
       </c>
       <c r="J292" t="n">
-        <v>62.6</v>
-      </c>
-      <c r="K292" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L292" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11496,26 +10630,23 @@
         <v>-849430.5905480452</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I293" t="n">
-        <v>0</v>
+        <v>63.7</v>
       </c>
       <c r="J293" t="n">
-        <v>63.7</v>
-      </c>
-      <c r="K293" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L293" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11540,26 +10671,23 @@
         <v>-849530.5905480452</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I294" t="n">
-        <v>0</v>
+        <v>63.8</v>
       </c>
       <c r="J294" t="n">
-        <v>63.8</v>
-      </c>
-      <c r="K294" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L294" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11584,26 +10712,23 @@
         <v>-849522.5905480452</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I295" t="n">
-        <v>0</v>
+        <v>62.62</v>
       </c>
       <c r="J295" t="n">
-        <v>62.62</v>
-      </c>
-      <c r="K295" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L295" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11628,26 +10753,23 @@
         <v>-838786.2543480452</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I296" t="n">
-        <v>0</v>
+        <v>63.79</v>
       </c>
       <c r="J296" t="n">
-        <v>63.79</v>
-      </c>
-      <c r="K296" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L296" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11672,26 +10794,23 @@
         <v>-838786.2543480452</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I297" t="n">
-        <v>0</v>
+        <v>63.92</v>
       </c>
       <c r="J297" t="n">
-        <v>63.92</v>
-      </c>
-      <c r="K297" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L297" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11716,26 +10835,23 @@
         <v>-838786.2543480452</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I298" t="n">
-        <v>0</v>
+        <v>63.92</v>
       </c>
       <c r="J298" t="n">
-        <v>63.92</v>
-      </c>
-      <c r="K298" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L298" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11760,26 +10876,21 @@
         <v>-838991.2284480452</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>63.92</v>
-      </c>
-      <c r="K299" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L299" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11804,26 +10915,23 @@
         <v>-837040.2284480452</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I300" t="n">
-        <v>0</v>
+        <v>62.81</v>
       </c>
       <c r="J300" t="n">
-        <v>62.81</v>
-      </c>
-      <c r="K300" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L300" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11848,26 +10956,23 @@
         <v>-837040.2284480452</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I301" t="n">
-        <v>0</v>
+        <v>62.82</v>
       </c>
       <c r="J301" t="n">
-        <v>62.82</v>
-      </c>
-      <c r="K301" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L301" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11892,26 +10997,23 @@
         <v>-835223.5345480453</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I302" t="n">
-        <v>0</v>
+        <v>62.82</v>
       </c>
       <c r="J302" t="n">
-        <v>62.82</v>
-      </c>
-      <c r="K302" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L302" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11936,26 +11038,21 @@
         <v>-825400.1894480452</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>63.89</v>
-      </c>
-      <c r="K303" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L303" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11980,26 +11077,23 @@
         <v>-825400.1894480452</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I304" t="n">
-        <v>0</v>
+        <v>63.92</v>
       </c>
       <c r="J304" t="n">
-        <v>63.92</v>
-      </c>
-      <c r="K304" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L304" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -12024,26 +11118,23 @@
         <v>-825400.1894480452</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I305" t="n">
-        <v>0</v>
+        <v>63.92</v>
       </c>
       <c r="J305" t="n">
-        <v>63.92</v>
-      </c>
-      <c r="K305" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L305" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -12068,26 +11159,23 @@
         <v>-829495.9800175071</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I306" t="n">
-        <v>0</v>
+        <v>63.92</v>
       </c>
       <c r="J306" t="n">
-        <v>63.92</v>
-      </c>
-      <c r="K306" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L306" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -12112,26 +11200,23 @@
         <v>-829235.6398175071</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I307" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="J307" t="n">
-        <v>63</v>
-      </c>
-      <c r="K307" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L307" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -12156,26 +11241,23 @@
         <v>-829235.6398175071</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I308" t="n">
-        <v>0</v>
+        <v>63.8</v>
       </c>
       <c r="J308" t="n">
-        <v>63.8</v>
-      </c>
-      <c r="K308" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L308" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -12200,26 +11282,23 @@
         <v>-830911.6398175071</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I309" t="n">
-        <v>0</v>
+        <v>63.8</v>
       </c>
       <c r="J309" t="n">
-        <v>63.8</v>
-      </c>
-      <c r="K309" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L309" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -12244,26 +11323,23 @@
         <v>-831999.7244175071</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I310" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="J310" t="n">
-        <v>63</v>
-      </c>
-      <c r="K310" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L310" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -12288,26 +11364,23 @@
         <v>-851546.6442175071</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I311" t="n">
-        <v>0</v>
+        <v>62.91</v>
       </c>
       <c r="J311" t="n">
-        <v>62.91</v>
-      </c>
-      <c r="K311" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L311" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -12332,26 +11405,23 @@
         <v>-887140.5025175071</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I312" t="n">
-        <v>0</v>
+        <v>62.9</v>
       </c>
       <c r="J312" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="K312" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L312" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12376,26 +11446,23 @@
         <v>-887140.5025175071</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I313" t="n">
-        <v>0</v>
+        <v>62.62</v>
       </c>
       <c r="J313" t="n">
-        <v>62.62</v>
-      </c>
-      <c r="K313" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L313" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12420,26 +11487,23 @@
         <v>-896827.859317507</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I314" t="n">
-        <v>0</v>
+        <v>62.62</v>
       </c>
       <c r="J314" t="n">
-        <v>62.62</v>
-      </c>
-      <c r="K314" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L314" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12464,26 +11528,23 @@
         <v>-896827.859317507</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I315" t="n">
-        <v>0</v>
+        <v>62.16</v>
       </c>
       <c r="J315" t="n">
-        <v>62.16</v>
-      </c>
-      <c r="K315" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L315" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12508,26 +11569,23 @@
         <v>-896827.859317507</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I316" t="n">
-        <v>0</v>
+        <v>62.16</v>
       </c>
       <c r="J316" t="n">
-        <v>62.16</v>
-      </c>
-      <c r="K316" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L316" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12552,26 +11610,23 @@
         <v>-896827.859317507</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I317" t="n">
-        <v>0</v>
+        <v>62.16</v>
       </c>
       <c r="J317" t="n">
-        <v>62.16</v>
-      </c>
-      <c r="K317" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L317" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12596,26 +11651,23 @@
         <v>-884960.113717507</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I318" t="n">
-        <v>0</v>
+        <v>62.16</v>
       </c>
       <c r="J318" t="n">
-        <v>62.16</v>
-      </c>
-      <c r="K318" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L318" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12640,28 +11692,25 @@
         <v>-885046.865517507</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I319" t="n">
-        <v>0</v>
+        <v>63.34</v>
       </c>
       <c r="J319" t="n">
-        <v>63.34</v>
-      </c>
-      <c r="K319" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="L319" t="inlineStr">
+        <v>61.51</v>
+      </c>
+      <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest FX.xlsx
+++ b/BackTest/2020-01-11 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-328794.1373928395</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-343804.5672928395</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-343681.5672928395</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-377933.1049928395</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-377925.1049928395</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-377933.1049928395</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-377933.1049928395</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-377925.1049928395</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-377947.3146928395</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-378119.3146928395</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-367381.8812928395</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-281757.4980140231</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-282463.5314140231</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-275181.8916140231</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-275181.8916140231</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-259405.0220140231</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-259601.4009140231</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-259601.4009140231</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-290413.6040140231</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-297168.2349140231</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-297168.2349140231</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-297253.6791140231</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-297234.6791140231</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-314470.6985140231</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-314461.8985140231</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-314701.8985140231</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-314694.0985140231</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-302730.6443140231</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-313350.8401140231</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-335999.3986140231</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-335999.3986140231</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-335991.3986140231</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-344497.1302140231</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-346571.2095140231</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-344774.5951140231</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-343877.6270140231</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-342243.8880140231</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-342243.8880140231</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-342243.8880140231</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-340004.1001140231</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-333538.4747445707</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-332538.4747445707</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-327715.6647445707</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-360984.9141445707</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-360861.6975445707</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-360861.6975445707</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-388775.7790445708</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-400046.9342445707</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-400806.4633445707</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-401713.3871445707</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-404268.2475445707</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-404051.3639445707</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-403888.1161445707</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-403880.1161445707</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-392495.8669645676</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-391449.2388645676</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-385840.4689645676</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-384184.1701645676</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-377220.2813557352</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-380136.5612557352</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-380136.5612557352</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-348571.9187557353</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-342967.3601557353</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-344567.3601557353</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-344567.3601557353</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-341041.6605557353</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-352935.7972557353</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-364045.8863557352</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-470293.5975557353</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-475921.0076557352</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-475921.0076557352</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-477449.3520557352</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -7315,10 +7315,14 @@
         <v>-726234.2922480453</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="J210" t="n">
+        <v>62.02</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
@@ -7351,8 +7355,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7384,8 +7394,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7414,15 +7430,17 @@
         <v>-788009.7915480452</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I213" t="n">
-        <v>61.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>61.51</v>
-      </c>
-      <c r="K213" t="inlineStr"/>
+        <v>62.02</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7455,11 +7473,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L214" t="n">
@@ -7494,7 +7512,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -7533,7 +7551,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -7572,7 +7590,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -7607,13 +7625,13 @@
         <v>-833990.4070480453</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>61.5</v>
       </c>
       <c r="J218" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -7648,13 +7666,13 @@
         <v>-834990.4070480453</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>62.79</v>
       </c>
       <c r="J219" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -7689,13 +7707,13 @@
         <v>-822990.4070480453</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
         <v>62.51</v>
       </c>
       <c r="J220" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -7730,13 +7748,13 @@
         <v>-852312.5285480453</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
         <v>62.8</v>
       </c>
       <c r="J221" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -7771,13 +7789,13 @@
         <v>-851721.5285480453</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I222" t="n">
         <v>62</v>
       </c>
       <c r="J222" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -7812,13 +7830,13 @@
         <v>-851721.5285480453</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>62.5</v>
       </c>
       <c r="J223" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -7853,11 +7871,13 @@
         <v>-851721.5285480453</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>62.5</v>
+      </c>
       <c r="J224" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -7892,11 +7912,13 @@
         <v>-844183.9799480453</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>62.5</v>
+      </c>
       <c r="J225" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -7931,11 +7953,13 @@
         <v>-844183.9799480453</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>62.75</v>
+      </c>
       <c r="J226" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -7970,13 +7994,13 @@
         <v>-845477.9799480453</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>62.75</v>
       </c>
       <c r="J227" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8011,13 +8035,13 @@
         <v>-844560.9799480453</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>62.02</v>
       </c>
       <c r="J228" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8052,13 +8076,13 @@
         <v>-832896.5256480454</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>62.07</v>
       </c>
       <c r="J229" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8093,13 +8117,13 @@
         <v>-832888.5256480454</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>62.75</v>
       </c>
       <c r="J230" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8134,13 +8158,13 @@
         <v>-832888.5256480454</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>62.8</v>
       </c>
       <c r="J231" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8175,13 +8199,13 @@
         <v>-832888.5256480454</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>62.8</v>
       </c>
       <c r="J232" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8216,13 +8240,13 @@
         <v>-832337.0331480453</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>62.8</v>
       </c>
       <c r="J233" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8257,13 +8281,13 @@
         <v>-831937.0331480453</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>63</v>
       </c>
       <c r="J234" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8298,11 +8322,13 @@
         <v>-831937.0331480453</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>63.2</v>
+      </c>
       <c r="J235" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8337,11 +8363,13 @@
         <v>-837792.7178480453</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>63.2</v>
+      </c>
       <c r="J236" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8380,7 +8408,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -8415,11 +8443,13 @@
         <v>-837684.7178480453</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>62.05</v>
+      </c>
       <c r="J238" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -8458,7 +8488,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -8497,7 +8527,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -8536,7 +8566,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -8571,11 +8601,13 @@
         <v>-839154.4478480453</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>61.9</v>
+      </c>
       <c r="J242" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -8614,7 +8646,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -8653,7 +8685,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -8692,7 +8724,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -8727,13 +8759,13 @@
         <v>-841227.2173480453</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I246" t="n">
         <v>63.37</v>
       </c>
       <c r="J246" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -8768,13 +8800,11 @@
         <v>-841219.2173480453</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" t="n">
-        <v>63.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -8809,13 +8839,11 @@
         <v>-841219.2173480453</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
-      </c>
-      <c r="I248" t="n">
-        <v>63.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -8850,13 +8878,11 @@
         <v>-841219.2173480453</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
-      </c>
-      <c r="I249" t="n">
-        <v>63.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -8895,7 +8921,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -8930,13 +8956,11 @@
         <v>-838590.2318480454</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="n">
-        <v>63.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -8975,7 +8999,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9014,7 +9038,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9049,13 +9073,11 @@
         <v>-818178.5511480453</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I254" t="n">
-        <v>63.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9090,13 +9112,11 @@
         <v>-818178.5511480453</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="n">
-        <v>63.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9131,13 +9151,11 @@
         <v>-818178.5511480453</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
-      </c>
-      <c r="I256" t="n">
-        <v>63.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9176,7 +9194,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9215,7 +9233,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9250,13 +9268,11 @@
         <v>-819464.2966480453</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
-      </c>
-      <c r="I259" t="n">
-        <v>63.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9291,13 +9307,11 @@
         <v>-818094.8099480453</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
-      </c>
-      <c r="I260" t="n">
-        <v>63.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9332,13 +9346,11 @@
         <v>-818898.2762480453</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I261" t="n">
-        <v>63.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9377,7 +9389,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9416,7 +9428,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9455,7 +9467,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9494,7 +9506,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9529,13 +9541,11 @@
         <v>-816757.9256480453</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I266" t="n">
-        <v>64.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9570,13 +9580,11 @@
         <v>-817518.9256480453</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
-      </c>
-      <c r="I267" t="n">
-        <v>64.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9615,7 +9623,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9654,7 +9662,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9693,7 +9701,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -9728,13 +9736,11 @@
         <v>-819343.9256480453</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
-      </c>
-      <c r="I271" t="n">
-        <v>63.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -9769,13 +9775,11 @@
         <v>-821517.9256480453</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I272" t="n">
-        <v>64.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -9810,13 +9814,11 @@
         <v>-821507.9256480453</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
-      </c>
-      <c r="I273" t="n">
-        <v>63.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -9851,13 +9853,11 @@
         <v>-821593.7598480453</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
-      </c>
-      <c r="I274" t="n">
-        <v>64.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -9892,13 +9892,11 @@
         <v>-836437.2607480453</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
-      </c>
-      <c r="I275" t="n">
-        <v>63.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -9933,13 +9931,11 @@
         <v>-839840.5625480453</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
-      </c>
-      <c r="I276" t="n">
-        <v>63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -9974,13 +9970,11 @@
         <v>-833859.1701480453</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
-      </c>
-      <c r="I277" t="n">
-        <v>62.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -10015,13 +10009,11 @@
         <v>-838863.8577480452</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
-      </c>
-      <c r="I278" t="n">
-        <v>64.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -10056,13 +10048,11 @@
         <v>-838855.8577480452</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
-      </c>
-      <c r="I279" t="n">
-        <v>62.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10097,13 +10087,11 @@
         <v>-840588.8577480452</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
-      </c>
-      <c r="I280" t="n">
-        <v>63.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10138,13 +10126,11 @@
         <v>-836959.6345480452</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
-      </c>
-      <c r="I281" t="n">
-        <v>62.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10179,13 +10165,13 @@
         <v>-858961.0479480452</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>62.9</v>
       </c>
       <c r="J282" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10220,13 +10206,11 @@
         <v>-858906.9802480452</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
-      </c>
-      <c r="I283" t="n">
-        <v>62.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10261,13 +10245,11 @@
         <v>-860162.9802480452</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
-      </c>
-      <c r="I284" t="n">
-        <v>63.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10302,13 +10284,11 @@
         <v>-858970.0058480452</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
-      </c>
-      <c r="I285" t="n">
-        <v>63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10343,13 +10323,11 @@
         <v>-858970.0058480452</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
-      </c>
-      <c r="I286" t="n">
-        <v>63.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10384,13 +10362,11 @@
         <v>-858970.0058480452</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
-      </c>
-      <c r="I287" t="n">
-        <v>63.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10425,13 +10401,11 @@
         <v>-851436.9398480452</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
-      </c>
-      <c r="I288" t="n">
-        <v>63.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10466,13 +10440,11 @@
         <v>-851436.9398480452</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
-      </c>
-      <c r="I289" t="n">
-        <v>63.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10507,13 +10479,11 @@
         <v>-851522.7740480453</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
-      </c>
-      <c r="I290" t="n">
-        <v>63.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10548,13 +10518,11 @@
         <v>-852866.7740480453</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
-      </c>
-      <c r="I291" t="n">
-        <v>63.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10589,13 +10557,11 @@
         <v>-849917.2411480453</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
-      </c>
-      <c r="I292" t="n">
-        <v>62.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10630,13 +10596,11 @@
         <v>-849430.5905480452</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
-      </c>
-      <c r="I293" t="n">
-        <v>63.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10671,13 +10635,11 @@
         <v>-849530.5905480452</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
-      </c>
-      <c r="I294" t="n">
-        <v>63.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10712,13 +10674,11 @@
         <v>-849522.5905480452</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
-      </c>
-      <c r="I295" t="n">
-        <v>62.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10753,13 +10713,11 @@
         <v>-838786.2543480452</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
-      </c>
-      <c r="I296" t="n">
-        <v>63.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10794,13 +10752,11 @@
         <v>-838786.2543480452</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
-      </c>
-      <c r="I297" t="n">
-        <v>63.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10835,13 +10791,11 @@
         <v>-838786.2543480452</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
-      </c>
-      <c r="I298" t="n">
-        <v>63.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10880,7 +10834,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10915,13 +10869,11 @@
         <v>-837040.2284480452</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
-      </c>
-      <c r="I300" t="n">
-        <v>62.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10956,13 +10908,11 @@
         <v>-837040.2284480452</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
-      </c>
-      <c r="I301" t="n">
-        <v>62.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10997,13 +10947,11 @@
         <v>-835223.5345480453</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
-      </c>
-      <c r="I302" t="n">
-        <v>62.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -11042,7 +10990,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -11077,13 +11025,11 @@
         <v>-825400.1894480452</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
-      </c>
-      <c r="I304" t="n">
-        <v>63.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -11118,13 +11064,11 @@
         <v>-825400.1894480452</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
-      </c>
-      <c r="I305" t="n">
-        <v>63.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -11159,13 +11103,11 @@
         <v>-829495.9800175071</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
-      </c>
-      <c r="I306" t="n">
-        <v>63.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -11200,13 +11142,11 @@
         <v>-829235.6398175071</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
-      </c>
-      <c r="I307" t="n">
-        <v>63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11241,13 +11181,11 @@
         <v>-829235.6398175071</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
-      </c>
-      <c r="I308" t="n">
-        <v>63.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11282,13 +11220,11 @@
         <v>-830911.6398175071</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
-      </c>
-      <c r="I309" t="n">
-        <v>63.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11323,13 +11259,11 @@
         <v>-831999.7244175071</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
-      </c>
-      <c r="I310" t="n">
-        <v>63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11364,13 +11298,11 @@
         <v>-851546.6442175071</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
-      </c>
-      <c r="I311" t="n">
-        <v>62.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11405,13 +11337,11 @@
         <v>-887140.5025175071</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
-      </c>
-      <c r="I312" t="n">
-        <v>62.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11446,13 +11376,11 @@
         <v>-887140.5025175071</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
-      </c>
-      <c r="I313" t="n">
-        <v>62.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11487,13 +11415,11 @@
         <v>-896827.859317507</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
-      </c>
-      <c r="I314" t="n">
-        <v>62.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11528,13 +11454,11 @@
         <v>-896827.859317507</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
-      </c>
-      <c r="I315" t="n">
-        <v>62.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11569,13 +11493,11 @@
         <v>-896827.859317507</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
-      </c>
-      <c r="I316" t="n">
-        <v>62.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11610,13 +11532,11 @@
         <v>-896827.859317507</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
-      </c>
-      <c r="I317" t="n">
-        <v>62.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11651,13 +11571,11 @@
         <v>-884960.113717507</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
-      </c>
-      <c r="I318" t="n">
-        <v>62.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11692,13 +11610,11 @@
         <v>-885046.865517507</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
-      </c>
-      <c r="I319" t="n">
-        <v>63.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>61.51</v>
+        <v>62.02</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11711,6 +11627,6 @@
       <c r="M319" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest FX.xlsx
+++ b/BackTest/2020-01-11 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-328794.1373928395</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-343804.5672928395</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-343681.5672928395</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-377933.1049928395</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-377925.1049928395</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-377933.1049928395</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-377933.1049928395</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-377925.1049928395</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-377947.3146928395</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-378119.3146928395</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-367381.8812928395</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-333246.8660140231</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-332235.4133140231</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-332076.0609140231</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-333587.2269140231</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-336850.3159140231</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-333611.3611140231</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-333611.3611140231</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-333611.3611140231</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-333622.3611140231</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-287742.5493140231</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-281727.371214023</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-281727.371214023</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-281727.371214023</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-281757.4980140231</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-282463.5314140231</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-275181.8916140231</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-275181.8916140231</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-277239.9456140231</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-277231.2556140231</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-277231.2556140231</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-259405.0220140231</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-259601.4009140231</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-259601.4009140231</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-259611.4417140231</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-259602.5417140231</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-291667.8232140231</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-302141.1740140231</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-314694.0985140231</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-335999.3986140231</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-335991.3986140231</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-344497.1302140231</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-346571.2095140231</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-344774.5951140231</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-343877.6270140231</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-342243.8880140231</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-342243.8880140231</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-342243.8880140231</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-340004.1001140231</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-333538.4747445707</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-332538.4747445707</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-360984.9141445707</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-360861.6975445707</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-388775.7790445708</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-400046.9342445707</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -7315,14 +7315,10 @@
         <v>-726234.2922480453</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="J210" t="n">
-        <v>62.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
@@ -7355,2554 +7351,2126 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>61.51</v>
+      </c>
+      <c r="C212" t="n">
+        <v>61.51</v>
+      </c>
+      <c r="D212" t="n">
+        <v>61.51</v>
+      </c>
+      <c r="E212" t="n">
+        <v>61.51</v>
+      </c>
+      <c r="F212" t="n">
+        <v>11.9322</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-788313.7915480452</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="C213" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="D213" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="E213" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="F213" t="n">
+        <v>304</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-788009.7915480452</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>62</v>
+      </c>
+      <c r="C214" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D214" t="n">
+        <v>62</v>
+      </c>
+      <c r="E214" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="F214" t="n">
+        <v>23950.0339</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-811959.8254480453</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>61.51</v>
+      </c>
+      <c r="C215" t="n">
+        <v>61.51</v>
+      </c>
+      <c r="D215" t="n">
+        <v>61.51</v>
+      </c>
+      <c r="E215" t="n">
+        <v>61.51</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1368</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-810591.8254480453</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>62</v>
+      </c>
+      <c r="C216" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D216" t="n">
+        <v>62</v>
+      </c>
+      <c r="E216" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="F216" t="n">
+        <v>23431.5816</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-834023.4070480453</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="C217" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D217" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="E217" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="F217" t="n">
+        <v>8574.400299999999</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-834023.4070480453</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="C218" t="n">
+        <v>62.79</v>
+      </c>
+      <c r="D218" t="n">
+        <v>62.79</v>
+      </c>
+      <c r="E218" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="F218" t="n">
+        <v>33</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-833990.4070480453</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>62.51</v>
+      </c>
+      <c r="C219" t="n">
+        <v>62.51</v>
+      </c>
+      <c r="D219" t="n">
+        <v>62.51</v>
+      </c>
+      <c r="E219" t="n">
+        <v>62.51</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-834990.4070480453</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>62.79</v>
+      </c>
+      <c r="C220" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="D220" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="E220" t="n">
+        <v>62.79</v>
+      </c>
+      <c r="F220" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-822990.4070480453</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="C221" t="n">
+        <v>62</v>
+      </c>
+      <c r="D221" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="E221" t="n">
+        <v>62</v>
+      </c>
+      <c r="F221" t="n">
+        <v>29322.1215</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-852312.5285480453</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="C222" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="D222" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="E222" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="F222" t="n">
+        <v>591</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-851721.5285480453</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="C223" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="D223" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="E223" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="F223" t="n">
+        <v>372.7809</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-851721.5285480453</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="C224" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="D224" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="E224" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1263.8821</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-851721.5285480453</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="C225" t="n">
+        <v>62.75</v>
+      </c>
+      <c r="D225" t="n">
+        <v>62.75</v>
+      </c>
+      <c r="E225" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="F225" t="n">
+        <v>7537.5486</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-844183.9799480453</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>62.75</v>
+      </c>
+      <c r="C226" t="n">
+        <v>62.75</v>
+      </c>
+      <c r="D226" t="n">
+        <v>62.75</v>
+      </c>
+      <c r="E226" t="n">
+        <v>62.75</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1302.837</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-844183.9799480453</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
         <v>62.02</v>
       </c>
-      <c r="K211" t="inlineStr">
+      <c r="C227" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="D227" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="E227" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1294</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-845477.9799480453</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>62.07</v>
+      </c>
+      <c r="C228" t="n">
+        <v>62.07</v>
+      </c>
+      <c r="D228" t="n">
+        <v>62.07</v>
+      </c>
+      <c r="E228" t="n">
+        <v>62.07</v>
+      </c>
+      <c r="F228" t="n">
+        <v>917</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-844560.9799480453</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>62.75</v>
+      </c>
+      <c r="C229" t="n">
+        <v>62.75</v>
+      </c>
+      <c r="D229" t="n">
+        <v>62.75</v>
+      </c>
+      <c r="E229" t="n">
+        <v>62.75</v>
+      </c>
+      <c r="F229" t="n">
+        <v>11664.4543</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-832896.5256480454</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="C230" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="D230" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="E230" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="F230" t="n">
+        <v>8</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-832888.5256480454</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>62.75</v>
+      </c>
+      <c r="C231" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="D231" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="E231" t="n">
+        <v>62.75</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1972.6847</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-832888.5256480454</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>63</v>
+      </c>
+      <c r="C232" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="D232" t="n">
+        <v>63</v>
+      </c>
+      <c r="E232" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1964.5075</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-832888.5256480454</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>63</v>
+      </c>
+      <c r="C233" t="n">
+        <v>63</v>
+      </c>
+      <c r="D233" t="n">
+        <v>63</v>
+      </c>
+      <c r="E233" t="n">
+        <v>63</v>
+      </c>
+      <c r="F233" t="n">
+        <v>551.4924999999999</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-832337.0331480453</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>63.19</v>
+      </c>
+      <c r="C234" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="D234" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="E234" t="n">
+        <v>63.19</v>
+      </c>
+      <c r="F234" t="n">
+        <v>400</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-831937.0331480453</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>63.99</v>
+      </c>
+      <c r="C235" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="D235" t="n">
+        <v>63.99</v>
+      </c>
+      <c r="E235" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="F235" t="n">
+        <v>1188.3384</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-831937.0331480453</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>63</v>
+      </c>
+      <c r="C236" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="D236" t="n">
+        <v>63</v>
+      </c>
+      <c r="E236" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="F236" t="n">
+        <v>5855.6847</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-837792.7178480453</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>62.05</v>
+      </c>
+      <c r="C237" t="n">
+        <v>62.05</v>
+      </c>
+      <c r="D237" t="n">
+        <v>62.05</v>
+      </c>
+      <c r="E237" t="n">
+        <v>62.05</v>
+      </c>
+      <c r="F237" t="n">
+        <v>100</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-837692.7178480453</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="C238" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="D238" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="E238" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="F238" t="n">
+        <v>8</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-837684.7178480453</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="C239" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="D239" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="E239" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="F239" t="n">
+        <v>291.73</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-837976.4478480453</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="C240" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="D240" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="E240" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1211</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-837976.4478480453</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="C241" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="D241" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="E241" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1186</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-839162.4478480453</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="C242" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="D242" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="E242" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="F242" t="n">
+        <v>8</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-839154.4478480453</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>63.37</v>
+      </c>
+      <c r="C243" t="n">
+        <v>63.37</v>
+      </c>
+      <c r="D243" t="n">
+        <v>63.37</v>
+      </c>
+      <c r="E243" t="n">
+        <v>63.37</v>
+      </c>
+      <c r="F243" t="n">
+        <v>2072.7695</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-841227.2173480453</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>63.37</v>
+      </c>
+      <c r="C244" t="n">
+        <v>63.37</v>
+      </c>
+      <c r="D244" t="n">
+        <v>63.37</v>
+      </c>
+      <c r="E244" t="n">
+        <v>63.37</v>
+      </c>
+      <c r="F244" t="n">
+        <v>2805.3922</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-841227.2173480453</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>63.37</v>
+      </c>
+      <c r="C245" t="n">
+        <v>63.37</v>
+      </c>
+      <c r="D245" t="n">
+        <v>63.37</v>
+      </c>
+      <c r="E245" t="n">
+        <v>63.37</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1779.8915</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-841227.2173480453</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>63.37</v>
+      </c>
+      <c r="C246" t="n">
+        <v>63.37</v>
+      </c>
+      <c r="D246" t="n">
+        <v>63.37</v>
+      </c>
+      <c r="E246" t="n">
+        <v>63.37</v>
+      </c>
+      <c r="F246" t="n">
+        <v>964.8467000000001</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-841227.2173480453</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="C247" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="D247" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="E247" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="F247" t="n">
+        <v>8</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-841219.2173480453</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="C248" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="D248" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="E248" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="F248" t="n">
+        <v>433.8068</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-841219.2173480453</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="C249" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="D249" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="E249" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="F249" t="n">
+        <v>10.0957</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-841219.2173480453</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="C250" t="n">
+        <v>63.59</v>
+      </c>
+      <c r="D250" t="n">
+        <v>63.59</v>
+      </c>
+      <c r="E250" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="F250" t="n">
+        <v>2628.9855</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-838590.2318480454</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>63.59</v>
+      </c>
+      <c r="C251" t="n">
+        <v>63.59</v>
+      </c>
+      <c r="D251" t="n">
+        <v>63.59</v>
+      </c>
+      <c r="E251" t="n">
+        <v>63.59</v>
+      </c>
+      <c r="F251" t="n">
+        <v>676.4081</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-838590.2318480454</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="C252" t="n">
+        <v>63.97</v>
+      </c>
+      <c r="D252" t="n">
+        <v>63.97</v>
+      </c>
+      <c r="E252" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="F252" t="n">
+        <v>8605.4</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-829984.8318480453</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>62.61</v>
+      </c>
+      <c r="C253" t="n">
+        <v>63.97</v>
+      </c>
+      <c r="D253" t="n">
+        <v>63.97</v>
+      </c>
+      <c r="E253" t="n">
+        <v>62.61</v>
+      </c>
+      <c r="F253" t="n">
+        <v>27632.4998</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-829984.8318480453</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="C254" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="D254" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="E254" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="F254" t="n">
+        <v>11806.2807</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-818178.5511480453</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="C255" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="D255" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="E255" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="F255" t="n">
+        <v>3602.1952</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-818178.5511480453</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="C256" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="D256" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="E256" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="F256" t="n">
+        <v>372.9566</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-818178.5511480453</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="C257" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="D257" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="E257" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="F257" t="n">
+        <v>372.9567</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-818178.5511480453</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="C258" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="D258" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="E258" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="F258" t="n">
+        <v>8771.887699999999</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-818178.5511480453</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>63.97</v>
+      </c>
+      <c r="C259" t="n">
+        <v>63.97</v>
+      </c>
+      <c r="D259" t="n">
+        <v>63.97</v>
+      </c>
+      <c r="E259" t="n">
+        <v>63.97</v>
+      </c>
+      <c r="F259" t="n">
+        <v>1285.7455</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-819464.2966480453</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>63.99</v>
+      </c>
+      <c r="C260" t="n">
+        <v>63.99</v>
+      </c>
+      <c r="D260" t="n">
+        <v>63.99</v>
+      </c>
+      <c r="E260" t="n">
+        <v>63.99</v>
+      </c>
+      <c r="F260" t="n">
+        <v>1369.4867</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-818094.8099480453</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>63.97</v>
+      </c>
+      <c r="C261" t="n">
+        <v>63.96</v>
+      </c>
+      <c r="D261" t="n">
+        <v>63.97</v>
+      </c>
+      <c r="E261" t="n">
+        <v>63.96</v>
+      </c>
+      <c r="F261" t="n">
+        <v>803.4663</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-818898.2762480453</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>64</v>
+      </c>
+      <c r="C262" t="n">
+        <v>64</v>
+      </c>
+      <c r="D262" t="n">
+        <v>64</v>
+      </c>
+      <c r="E262" t="n">
+        <v>64</v>
+      </c>
+      <c r="F262" t="n">
+        <v>310.7568</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-818587.5194480453</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>64.09</v>
+      </c>
+      <c r="C263" t="n">
+        <v>64.09</v>
+      </c>
+      <c r="D263" t="n">
+        <v>64.09</v>
+      </c>
+      <c r="E263" t="n">
+        <v>64.09</v>
+      </c>
+      <c r="F263" t="n">
+        <v>667.3478</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-817920.1716480453</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>64.09</v>
+      </c>
+      <c r="C264" t="n">
+        <v>64.09</v>
+      </c>
+      <c r="D264" t="n">
+        <v>64.09</v>
+      </c>
+      <c r="E264" t="n">
+        <v>64.09</v>
+      </c>
+      <c r="F264" t="n">
+        <v>7162.8511</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-817920.1716480453</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="C265" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="D265" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="E265" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="F265" t="n">
+        <v>1152.246</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-816767.9256480453</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="C266" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="D266" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="E266" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="F266" t="n">
+        <v>10</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-816757.9256480453</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="C267" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="D267" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="E267" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="F267" t="n">
+        <v>761</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-817518.9256480453</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="C268" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="D268" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="E268" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="F268" t="n">
+        <v>80</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-817518.9256480453</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="C269" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="D269" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="E269" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="F269" t="n">
+        <v>8</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-817510.9256480453</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="C270" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="D270" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="E270" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="F270" t="n">
+        <v>1841</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-819351.9256480453</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="C271" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="D271" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="E271" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="F271" t="n">
+        <v>8</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-819343.9256480453</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>63.11</v>
+      </c>
+      <c r="C272" t="n">
+        <v>63.11</v>
+      </c>
+      <c r="D272" t="n">
+        <v>63.11</v>
+      </c>
+      <c r="E272" t="n">
+        <v>63.11</v>
+      </c>
+      <c r="F272" t="n">
+        <v>2174</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-821517.9256480453</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="C273" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="D273" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="E273" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="F273" t="n">
+        <v>10</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-821507.9256480453</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>63.12</v>
+      </c>
+      <c r="C274" t="n">
+        <v>63.12</v>
+      </c>
+      <c r="D274" t="n">
+        <v>63.12</v>
+      </c>
+      <c r="E274" t="n">
+        <v>63.12</v>
+      </c>
+      <c r="F274" t="n">
+        <v>85.8342</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-821593.7598480453</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="C275" t="n">
+        <v>63</v>
+      </c>
+      <c r="D275" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="E275" t="n">
+        <v>63</v>
+      </c>
+      <c r="F275" t="n">
+        <v>14843.5009</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-836437.2607480453</v>
+      </c>
+      <c r="H275" t="n">
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>63.12</v>
+      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>61.51</v>
-      </c>
-      <c r="C212" t="n">
-        <v>61.51</v>
-      </c>
-      <c r="D212" t="n">
-        <v>61.51</v>
-      </c>
-      <c r="E212" t="n">
-        <v>61.51</v>
-      </c>
-      <c r="F212" t="n">
-        <v>11.9322</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-788313.7915480452</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="C213" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="D213" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="E213" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="F213" t="n">
-        <v>304</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-788009.7915480452</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>62</v>
-      </c>
-      <c r="C214" t="n">
-        <v>61.5</v>
-      </c>
-      <c r="D214" t="n">
-        <v>62</v>
-      </c>
-      <c r="E214" t="n">
-        <v>61.5</v>
-      </c>
-      <c r="F214" t="n">
-        <v>23950.0339</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-811959.8254480453</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>61.51</v>
-      </c>
-      <c r="C215" t="n">
-        <v>61.51</v>
-      </c>
-      <c r="D215" t="n">
-        <v>61.51</v>
-      </c>
-      <c r="E215" t="n">
-        <v>61.51</v>
-      </c>
-      <c r="F215" t="n">
-        <v>1368</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-810591.8254480453</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>62</v>
-      </c>
-      <c r="C216" t="n">
-        <v>61.5</v>
-      </c>
-      <c r="D216" t="n">
-        <v>62</v>
-      </c>
-      <c r="E216" t="n">
-        <v>61.5</v>
-      </c>
-      <c r="F216" t="n">
-        <v>23431.5816</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-834023.4070480453</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>61.5</v>
-      </c>
-      <c r="C217" t="n">
-        <v>61.5</v>
-      </c>
-      <c r="D217" t="n">
-        <v>61.5</v>
-      </c>
-      <c r="E217" t="n">
-        <v>61.5</v>
-      </c>
-      <c r="F217" t="n">
-        <v>8574.400299999999</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-834023.4070480453</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>61.5</v>
-      </c>
-      <c r="C218" t="n">
-        <v>62.79</v>
-      </c>
-      <c r="D218" t="n">
-        <v>62.79</v>
-      </c>
-      <c r="E218" t="n">
-        <v>61.5</v>
-      </c>
-      <c r="F218" t="n">
-        <v>33</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-833990.4070480453</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>61.5</v>
-      </c>
-      <c r="J218" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="C219" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="D219" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="E219" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="F219" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-834990.4070480453</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>62.79</v>
-      </c>
-      <c r="J219" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>62.79</v>
-      </c>
-      <c r="C220" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="D220" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="E220" t="n">
-        <v>62.79</v>
-      </c>
-      <c r="F220" t="n">
-        <v>12000</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-822990.4070480453</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>62.51</v>
-      </c>
-      <c r="J220" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>62.4</v>
-      </c>
-      <c r="C221" t="n">
-        <v>62</v>
-      </c>
-      <c r="D221" t="n">
-        <v>62.4</v>
-      </c>
-      <c r="E221" t="n">
-        <v>62</v>
-      </c>
-      <c r="F221" t="n">
-        <v>29322.1215</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-852312.5285480453</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="J221" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="C222" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="D222" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="E222" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="F222" t="n">
-        <v>591</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-851721.5285480453</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>62</v>
-      </c>
-      <c r="J222" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="C223" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="D223" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="E223" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="F223" t="n">
-        <v>372.7809</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-851721.5285480453</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="J223" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="C224" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="D224" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="E224" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="F224" t="n">
-        <v>1263.8821</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-851721.5285480453</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="J224" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="C225" t="n">
-        <v>62.75</v>
-      </c>
-      <c r="D225" t="n">
-        <v>62.75</v>
-      </c>
-      <c r="E225" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="F225" t="n">
-        <v>7537.5486</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-844183.9799480453</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="J225" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>62.75</v>
-      </c>
-      <c r="C226" t="n">
-        <v>62.75</v>
-      </c>
-      <c r="D226" t="n">
-        <v>62.75</v>
-      </c>
-      <c r="E226" t="n">
-        <v>62.75</v>
-      </c>
-      <c r="F226" t="n">
-        <v>1302.837</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-844183.9799480453</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>62.75</v>
-      </c>
-      <c r="J226" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="C227" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="D227" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="E227" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="F227" t="n">
-        <v>1294</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-845477.9799480453</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>62.75</v>
-      </c>
-      <c r="J227" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>62.07</v>
-      </c>
-      <c r="C228" t="n">
-        <v>62.07</v>
-      </c>
-      <c r="D228" t="n">
-        <v>62.07</v>
-      </c>
-      <c r="E228" t="n">
-        <v>62.07</v>
-      </c>
-      <c r="F228" t="n">
-        <v>917</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-844560.9799480453</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="J228" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>62.75</v>
-      </c>
-      <c r="C229" t="n">
-        <v>62.75</v>
-      </c>
-      <c r="D229" t="n">
-        <v>62.75</v>
-      </c>
-      <c r="E229" t="n">
-        <v>62.75</v>
-      </c>
-      <c r="F229" t="n">
-        <v>11664.4543</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-832896.5256480454</v>
-      </c>
-      <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>62.07</v>
-      </c>
-      <c r="J229" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="C230" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="D230" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="E230" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="F230" t="n">
-        <v>8</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-832888.5256480454</v>
-      </c>
-      <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>62.75</v>
-      </c>
-      <c r="J230" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>62.75</v>
-      </c>
-      <c r="C231" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="D231" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="E231" t="n">
-        <v>62.75</v>
-      </c>
-      <c r="F231" t="n">
-        <v>1972.6847</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-832888.5256480454</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="J231" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>63</v>
-      </c>
-      <c r="C232" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="D232" t="n">
-        <v>63</v>
-      </c>
-      <c r="E232" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="F232" t="n">
-        <v>1964.5075</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-832888.5256480454</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="J232" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>63</v>
-      </c>
-      <c r="C233" t="n">
-        <v>63</v>
-      </c>
-      <c r="D233" t="n">
-        <v>63</v>
-      </c>
-      <c r="E233" t="n">
-        <v>63</v>
-      </c>
-      <c r="F233" t="n">
-        <v>551.4924999999999</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-832337.0331480453</v>
-      </c>
-      <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="J233" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>63.19</v>
-      </c>
-      <c r="C234" t="n">
-        <v>63.2</v>
-      </c>
-      <c r="D234" t="n">
-        <v>63.2</v>
-      </c>
-      <c r="E234" t="n">
-        <v>63.19</v>
-      </c>
-      <c r="F234" t="n">
-        <v>400</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-831937.0331480453</v>
-      </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>63</v>
-      </c>
-      <c r="J234" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>63.99</v>
-      </c>
-      <c r="C235" t="n">
-        <v>63.2</v>
-      </c>
-      <c r="D235" t="n">
-        <v>63.99</v>
-      </c>
-      <c r="E235" t="n">
-        <v>63.2</v>
-      </c>
-      <c r="F235" t="n">
-        <v>1188.3384</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-831937.0331480453</v>
-      </c>
-      <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>63.2</v>
-      </c>
-      <c r="J235" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>63</v>
-      </c>
-      <c r="C236" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="D236" t="n">
-        <v>63</v>
-      </c>
-      <c r="E236" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="F236" t="n">
-        <v>5855.6847</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-837792.7178480453</v>
-      </c>
-      <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>63.2</v>
-      </c>
-      <c r="J236" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>62.05</v>
-      </c>
-      <c r="C237" t="n">
-        <v>62.05</v>
-      </c>
-      <c r="D237" t="n">
-        <v>62.05</v>
-      </c>
-      <c r="E237" t="n">
-        <v>62.05</v>
-      </c>
-      <c r="F237" t="n">
-        <v>100</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-837692.7178480453</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="C238" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="D238" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="E238" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="F238" t="n">
-        <v>8</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-837684.7178480453</v>
-      </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>62.05</v>
-      </c>
-      <c r="J238" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="C239" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="D239" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="E239" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="F239" t="n">
-        <v>291.73</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-837976.4478480453</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="C240" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="D240" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="E240" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="F240" t="n">
-        <v>1211</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-837976.4478480453</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="C241" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="D241" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="E241" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="F241" t="n">
-        <v>1186</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-839162.4478480453</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="C242" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="D242" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="E242" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="F242" t="n">
-        <v>8</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-839154.4478480453</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="J242" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>63.37</v>
-      </c>
-      <c r="C243" t="n">
-        <v>63.37</v>
-      </c>
-      <c r="D243" t="n">
-        <v>63.37</v>
-      </c>
-      <c r="E243" t="n">
-        <v>63.37</v>
-      </c>
-      <c r="F243" t="n">
-        <v>2072.7695</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-841227.2173480453</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>63.37</v>
-      </c>
-      <c r="C244" t="n">
-        <v>63.37</v>
-      </c>
-      <c r="D244" t="n">
-        <v>63.37</v>
-      </c>
-      <c r="E244" t="n">
-        <v>63.37</v>
-      </c>
-      <c r="F244" t="n">
-        <v>2805.3922</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-841227.2173480453</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>63.37</v>
-      </c>
-      <c r="C245" t="n">
-        <v>63.37</v>
-      </c>
-      <c r="D245" t="n">
-        <v>63.37</v>
-      </c>
-      <c r="E245" t="n">
-        <v>63.37</v>
-      </c>
-      <c r="F245" t="n">
-        <v>1779.8915</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-841227.2173480453</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>63.37</v>
-      </c>
-      <c r="C246" t="n">
-        <v>63.37</v>
-      </c>
-      <c r="D246" t="n">
-        <v>63.37</v>
-      </c>
-      <c r="E246" t="n">
-        <v>63.37</v>
-      </c>
-      <c r="F246" t="n">
-        <v>964.8467000000001</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-841227.2173480453</v>
-      </c>
-      <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>63.37</v>
-      </c>
-      <c r="J246" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="C247" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="D247" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="E247" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="F247" t="n">
-        <v>8</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-841219.2173480453</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="C248" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="D248" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="E248" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="F248" t="n">
-        <v>433.8068</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-841219.2173480453</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="C249" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="D249" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="E249" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="F249" t="n">
-        <v>10.0957</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-841219.2173480453</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="C250" t="n">
-        <v>63.59</v>
-      </c>
-      <c r="D250" t="n">
-        <v>63.59</v>
-      </c>
-      <c r="E250" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="F250" t="n">
-        <v>2628.9855</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-838590.2318480454</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>63.59</v>
-      </c>
-      <c r="C251" t="n">
-        <v>63.59</v>
-      </c>
-      <c r="D251" t="n">
-        <v>63.59</v>
-      </c>
-      <c r="E251" t="n">
-        <v>63.59</v>
-      </c>
-      <c r="F251" t="n">
-        <v>676.4081</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-838590.2318480454</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>63.9</v>
-      </c>
-      <c r="C252" t="n">
-        <v>63.97</v>
-      </c>
-      <c r="D252" t="n">
-        <v>63.97</v>
-      </c>
-      <c r="E252" t="n">
-        <v>63.9</v>
-      </c>
-      <c r="F252" t="n">
-        <v>8605.4</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-829984.8318480453</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>62.61</v>
-      </c>
-      <c r="C253" t="n">
-        <v>63.97</v>
-      </c>
-      <c r="D253" t="n">
-        <v>63.97</v>
-      </c>
-      <c r="E253" t="n">
-        <v>62.61</v>
-      </c>
-      <c r="F253" t="n">
-        <v>27632.4998</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-829984.8318480453</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="C254" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="D254" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="E254" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="F254" t="n">
-        <v>11806.2807</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-818178.5511480453</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="C255" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="D255" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="E255" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="F255" t="n">
-        <v>3602.1952</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-818178.5511480453</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="C256" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="D256" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="E256" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="F256" t="n">
-        <v>372.9566</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-818178.5511480453</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="C257" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="D257" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="E257" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="F257" t="n">
-        <v>372.9567</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-818178.5511480453</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="C258" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="D258" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="E258" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="F258" t="n">
-        <v>8771.887699999999</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-818178.5511480453</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>63.97</v>
-      </c>
-      <c r="C259" t="n">
-        <v>63.97</v>
-      </c>
-      <c r="D259" t="n">
-        <v>63.97</v>
-      </c>
-      <c r="E259" t="n">
-        <v>63.97</v>
-      </c>
-      <c r="F259" t="n">
-        <v>1285.7455</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-819464.2966480453</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>63.99</v>
-      </c>
-      <c r="C260" t="n">
-        <v>63.99</v>
-      </c>
-      <c r="D260" t="n">
-        <v>63.99</v>
-      </c>
-      <c r="E260" t="n">
-        <v>63.99</v>
-      </c>
-      <c r="F260" t="n">
-        <v>1369.4867</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-818094.8099480453</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>63.97</v>
-      </c>
-      <c r="C261" t="n">
-        <v>63.96</v>
-      </c>
-      <c r="D261" t="n">
-        <v>63.97</v>
-      </c>
-      <c r="E261" t="n">
-        <v>63.96</v>
-      </c>
-      <c r="F261" t="n">
-        <v>803.4663</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-818898.2762480453</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>64</v>
-      </c>
-      <c r="C262" t="n">
-        <v>64</v>
-      </c>
-      <c r="D262" t="n">
-        <v>64</v>
-      </c>
-      <c r="E262" t="n">
-        <v>64</v>
-      </c>
-      <c r="F262" t="n">
-        <v>310.7568</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-818587.5194480453</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>64.09</v>
-      </c>
-      <c r="C263" t="n">
-        <v>64.09</v>
-      </c>
-      <c r="D263" t="n">
-        <v>64.09</v>
-      </c>
-      <c r="E263" t="n">
-        <v>64.09</v>
-      </c>
-      <c r="F263" t="n">
-        <v>667.3478</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-817920.1716480453</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>64.09</v>
-      </c>
-      <c r="C264" t="n">
-        <v>64.09</v>
-      </c>
-      <c r="D264" t="n">
-        <v>64.09</v>
-      </c>
-      <c r="E264" t="n">
-        <v>64.09</v>
-      </c>
-      <c r="F264" t="n">
-        <v>7162.8511</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-817920.1716480453</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="C265" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="D265" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="E265" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="F265" t="n">
-        <v>1152.246</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-816767.9256480453</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="C266" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="D266" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="E266" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="F266" t="n">
-        <v>10</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-816757.9256480453</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="C267" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="D267" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="E267" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="F267" t="n">
-        <v>761</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-817518.9256480453</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="C268" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="D268" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="E268" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="F268" t="n">
-        <v>80</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-817518.9256480453</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="C269" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="D269" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="E269" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="F269" t="n">
-        <v>8</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-817510.9256480453</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="C270" t="n">
-        <v>63.1</v>
-      </c>
-      <c r="D270" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="E270" t="n">
-        <v>63.1</v>
-      </c>
-      <c r="F270" t="n">
-        <v>1841</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-819351.9256480453</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="C271" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="D271" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="E271" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="F271" t="n">
-        <v>8</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-819343.9256480453</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>63.11</v>
-      </c>
-      <c r="C272" t="n">
-        <v>63.11</v>
-      </c>
-      <c r="D272" t="n">
-        <v>63.11</v>
-      </c>
-      <c r="E272" t="n">
-        <v>63.11</v>
-      </c>
-      <c r="F272" t="n">
-        <v>2174</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-821517.9256480453</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="C273" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="D273" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="E273" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="F273" t="n">
-        <v>10</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-821507.9256480453</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>63.12</v>
-      </c>
-      <c r="C274" t="n">
-        <v>63.12</v>
-      </c>
-      <c r="D274" t="n">
-        <v>63.12</v>
-      </c>
-      <c r="E274" t="n">
-        <v>63.12</v>
-      </c>
-      <c r="F274" t="n">
-        <v>85.8342</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-821593.7598480453</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>63.1</v>
-      </c>
-      <c r="C275" t="n">
-        <v>63</v>
-      </c>
-      <c r="D275" t="n">
-        <v>63.1</v>
-      </c>
-      <c r="E275" t="n">
-        <v>63</v>
-      </c>
-      <c r="F275" t="n">
-        <v>14843.5009</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-836437.2607480453</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9931,12 +9499,12 @@
         <v>-839840.5625480453</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>62.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>63</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9970,12 +9538,12 @@
         <v>-833859.1701480453</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>62.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10009,12 +9577,12 @@
         <v>-838863.8577480452</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>62.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>64.05</v>
+      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10048,12 +9616,12 @@
         <v>-838855.8577480452</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>62.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10090,9 +9658,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>62.02</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10126,12 +9692,12 @@
         <v>-836959.6345480452</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>62.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>62.61</v>
+      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10170,9 +9736,7 @@
       <c r="I282" t="n">
         <v>62.9</v>
       </c>
-      <c r="J282" t="n">
-        <v>62.02</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10206,12 +9770,12 @@
         <v>-858906.9802480452</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>62.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>62.86</v>
+      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10245,12 +9809,12 @@
         <v>-860162.9802480452</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>62.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>63.77</v>
+      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10284,12 +9848,12 @@
         <v>-858970.0058480452</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>62.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>63</v>
+      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10323,12 +9887,12 @@
         <v>-858970.0058480452</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>62.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10362,12 +9926,12 @@
         <v>-858970.0058480452</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>62.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10401,12 +9965,12 @@
         <v>-851436.9398480452</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>62.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10440,12 +10004,12 @@
         <v>-851436.9398480452</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>62.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>63.69</v>
+      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10479,12 +10043,12 @@
         <v>-851522.7740480453</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>62.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>63.69</v>
+      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10518,12 +10082,12 @@
         <v>-852866.7740480453</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>62.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10557,12 +10121,12 @@
         <v>-849917.2411480453</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>62.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10596,12 +10160,12 @@
         <v>-849430.5905480452</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>62.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10635,12 +10199,12 @@
         <v>-849530.5905480452</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>62.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10674,12 +10238,12 @@
         <v>-849522.5905480452</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>62.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>62.62</v>
+      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10713,12 +10277,12 @@
         <v>-838786.2543480452</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>62.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>63.79</v>
+      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10755,9 +10319,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>62.02</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10794,9 +10356,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>62.02</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10833,9 +10393,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>62.02</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10869,12 +10427,12 @@
         <v>-837040.2284480452</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>62.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>62.81</v>
+      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10908,12 +10466,12 @@
         <v>-837040.2284480452</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>62.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>62.82</v>
+      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10947,12 +10505,12 @@
         <v>-835223.5345480453</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>62.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>62.82</v>
+      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10986,12 +10544,12 @@
         <v>-825400.1894480452</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>62.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>63.89</v>
+      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11028,9 +10586,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>62.02</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11067,9 +10623,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>62.02</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11106,9 +10660,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>62.02</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11145,9 +10697,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>62.02</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11184,9 +10734,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>62.02</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11223,9 +10771,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>62.02</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11259,12 +10805,12 @@
         <v>-831999.7244175071</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>62.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>63</v>
+      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11298,12 +10844,12 @@
         <v>-851546.6442175071</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>62.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>62.91</v>
+      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11340,9 +10886,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>62.02</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11376,12 +10920,12 @@
         <v>-887140.5025175071</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>62.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>62.62</v>
+      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11415,12 +10959,12 @@
         <v>-896827.859317507</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>62.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>62.62</v>
+      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11454,12 +10998,12 @@
         <v>-896827.859317507</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>62.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>62.16</v>
+      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11493,12 +11037,12 @@
         <v>-896827.859317507</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>62.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>62.16</v>
+      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11532,12 +11076,12 @@
         <v>-896827.859317507</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>62.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>62.16</v>
+      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11571,12 +11115,12 @@
         <v>-884960.113717507</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>62.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>62.16</v>
+      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11610,12 +11154,12 @@
         <v>-885046.865517507</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>62.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11627,6 +11171,6 @@
       <c r="M319" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest FX.xlsx
+++ b/BackTest/2020-01-11 BackTest FX.xlsx
@@ -2332,7 +2332,7 @@
         <v>-333246.8660140231</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-332235.4133140231</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-332076.0609140231</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-333587.2269140231</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-336850.3159140231</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-333611.3611140231</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-333611.3611140231</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-333611.3611140231</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-333622.3611140231</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-287742.5493140231</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-302141.1740140231</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-297168.2349140231</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-314694.0985140231</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-302730.6443140231</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-313350.8401140231</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-335999.3986140231</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-327715.6647445707</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -8041,11 +8041,17 @@
         <v>-832888.5256480454</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>62.8</v>
+      </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +8084,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8111,7 +8121,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8140,11 +8154,17 @@
         <v>-831937.0331480453</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>63.2</v>
+      </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8177,7 +8197,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8210,7 +8234,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8239,11 +8267,17 @@
         <v>-837684.7178480453</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>62.05</v>
+      </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8272,11 +8306,17 @@
         <v>-837976.4478480453</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>63.98</v>
+      </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8305,11 +8345,17 @@
         <v>-837976.4478480453</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>62.2</v>
+      </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8338,11 +8384,17 @@
         <v>-839162.4478480453</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>62.2</v>
+      </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8371,11 +8423,17 @@
         <v>-839154.4478480453</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>61.9</v>
+      </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8404,11 +8462,17 @@
         <v>-841227.2173480453</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>63.5</v>
+      </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8437,11 +8501,17 @@
         <v>-841227.2173480453</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>63.37</v>
+      </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8470,11 +8540,17 @@
         <v>-841227.2173480453</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>63.37</v>
+      </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8503,11 +8579,17 @@
         <v>-841227.2173480453</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>63.37</v>
+      </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8536,11 +8618,17 @@
         <v>-841219.2173480453</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>63.37</v>
+      </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8569,11 +8657,17 @@
         <v>-841219.2173480453</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>63.5</v>
+      </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8602,11 +8696,17 @@
         <v>-841219.2173480453</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>63.5</v>
+      </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8635,11 +8735,17 @@
         <v>-838590.2318480454</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>63.5</v>
+      </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8668,11 +8774,17 @@
         <v>-838590.2318480454</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>63.59</v>
+      </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8701,11 +8813,17 @@
         <v>-829984.8318480453</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>63.59</v>
+      </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8734,11 +8852,17 @@
         <v>-829984.8318480453</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>63.97</v>
+      </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8767,11 +8891,17 @@
         <v>-818178.5511480453</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>63.97</v>
+      </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8800,11 +8930,17 @@
         <v>-818178.5511480453</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>63.98</v>
+      </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8833,11 +8969,17 @@
         <v>-818178.5511480453</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>63.98</v>
+      </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8866,11 +9008,17 @@
         <v>-818178.5511480453</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>63.98</v>
+      </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8899,11 +9047,17 @@
         <v>-818178.5511480453</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>63.98</v>
+      </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8932,11 +9086,17 @@
         <v>-819464.2966480453</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>63.98</v>
+      </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8965,11 +9125,17 @@
         <v>-818094.8099480453</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>63.97</v>
+      </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9002,7 +9168,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9031,11 +9201,17 @@
         <v>-818587.5194480453</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>63.96</v>
+      </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9064,11 +9240,17 @@
         <v>-817920.1716480453</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>64</v>
+      </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9097,11 +9279,17 @@
         <v>-817920.1716480453</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>64.09</v>
+      </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9130,11 +9318,17 @@
         <v>-816767.9256480453</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>64.09</v>
+      </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9163,11 +9357,17 @@
         <v>-816757.9256480453</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>64.09999999999999</v>
+      </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9196,11 +9396,17 @@
         <v>-817518.9256480453</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>64.3</v>
+      </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9229,11 +9435,17 @@
         <v>-817518.9256480453</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>64.09999999999999</v>
+      </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9262,11 +9474,17 @@
         <v>-817510.9256480453</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>64.09999999999999</v>
+      </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9295,11 +9513,17 @@
         <v>-819351.9256480453</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>64.3</v>
+      </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9328,11 +9552,17 @@
         <v>-819343.9256480453</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>63.1</v>
+      </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9361,11 +9591,17 @@
         <v>-821517.9256480453</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>64.3</v>
+      </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9394,11 +9630,17 @@
         <v>-821507.9256480453</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>63.11</v>
+      </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9427,11 +9669,17 @@
         <v>-821593.7598480453</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>64.3</v>
+      </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9468,7 +9716,7 @@
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L275" t="n">
@@ -9655,9 +9903,11 @@
         <v>-840588.8577480452</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>63.97</v>
+      </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
@@ -10316,9 +10566,11 @@
         <v>-838786.2543480452</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>63.92</v>
+      </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
@@ -10353,9 +10605,11 @@
         <v>-838786.2543480452</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>63.92</v>
+      </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
@@ -10390,9 +10644,11 @@
         <v>-838991.2284480452</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>63.92</v>
+      </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
@@ -10583,9 +10839,11 @@
         <v>-825400.1894480452</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>63.92</v>
+      </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
@@ -10620,9 +10878,11 @@
         <v>-825400.1894480452</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>63.92</v>
+      </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
@@ -10657,9 +10917,11 @@
         <v>-829495.9800175071</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>63.92</v>
+      </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
@@ -10694,9 +10956,11 @@
         <v>-829235.6398175071</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>63</v>
+      </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
@@ -10731,9 +10995,11 @@
         <v>-829235.6398175071</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>63.8</v>
+      </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
@@ -10768,9 +11034,11 @@
         <v>-830911.6398175071</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>63.8</v>
+      </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
@@ -10883,9 +11151,11 @@
         <v>-887140.5025175071</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>62.9</v>
+      </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>

--- a/BackTest/2020-01-11 BackTest FX.xlsx
+++ b/BackTest/2020-01-11 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M319"/>
+  <dimension ref="A1:L319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>6035.5372</v>
       </c>
       <c r="G2" t="n">
-        <v>-328794.1373928395</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>15010.4299</v>
       </c>
       <c r="G3" t="n">
-        <v>-343804.5672928395</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>123</v>
       </c>
       <c r="G4" t="n">
-        <v>-343681.5672928395</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>34251.5377</v>
       </c>
       <c r="G5" t="n">
-        <v>-377933.1049928395</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>-377925.1049928395</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>8</v>
       </c>
       <c r="G7" t="n">
-        <v>-377933.1049928395</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>1477.7903</v>
       </c>
       <c r="G8" t="n">
-        <v>-377933.1049928395</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>8</v>
       </c>
       <c r="G9" t="n">
-        <v>-377925.1049928395</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>22.2097</v>
       </c>
       <c r="G10" t="n">
-        <v>-377947.3146928395</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>172</v>
       </c>
       <c r="G11" t="n">
-        <v>-378119.3146928395</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>10737.4334</v>
       </c>
       <c r="G12" t="n">
-        <v>-367381.8812928395</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>807.2864</v>
       </c>
       <c r="G13" t="n">
-        <v>-368189.1676928395</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>994</v>
       </c>
       <c r="G14" t="n">
-        <v>-368189.1676928395</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>12</v>
       </c>
       <c r="G15" t="n">
-        <v>-368177.1676928395</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>344</v>
       </c>
       <c r="G16" t="n">
-        <v>-368521.1676928395</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>144</v>
       </c>
       <c r="G17" t="n">
-        <v>-368521.1676928395</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>6673.5</v>
       </c>
       <c r="G18" t="n">
-        <v>-375194.6676928395</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>8</v>
       </c>
       <c r="G19" t="n">
-        <v>-375186.6676928395</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>18.8716</v>
       </c>
       <c r="G20" t="n">
-        <v>-375167.7960928395</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>1733.7929</v>
       </c>
       <c r="G21" t="n">
-        <v>-373434.0031928395</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>237.0493</v>
       </c>
       <c r="G22" t="n">
-        <v>-373671.0524928395</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>9.900700000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>-373661.1517928395</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>305.9552</v>
       </c>
       <c r="G24" t="n">
-        <v>-373967.1069928395</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>8</v>
       </c>
       <c r="G25" t="n">
-        <v>-373959.1069928395</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>159.2976</v>
       </c>
       <c r="G26" t="n">
-        <v>-373799.8093928396</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>538.4947</v>
       </c>
       <c r="G27" t="n">
-        <v>-374338.3040928395</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>10.0098</v>
       </c>
       <c r="G28" t="n">
-        <v>-374328.2942928395</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>21.2121</v>
       </c>
       <c r="G29" t="n">
-        <v>-374328.2942928395</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>111.1839</v>
       </c>
       <c r="G30" t="n">
-        <v>-374439.4781928395</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>15.4</v>
       </c>
       <c r="G31" t="n">
-        <v>-374424.0781928395</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>8016.6737</v>
       </c>
       <c r="G32" t="n">
-        <v>-366407.4044928395</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>25472.169</v>
       </c>
       <c r="G33" t="n">
-        <v>-340935.2354928395</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>7631.21</v>
       </c>
       <c r="G34" t="n">
-        <v>-348566.4454928396</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>95.3426</v>
       </c>
       <c r="G35" t="n">
-        <v>-348566.4454928396</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>269</v>
       </c>
       <c r="G36" t="n">
-        <v>-348835.4454928396</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>33488.8427</v>
       </c>
       <c r="G37" t="n">
-        <v>-382324.2881928395</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>1974.9774</v>
       </c>
       <c r="G38" t="n">
-        <v>-382324.2881928395</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>1487.251</v>
       </c>
       <c r="G39" t="n">
-        <v>-380837.0371928395</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>22</v>
       </c>
       <c r="G40" t="n">
-        <v>-380859.0371928395</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>11.2122</v>
       </c>
       <c r="G41" t="n">
-        <v>-380847.8249928395</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>7776.2966</v>
       </c>
       <c r="G42" t="n">
-        <v>-373071.5283928395</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>3767.9073</v>
       </c>
       <c r="G43" t="n">
-        <v>-369303.6210928395</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>6506.4348</v>
       </c>
       <c r="G44" t="n">
-        <v>-375810.0558928395</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>13.1878</v>
       </c>
       <c r="G45" t="n">
-        <v>-375810.0558928395</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>1513.8841</v>
       </c>
       <c r="G46" t="n">
-        <v>-377323.9399928395</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>1648.4532</v>
       </c>
       <c r="G47" t="n">
-        <v>-378972.3931928395</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>40</v>
       </c>
       <c r="G48" t="n">
-        <v>-378932.3931928395</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>116.2988</v>
       </c>
       <c r="G49" t="n">
-        <v>-379048.6919928395</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>9864.594698831563</v>
       </c>
       <c r="G50" t="n">
-        <v>-369184.097294008</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>151.759648952959</v>
       </c>
       <c r="G51" t="n">
-        <v>-369184.097294008</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>1046.423672230653</v>
       </c>
       <c r="G52" t="n">
-        <v>-369184.097294008</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>3417.9173</v>
       </c>
       <c r="G53" t="n">
-        <v>-372602.0145940079</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>1201.332</v>
       </c>
       <c r="G54" t="n">
-        <v>-373803.3465940079</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>37214.63847998482</v>
       </c>
       <c r="G55" t="n">
-        <v>-336588.7081140231</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>3264.491</v>
       </c>
       <c r="G56" t="n">
-        <v>-333324.2171140231</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>16.698</v>
       </c>
       <c r="G57" t="n">
-        <v>-333324.2171140231</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>77.3511</v>
       </c>
       <c r="G58" t="n">
-        <v>-333246.8660140231</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>100.1954</v>
       </c>
       <c r="G59" t="n">
-        <v>-333246.8660140231</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>1011.4527</v>
       </c>
       <c r="G60" t="n">
-        <v>-332235.4133140231</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>159.3524</v>
       </c>
       <c r="G61" t="n">
-        <v>-332076.0609140231</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>1511.166</v>
       </c>
       <c r="G62" t="n">
-        <v>-333587.2269140231</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>3263.089</v>
       </c>
       <c r="G63" t="n">
-        <v>-336850.3159140231</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>3238.9548</v>
       </c>
       <c r="G64" t="n">
-        <v>-333611.3611140231</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>6464.7029</v>
       </c>
       <c r="G65" t="n">
-        <v>-333611.3611140231</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>3833.7164</v>
       </c>
       <c r="G66" t="n">
-        <v>-333611.3611140231</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>11</v>
       </c>
       <c r="G67" t="n">
-        <v>-333622.3611140231</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>45879.8118</v>
       </c>
       <c r="G68" t="n">
-        <v>-287742.5493140231</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>6015.1781</v>
       </c>
       <c r="G69" t="n">
-        <v>-281727.371214023</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>741.839762611276</v>
       </c>
       <c r="G70" t="n">
-        <v>-281727.371214023</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>13063.94723738872</v>
       </c>
       <c r="G71" t="n">
-        <v>-281727.371214023</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>30.1268</v>
       </c>
       <c r="G72" t="n">
-        <v>-281757.4980140231</v>
-      </c>
-      <c r="H72" t="n">
         <v>2</v>
       </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>706.0334</v>
       </c>
       <c r="G73" t="n">
-        <v>-282463.5314140231</v>
-      </c>
-      <c r="H73" t="n">
         <v>2</v>
       </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>7281.6398</v>
       </c>
       <c r="G74" t="n">
-        <v>-275181.8916140231</v>
-      </c>
-      <c r="H74" t="n">
         <v>2</v>
       </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>11015.159</v>
       </c>
       <c r="G75" t="n">
-        <v>-275181.8916140231</v>
-      </c>
-      <c r="H75" t="n">
         <v>2</v>
       </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>2058.054</v>
       </c>
       <c r="G76" t="n">
-        <v>-277239.9456140231</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>8.69</v>
       </c>
       <c r="G77" t="n">
-        <v>-277231.2556140231</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>2016.359</v>
       </c>
       <c r="G78" t="n">
-        <v>-277231.2556140231</v>
-      </c>
-      <c r="H78" t="n">
         <v>2</v>
       </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>17826.2336</v>
       </c>
       <c r="G79" t="n">
-        <v>-259405.0220140231</v>
-      </c>
-      <c r="H79" t="n">
         <v>2</v>
       </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>196.3789</v>
       </c>
       <c r="G80" t="n">
-        <v>-259601.4009140231</v>
-      </c>
-      <c r="H80" t="n">
         <v>2</v>
       </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>459.6902</v>
       </c>
       <c r="G81" t="n">
-        <v>-259601.4009140231</v>
-      </c>
-      <c r="H81" t="n">
         <v>2</v>
       </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>10.0408</v>
       </c>
       <c r="G82" t="n">
-        <v>-259611.4417140231</v>
-      </c>
-      <c r="H82" t="n">
         <v>2</v>
       </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>8.9</v>
       </c>
       <c r="G83" t="n">
-        <v>-259602.5417140231</v>
-      </c>
-      <c r="H83" t="n">
         <v>2</v>
       </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>32065.2815</v>
       </c>
       <c r="G84" t="n">
-        <v>-291667.8232140231</v>
-      </c>
-      <c r="H84" t="n">
         <v>2</v>
       </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>1254.2192</v>
       </c>
       <c r="G85" t="n">
-        <v>-290413.6040140231</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>24652.9485</v>
       </c>
       <c r="G86" t="n">
-        <v>-315066.5525140231</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>11667.3785</v>
       </c>
       <c r="G87" t="n">
-        <v>-303399.1740140231</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>8</v>
       </c>
       <c r="G88" t="n">
-        <v>-303391.1740140231</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>1250</v>
       </c>
       <c r="G89" t="n">
-        <v>-302141.1740140231</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>8.9</v>
       </c>
       <c r="G90" t="n">
-        <v>-302141.1740140231</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>10.9</v>
       </c>
       <c r="G91" t="n">
-        <v>-302141.1740140231</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>4972.9391</v>
       </c>
       <c r="G92" t="n">
-        <v>-297168.2349140231</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>1327.7997</v>
       </c>
       <c r="G93" t="n">
-        <v>-297168.2349140231</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>85.4442</v>
       </c>
       <c r="G94" t="n">
-        <v>-297253.6791140231</v>
-      </c>
-      <c r="H94" t="n">
         <v>2</v>
       </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>19</v>
       </c>
       <c r="G95" t="n">
-        <v>-297234.6791140231</v>
-      </c>
-      <c r="H95" t="n">
         <v>2</v>
       </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>17236.0194</v>
       </c>
       <c r="G96" t="n">
-        <v>-314470.6985140231</v>
-      </c>
-      <c r="H96" t="n">
         <v>2</v>
       </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>8.800000000000001</v>
       </c>
       <c r="G97" t="n">
-        <v>-314461.8985140231</v>
-      </c>
-      <c r="H97" t="n">
         <v>2</v>
       </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>240</v>
       </c>
       <c r="G98" t="n">
-        <v>-314701.8985140231</v>
-      </c>
-      <c r="H98" t="n">
         <v>2</v>
       </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>7.8</v>
       </c>
       <c r="G99" t="n">
-        <v>-314694.0985140231</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>11963.4542</v>
       </c>
       <c r="G100" t="n">
-        <v>-302730.6443140231</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>10620.1958</v>
       </c>
       <c r="G101" t="n">
-        <v>-313350.8401140231</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>22648.5585</v>
       </c>
       <c r="G102" t="n">
-        <v>-335999.3986140231</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>32595.5806</v>
       </c>
       <c r="G103" t="n">
-        <v>-335999.3986140231</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>8</v>
       </c>
       <c r="G104" t="n">
-        <v>-335991.3986140231</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>8505.731599999999</v>
       </c>
       <c r="G105" t="n">
-        <v>-344497.1302140231</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>2074.0793</v>
       </c>
       <c r="G106" t="n">
-        <v>-346571.2095140231</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>1796.6144</v>
       </c>
       <c r="G107" t="n">
-        <v>-344774.5951140231</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>896.9681</v>
       </c>
       <c r="G108" t="n">
-        <v>-343877.6270140231</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>1633.739</v>
       </c>
       <c r="G109" t="n">
-        <v>-342243.8880140231</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>500</v>
       </c>
       <c r="G110" t="n">
-        <v>-342243.8880140231</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>650.2104</v>
       </c>
       <c r="G111" t="n">
-        <v>-342243.8880140231</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>2239.7879</v>
       </c>
       <c r="G112" t="n">
-        <v>-340004.1001140231</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>6465.625369452406</v>
       </c>
       <c r="G113" t="n">
-        <v>-333538.4747445707</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>1000</v>
       </c>
       <c r="G114" t="n">
-        <v>-332538.4747445707</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>4822.81</v>
       </c>
       <c r="G115" t="n">
-        <v>-327715.6647445707</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>33269.2494</v>
       </c>
       <c r="G116" t="n">
-        <v>-360984.9141445707</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>123.2166</v>
       </c>
       <c r="G117" t="n">
-        <v>-360861.6975445707</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>61.6083</v>
       </c>
       <c r="G118" t="n">
-        <v>-360861.6975445707</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>27914.0815</v>
       </c>
       <c r="G119" t="n">
-        <v>-388775.7790445708</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>2441.954064771877</v>
       </c>
       <c r="G120" t="n">
-        <v>-388775.7790445708</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>11271.1552</v>
       </c>
       <c r="G121" t="n">
-        <v>-400046.9342445707</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>759.5291</v>
       </c>
       <c r="G122" t="n">
-        <v>-400806.4633445707</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>906.9238</v>
       </c>
       <c r="G123" t="n">
-        <v>-401713.3871445707</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>2554.8604</v>
       </c>
       <c r="G124" t="n">
-        <v>-404268.2475445707</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>216.8836</v>
       </c>
       <c r="G125" t="n">
-        <v>-404051.3639445707</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>163.2478</v>
       </c>
       <c r="G126" t="n">
-        <v>-403888.1161445707</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>8</v>
       </c>
       <c r="G127" t="n">
-        <v>-403880.1161445707</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>11384.24918000311</v>
       </c>
       <c r="G128" t="n">
-        <v>-392495.8669645676</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>1046.6281</v>
       </c>
       <c r="G129" t="n">
-        <v>-391449.2388645676</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>7074.4546</v>
       </c>
       <c r="G130" t="n">
-        <v>-398523.6934645676</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>12683.2245</v>
       </c>
       <c r="G131" t="n">
-        <v>-385840.4689645676</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>1656.2988</v>
       </c>
       <c r="G132" t="n">
-        <v>-384184.1701645676</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>6525.2239</v>
       </c>
       <c r="G133" t="n">
-        <v>-384184.1701645676</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>42019.6331</v>
       </c>
       <c r="G134" t="n">
-        <v>-426203.8032645676</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>50518.27900883234</v>
       </c>
       <c r="G135" t="n">
-        <v>-375685.5242557352</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>1534.7571</v>
       </c>
       <c r="G136" t="n">
-        <v>-377220.2813557352</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>3023.5343</v>
       </c>
       <c r="G137" t="n">
-        <v>-380243.8156557352</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>107.2544</v>
       </c>
       <c r="G138" t="n">
-        <v>-380136.5612557352</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>99.1795</v>
       </c>
       <c r="G139" t="n">
-        <v>-380136.5612557352</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>1479.9502</v>
       </c>
       <c r="G140" t="n">
-        <v>-381616.5114557352</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>9.09</v>
       </c>
       <c r="G141" t="n">
-        <v>-381625.6014557353</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>47656.5415</v>
       </c>
       <c r="G142" t="n">
-        <v>-333969.0599557353</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>1437.5077</v>
       </c>
       <c r="G143" t="n">
-        <v>-333969.0599557353</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>10.9908</v>
       </c>
       <c r="G144" t="n">
-        <v>-333980.0507557353</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>9.08</v>
       </c>
       <c r="G145" t="n">
-        <v>-333980.0507557353</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>4892.2285</v>
       </c>
       <c r="G146" t="n">
-        <v>-338872.2792557353</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>3077.567</v>
       </c>
       <c r="G147" t="n">
-        <v>-341949.8462557353</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>18.999</v>
       </c>
       <c r="G148" t="n">
-        <v>-341930.8472557353</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>200</v>
       </c>
       <c r="G149" t="n">
-        <v>-342130.8472557353</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>1933.3164</v>
       </c>
       <c r="G150" t="n">
-        <v>-342130.8472557353</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>3671.2422</v>
       </c>
       <c r="G151" t="n">
-        <v>-342130.8472557353</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>1089</v>
       </c>
       <c r="G152" t="n">
-        <v>-343219.8472557353</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>3092.4725</v>
       </c>
       <c r="G153" t="n">
-        <v>-346312.3197557353</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>8</v>
       </c>
       <c r="G154" t="n">
-        <v>-346304.3197557353</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>2267.599</v>
       </c>
       <c r="G155" t="n">
-        <v>-348571.9187557353</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>5604.5586</v>
       </c>
       <c r="G156" t="n">
-        <v>-342967.3601557353</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>1600</v>
       </c>
       <c r="G157" t="n">
-        <v>-344567.3601557353</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>841.8013999999999</v>
       </c>
       <c r="G158" t="n">
-        <v>-344567.3601557353</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>4308.1986</v>
       </c>
       <c r="G159" t="n">
-        <v>-344567.3601557353</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>3525.6996</v>
       </c>
       <c r="G160" t="n">
-        <v>-341041.6605557353</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>11894.1367</v>
       </c>
       <c r="G161" t="n">
-        <v>-352935.7972557353</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>11110.0891</v>
       </c>
       <c r="G162" t="n">
-        <v>-364045.8863557352</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>106247.7112</v>
       </c>
       <c r="G163" t="n">
-        <v>-470293.5975557353</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>5627.4101</v>
       </c>
       <c r="G164" t="n">
-        <v>-475921.0076557352</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>3199.4322</v>
       </c>
       <c r="G165" t="n">
-        <v>-475921.0076557352</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>1528.3444</v>
       </c>
       <c r="G166" t="n">
-        <v>-477449.3520557352</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>11046.778</v>
       </c>
       <c r="G167" t="n">
-        <v>-466402.5740557353</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>16649.19</v>
       </c>
       <c r="G168" t="n">
-        <v>-483051.7640557353</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>1769.4471</v>
       </c>
       <c r="G169" t="n">
-        <v>-483051.7640557353</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>201.9909076899368</v>
       </c>
       <c r="G170" t="n">
-        <v>-482849.7731480453</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>3504.1845</v>
       </c>
       <c r="G171" t="n">
-        <v>-486353.9576480453</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>547.7002</v>
       </c>
       <c r="G172" t="n">
-        <v>-486901.6578480453</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>1508.2779</v>
       </c>
       <c r="G173" t="n">
-        <v>-485393.3799480453</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>21512.0915</v>
       </c>
       <c r="G174" t="n">
-        <v>-485393.3799480453</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>8913.784299999999</v>
       </c>
       <c r="G175" t="n">
-        <v>-485393.3799480453</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>39.3952</v>
       </c>
       <c r="G176" t="n">
-        <v>-485353.9847480453</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>13696.9042</v>
       </c>
       <c r="G177" t="n">
-        <v>-499050.8889480453</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>344.8052</v>
       </c>
       <c r="G178" t="n">
-        <v>-499050.8889480453</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>8567.0147</v>
       </c>
       <c r="G179" t="n">
-        <v>-490483.8742480453</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>6858.6988</v>
       </c>
       <c r="G180" t="n">
-        <v>-497342.5730480453</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>3237.2086</v>
       </c>
       <c r="G181" t="n">
-        <v>-497342.5730480453</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>745.7356</v>
       </c>
       <c r="G182" t="n">
-        <v>-496596.8374480453</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>15161.8629</v>
       </c>
       <c r="G183" t="n">
-        <v>-511758.7003480453</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>41703.7982</v>
       </c>
       <c r="G184" t="n">
-        <v>-553462.4985480453</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>32369.9214</v>
       </c>
       <c r="G185" t="n">
-        <v>-585832.4199480453</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,15 @@
         <v>4329.4238</v>
       </c>
       <c r="G186" t="n">
-        <v>-590161.8437480453</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +5993,15 @@
         <v>19629.7752</v>
       </c>
       <c r="G187" t="n">
-        <v>-609791.6189480453</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6023,15 @@
         <v>830.8225</v>
       </c>
       <c r="G188" t="n">
-        <v>-610622.4414480453</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6053,15 @@
         <v>15649.2775</v>
       </c>
       <c r="G189" t="n">
-        <v>-594973.1639480453</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6083,15 @@
         <v>8</v>
       </c>
       <c r="G190" t="n">
-        <v>-594965.1639480453</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6113,15 @@
         <v>20</v>
       </c>
       <c r="G191" t="n">
-        <v>-594965.1639480453</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6143,15 @@
         <v>10045.5409</v>
       </c>
       <c r="G192" t="n">
-        <v>-605010.7048480454</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6173,15 @@
         <v>7751.8777</v>
       </c>
       <c r="G193" t="n">
-        <v>-605010.7048480454</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6203,15 @@
         <v>22464.8932</v>
       </c>
       <c r="G194" t="n">
-        <v>-627475.5980480454</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6233,15 @@
         <v>27067.917</v>
       </c>
       <c r="G195" t="n">
-        <v>-654543.5150480454</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6263,15 @@
         <v>4829.6336</v>
       </c>
       <c r="G196" t="n">
-        <v>-654543.5150480454</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6293,15 @@
         <v>10316.7262</v>
       </c>
       <c r="G197" t="n">
-        <v>-644226.7888480454</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6323,15 @@
         <v>17814.2318</v>
       </c>
       <c r="G198" t="n">
-        <v>-662041.0206480453</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6353,15 @@
         <v>62549.5971</v>
       </c>
       <c r="G199" t="n">
-        <v>-724590.6177480454</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6383,15 @@
         <v>2024.7172</v>
       </c>
       <c r="G200" t="n">
-        <v>-724590.6177480454</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6413,15 @@
         <v>22335.8961</v>
       </c>
       <c r="G201" t="n">
-        <v>-702254.7216480453</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6443,15 @@
         <v>10640.6326</v>
       </c>
       <c r="G202" t="n">
-        <v>-712895.3542480454</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6473,15 @@
         <v>1800</v>
       </c>
       <c r="G203" t="n">
-        <v>-711095.3542480454</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6503,15 @@
         <v>12529.0105</v>
       </c>
       <c r="G204" t="n">
-        <v>-711095.3542480454</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6533,15 @@
         <v>10.9664</v>
       </c>
       <c r="G205" t="n">
-        <v>-711084.3878480453</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6563,15 @@
         <v>7052.1524</v>
       </c>
       <c r="G206" t="n">
-        <v>-718136.5402480453</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6593,15 @@
         <v>7945</v>
       </c>
       <c r="G207" t="n">
-        <v>-718136.5402480453</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6623,15 @@
         <v>10780.3103</v>
       </c>
       <c r="G208" t="n">
-        <v>-718136.5402480453</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6653,15 @@
         <v>8097.752</v>
       </c>
       <c r="G209" t="n">
-        <v>-726234.2922480453</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6683,15 @@
         <v>558.4539</v>
       </c>
       <c r="G210" t="n">
-        <v>-726234.2922480453</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6713,15 @@
         <v>62091.4315</v>
       </c>
       <c r="G211" t="n">
-        <v>-788325.7237480453</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6743,15 @@
         <v>11.9322</v>
       </c>
       <c r="G212" t="n">
-        <v>-788313.7915480452</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6773,15 @@
         <v>304</v>
       </c>
       <c r="G213" t="n">
-        <v>-788009.7915480452</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6803,15 @@
         <v>23950.0339</v>
       </c>
       <c r="G214" t="n">
-        <v>-811959.8254480453</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6833,15 @@
         <v>1368</v>
       </c>
       <c r="G215" t="n">
-        <v>-810591.8254480453</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6863,15 @@
         <v>23431.5816</v>
       </c>
       <c r="G216" t="n">
-        <v>-834023.4070480453</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6893,15 @@
         <v>8574.400299999999</v>
       </c>
       <c r="G217" t="n">
-        <v>-834023.4070480453</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +6923,15 @@
         <v>33</v>
       </c>
       <c r="G218" t="n">
-        <v>-833990.4070480453</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +6953,19 @@
         <v>1000</v>
       </c>
       <c r="G219" t="n">
-        <v>-834990.4070480453</v>
+        <v>1</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>62.79</v>
+      </c>
+      <c r="I219" t="n">
+        <v>62.79</v>
+      </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +6987,23 @@
         <v>12000</v>
       </c>
       <c r="G220" t="n">
-        <v>-822990.4070480453</v>
+        <v>1</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>62.51</v>
+      </c>
+      <c r="I220" t="n">
+        <v>62.79</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7025,23 @@
         <v>29322.1215</v>
       </c>
       <c r="G221" t="n">
-        <v>-852312.5285480453</v>
+        <v>1</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>62.8</v>
+      </c>
+      <c r="I221" t="n">
+        <v>62.79</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7063,23 @@
         <v>591</v>
       </c>
       <c r="G222" t="n">
-        <v>-851721.5285480453</v>
+        <v>1</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+        <v>62</v>
+      </c>
+      <c r="I222" t="n">
+        <v>62.79</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7101,23 @@
         <v>372.7809</v>
       </c>
       <c r="G223" t="n">
-        <v>-851721.5285480453</v>
+        <v>1</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+        <v>62.5</v>
+      </c>
+      <c r="I223" t="n">
+        <v>62.79</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7139,23 @@
         <v>1263.8821</v>
       </c>
       <c r="G224" t="n">
-        <v>-851721.5285480453</v>
+        <v>1</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+        <v>62.5</v>
+      </c>
+      <c r="I224" t="n">
+        <v>62.79</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7177,21 @@
         <v>7537.5486</v>
       </c>
       <c r="G225" t="n">
-        <v>-844183.9799480453</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="n">
+        <v>62.79</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7213,21 @@
         <v>1302.837</v>
       </c>
       <c r="G226" t="n">
-        <v>-844183.9799480453</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="n">
+        <v>62.79</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7249,21 @@
         <v>1294</v>
       </c>
       <c r="G227" t="n">
-        <v>-845477.9799480453</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="n">
+        <v>62.79</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7285,21 @@
         <v>917</v>
       </c>
       <c r="G228" t="n">
-        <v>-844560.9799480453</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="n">
+        <v>62.79</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7321,21 @@
         <v>11664.4543</v>
       </c>
       <c r="G229" t="n">
-        <v>-832896.5256480454</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="n">
+        <v>62.79</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7357,21 @@
         <v>8</v>
       </c>
       <c r="G230" t="n">
-        <v>-832888.5256480454</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="n">
+        <v>62.79</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7393,21 @@
         <v>1972.6847</v>
       </c>
       <c r="G231" t="n">
-        <v>-832888.5256480454</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="n">
+        <v>62.79</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,24 +7429,21 @@
         <v>1964.5075</v>
       </c>
       <c r="G232" t="n">
-        <v>-832888.5256480454</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+        <v>62.79</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8077,22 +7465,21 @@
         <v>551.4924999999999</v>
       </c>
       <c r="G233" t="n">
-        <v>-832337.0331480453</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="n">
+        <v>62.79</v>
+      </c>
+      <c r="J233" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8114,22 +7501,21 @@
         <v>400</v>
       </c>
       <c r="G234" t="n">
-        <v>-831937.0331480453</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="n">
+        <v>62.79</v>
+      </c>
+      <c r="J234" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8151,24 +7537,21 @@
         <v>1188.3384</v>
       </c>
       <c r="G235" t="n">
-        <v>-831937.0331480453</v>
-      </c>
-      <c r="H235" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="n">
-        <v>63.2</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J235" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8190,22 +7573,21 @@
         <v>5855.6847</v>
       </c>
       <c r="G236" t="n">
-        <v>-837792.7178480453</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="n">
+        <v>62.79</v>
+      </c>
+      <c r="J236" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8227,22 +7609,21 @@
         <v>100</v>
       </c>
       <c r="G237" t="n">
-        <v>-837692.7178480453</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="n">
+        <v>62.79</v>
+      </c>
+      <c r="J237" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8264,24 +7645,21 @@
         <v>8</v>
       </c>
       <c r="G238" t="n">
-        <v>-837684.7178480453</v>
-      </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="n">
-        <v>62.05</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J238" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8303,24 +7681,21 @@
         <v>291.73</v>
       </c>
       <c r="G239" t="n">
-        <v>-837976.4478480453</v>
-      </c>
-      <c r="H239" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J239" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8342,24 +7717,21 @@
         <v>1211</v>
       </c>
       <c r="G240" t="n">
-        <v>-837976.4478480453</v>
-      </c>
-      <c r="H240" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J240" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8381,24 +7753,21 @@
         <v>1186</v>
       </c>
       <c r="G241" t="n">
-        <v>-839162.4478480453</v>
-      </c>
-      <c r="H241" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J241" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8420,24 +7789,21 @@
         <v>8</v>
       </c>
       <c r="G242" t="n">
-        <v>-839154.4478480453</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J242" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8459,24 +7825,21 @@
         <v>2072.7695</v>
       </c>
       <c r="G243" t="n">
-        <v>-841227.2173480453</v>
-      </c>
-      <c r="H243" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J243" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8498,24 +7861,21 @@
         <v>2805.3922</v>
       </c>
       <c r="G244" t="n">
-        <v>-841227.2173480453</v>
-      </c>
-      <c r="H244" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="n">
-        <v>63.37</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J244" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8537,24 +7897,21 @@
         <v>1779.8915</v>
       </c>
       <c r="G245" t="n">
-        <v>-841227.2173480453</v>
-      </c>
-      <c r="H245" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="n">
-        <v>63.37</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J245" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8576,24 +7933,21 @@
         <v>964.8467000000001</v>
       </c>
       <c r="G246" t="n">
-        <v>-841227.2173480453</v>
-      </c>
-      <c r="H246" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="n">
-        <v>63.37</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J246" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8615,24 +7969,21 @@
         <v>8</v>
       </c>
       <c r="G247" t="n">
-        <v>-841219.2173480453</v>
-      </c>
-      <c r="H247" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="n">
-        <v>63.37</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J247" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8654,24 +8005,21 @@
         <v>433.8068</v>
       </c>
       <c r="G248" t="n">
-        <v>-841219.2173480453</v>
-      </c>
-      <c r="H248" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J248" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8693,24 +8041,21 @@
         <v>10.0957</v>
       </c>
       <c r="G249" t="n">
-        <v>-841219.2173480453</v>
-      </c>
-      <c r="H249" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J249" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8732,24 +8077,21 @@
         <v>2628.9855</v>
       </c>
       <c r="G250" t="n">
-        <v>-838590.2318480454</v>
-      </c>
-      <c r="H250" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J250" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8771,24 +8113,21 @@
         <v>676.4081</v>
       </c>
       <c r="G251" t="n">
-        <v>-838590.2318480454</v>
-      </c>
-      <c r="H251" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="n">
-        <v>63.59</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J251" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8810,24 +8149,21 @@
         <v>8605.4</v>
       </c>
       <c r="G252" t="n">
-        <v>-829984.8318480453</v>
-      </c>
-      <c r="H252" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="n">
-        <v>63.59</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J252" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8849,24 +8185,21 @@
         <v>27632.4998</v>
       </c>
       <c r="G253" t="n">
-        <v>-829984.8318480453</v>
-      </c>
-      <c r="H253" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="n">
-        <v>63.97</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J253" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8888,24 +8221,21 @@
         <v>11806.2807</v>
       </c>
       <c r="G254" t="n">
-        <v>-818178.5511480453</v>
-      </c>
-      <c r="H254" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="n">
-        <v>63.97</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J254" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8927,24 +8257,21 @@
         <v>3602.1952</v>
       </c>
       <c r="G255" t="n">
-        <v>-818178.5511480453</v>
-      </c>
-      <c r="H255" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J255" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8966,24 +8293,21 @@
         <v>372.9566</v>
       </c>
       <c r="G256" t="n">
-        <v>-818178.5511480453</v>
-      </c>
-      <c r="H256" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J256" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9005,24 +8329,21 @@
         <v>372.9567</v>
       </c>
       <c r="G257" t="n">
-        <v>-818178.5511480453</v>
-      </c>
-      <c r="H257" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J257" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9044,24 +8365,21 @@
         <v>8771.887699999999</v>
       </c>
       <c r="G258" t="n">
-        <v>-818178.5511480453</v>
-      </c>
-      <c r="H258" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J258" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9083,24 +8401,21 @@
         <v>1285.7455</v>
       </c>
       <c r="G259" t="n">
-        <v>-819464.2966480453</v>
-      </c>
-      <c r="H259" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="n">
-        <v>63.98</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J259" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9122,24 +8437,21 @@
         <v>1369.4867</v>
       </c>
       <c r="G260" t="n">
-        <v>-818094.8099480453</v>
-      </c>
-      <c r="H260" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="n">
-        <v>63.97</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J260" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9161,22 +8473,21 @@
         <v>803.4663</v>
       </c>
       <c r="G261" t="n">
-        <v>-818898.2762480453</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="n">
+        <v>62.79</v>
+      </c>
+      <c r="J261" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9198,24 +8509,21 @@
         <v>310.7568</v>
       </c>
       <c r="G262" t="n">
-        <v>-818587.5194480453</v>
-      </c>
-      <c r="H262" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="n">
-        <v>63.96</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J262" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9237,24 +8545,21 @@
         <v>667.3478</v>
       </c>
       <c r="G263" t="n">
-        <v>-817920.1716480453</v>
-      </c>
-      <c r="H263" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="n">
-        <v>64</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J263" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9276,24 +8581,21 @@
         <v>7162.8511</v>
       </c>
       <c r="G264" t="n">
-        <v>-817920.1716480453</v>
-      </c>
-      <c r="H264" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="n">
-        <v>64.09</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J264" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9315,24 +8617,21 @@
         <v>1152.246</v>
       </c>
       <c r="G265" t="n">
-        <v>-816767.9256480453</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="n">
-        <v>64.09</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J265" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9354,24 +8653,21 @@
         <v>10</v>
       </c>
       <c r="G266" t="n">
-        <v>-816757.9256480453</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J266" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9393,24 +8689,21 @@
         <v>761</v>
       </c>
       <c r="G267" t="n">
-        <v>-817518.9256480453</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J267" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9432,24 +8725,21 @@
         <v>80</v>
       </c>
       <c r="G268" t="n">
-        <v>-817518.9256480453</v>
-      </c>
-      <c r="H268" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J268" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9471,24 +8761,21 @@
         <v>8</v>
       </c>
       <c r="G269" t="n">
-        <v>-817510.9256480453</v>
-      </c>
-      <c r="H269" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J269" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9510,24 +8797,21 @@
         <v>1841</v>
       </c>
       <c r="G270" t="n">
-        <v>-819351.9256480453</v>
-      </c>
-      <c r="H270" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J270" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9549,24 +8833,21 @@
         <v>8</v>
       </c>
       <c r="G271" t="n">
-        <v>-819343.9256480453</v>
-      </c>
-      <c r="H271" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="n">
-        <v>63.1</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J271" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9588,24 +8869,21 @@
         <v>2174</v>
       </c>
       <c r="G272" t="n">
-        <v>-821517.9256480453</v>
-      </c>
-      <c r="H272" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J272" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9627,24 +8905,21 @@
         <v>10</v>
       </c>
       <c r="G273" t="n">
-        <v>-821507.9256480453</v>
-      </c>
-      <c r="H273" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="n">
-        <v>63.11</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J273" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9666,24 +8941,21 @@
         <v>85.8342</v>
       </c>
       <c r="G274" t="n">
-        <v>-821593.7598480453</v>
-      </c>
-      <c r="H274" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J274" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9705,24 +8977,21 @@
         <v>14843.5009</v>
       </c>
       <c r="G275" t="n">
-        <v>-836437.2607480453</v>
-      </c>
-      <c r="H275" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="n">
-        <v>63.12</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J275" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9744,24 +9013,21 @@
         <v>3403.3018</v>
       </c>
       <c r="G276" t="n">
-        <v>-839840.5625480453</v>
-      </c>
-      <c r="H276" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="n">
-        <v>63</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J276" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9783,24 +9049,21 @@
         <v>5981.3924</v>
       </c>
       <c r="G277" t="n">
-        <v>-833859.1701480453</v>
-      </c>
-      <c r="H277" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J277" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9822,24 +9085,21 @@
         <v>5004.6876</v>
       </c>
       <c r="G278" t="n">
-        <v>-838863.8577480452</v>
-      </c>
-      <c r="H278" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="n">
-        <v>64.05</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J278" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9861,24 +9121,21 @@
         <v>8</v>
       </c>
       <c r="G279" t="n">
-        <v>-838855.8577480452</v>
-      </c>
-      <c r="H279" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J279" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9900,24 +9157,21 @@
         <v>1733</v>
       </c>
       <c r="G280" t="n">
-        <v>-840588.8577480452</v>
-      </c>
-      <c r="H280" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="n">
-        <v>63.97</v>
-      </c>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J280" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9939,24 +9193,21 @@
         <v>3629.2232</v>
       </c>
       <c r="G281" t="n">
-        <v>-836959.6345480452</v>
-      </c>
-      <c r="H281" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="n">
-        <v>62.61</v>
-      </c>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J281" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9978,24 +9229,21 @@
         <v>22001.4134</v>
       </c>
       <c r="G282" t="n">
-        <v>-858961.0479480452</v>
-      </c>
-      <c r="H282" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J282" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10017,24 +9265,21 @@
         <v>54.0677</v>
       </c>
       <c r="G283" t="n">
-        <v>-858906.9802480452</v>
-      </c>
-      <c r="H283" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="n">
-        <v>62.86</v>
-      </c>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J283" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10056,24 +9301,21 @@
         <v>1256</v>
       </c>
       <c r="G284" t="n">
-        <v>-860162.9802480452</v>
-      </c>
-      <c r="H284" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="n">
-        <v>63.77</v>
-      </c>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J284" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10095,24 +9337,21 @@
         <v>1192.9744</v>
       </c>
       <c r="G285" t="n">
-        <v>-858970.0058480452</v>
-      </c>
-      <c r="H285" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="n">
-        <v>63</v>
-      </c>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J285" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10134,24 +9373,21 @@
         <v>100</v>
       </c>
       <c r="G286" t="n">
-        <v>-858970.0058480452</v>
-      </c>
-      <c r="H286" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="n">
-        <v>63.3</v>
-      </c>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J286" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10173,24 +9409,21 @@
         <v>331.6758</v>
       </c>
       <c r="G287" t="n">
-        <v>-858970.0058480452</v>
-      </c>
-      <c r="H287" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="n">
-        <v>63.3</v>
-      </c>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J287" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10212,24 +9445,21 @@
         <v>7533.066</v>
       </c>
       <c r="G288" t="n">
-        <v>-851436.9398480452</v>
-      </c>
-      <c r="H288" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="n">
-        <v>63.3</v>
-      </c>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J288" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10251,24 +9481,21 @@
         <v>18.7858</v>
       </c>
       <c r="G289" t="n">
-        <v>-851436.9398480452</v>
-      </c>
-      <c r="H289" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="n">
-        <v>63.69</v>
-      </c>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J289" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10290,24 +9517,21 @@
         <v>85.8342</v>
       </c>
       <c r="G290" t="n">
-        <v>-851522.7740480453</v>
-      </c>
-      <c r="H290" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="n">
-        <v>63.69</v>
-      </c>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J290" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10329,24 +9553,21 @@
         <v>1344</v>
       </c>
       <c r="G291" t="n">
-        <v>-852866.7740480453</v>
-      </c>
-      <c r="H291" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="n">
-        <v>63.3</v>
-      </c>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J291" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10368,24 +9589,21 @@
         <v>2949.5329</v>
       </c>
       <c r="G292" t="n">
-        <v>-849917.2411480453</v>
-      </c>
-      <c r="H292" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="n">
-        <v>62.6</v>
-      </c>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J292" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10407,24 +9625,21 @@
         <v>486.6506</v>
       </c>
       <c r="G293" t="n">
-        <v>-849430.5905480452</v>
-      </c>
-      <c r="H293" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="n">
-        <v>63.7</v>
-      </c>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J293" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10446,24 +9661,21 @@
         <v>100</v>
       </c>
       <c r="G294" t="n">
-        <v>-849530.5905480452</v>
-      </c>
-      <c r="H294" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="n">
-        <v>63.8</v>
-      </c>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J294" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10485,24 +9697,21 @@
         <v>8</v>
       </c>
       <c r="G295" t="n">
-        <v>-849522.5905480452</v>
-      </c>
-      <c r="H295" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="n">
-        <v>62.62</v>
-      </c>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J295" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10524,24 +9733,21 @@
         <v>10736.3362</v>
       </c>
       <c r="G296" t="n">
-        <v>-838786.2543480452</v>
-      </c>
-      <c r="H296" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="n">
-        <v>63.79</v>
-      </c>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J296" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10563,24 +9769,21 @@
         <v>544.3747</v>
       </c>
       <c r="G297" t="n">
-        <v>-838786.2543480452</v>
-      </c>
-      <c r="H297" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="n">
-        <v>63.92</v>
-      </c>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J297" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10602,24 +9805,21 @@
         <v>2295.025829208385</v>
       </c>
       <c r="G298" t="n">
-        <v>-838786.2543480452</v>
-      </c>
-      <c r="H298" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="n">
-        <v>63.92</v>
-      </c>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J298" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10641,24 +9841,21 @@
         <v>204.9741</v>
       </c>
       <c r="G299" t="n">
-        <v>-838991.2284480452</v>
-      </c>
-      <c r="H299" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="n">
-        <v>63.92</v>
-      </c>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J299" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10680,24 +9877,21 @@
         <v>1951</v>
       </c>
       <c r="G300" t="n">
-        <v>-837040.2284480452</v>
-      </c>
-      <c r="H300" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="n">
-        <v>62.81</v>
-      </c>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J300" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10719,24 +9913,21 @@
         <v>1379</v>
       </c>
       <c r="G301" t="n">
-        <v>-837040.2284480452</v>
-      </c>
-      <c r="H301" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="n">
-        <v>62.82</v>
-      </c>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J301" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10758,24 +9949,21 @@
         <v>1816.6939</v>
       </c>
       <c r="G302" t="n">
-        <v>-835223.5345480453</v>
-      </c>
-      <c r="H302" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="n">
-        <v>62.82</v>
-      </c>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J302" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10797,24 +9985,21 @@
         <v>9823.3451</v>
       </c>
       <c r="G303" t="n">
-        <v>-825400.1894480452</v>
-      </c>
-      <c r="H303" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="n">
-        <v>63.89</v>
-      </c>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J303" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10836,24 +10021,21 @@
         <v>100</v>
       </c>
       <c r="G304" t="n">
-        <v>-825400.1894480452</v>
-      </c>
-      <c r="H304" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="n">
-        <v>63.92</v>
-      </c>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J304" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10875,24 +10057,21 @@
         <v>20</v>
       </c>
       <c r="G305" t="n">
-        <v>-825400.1894480452</v>
-      </c>
-      <c r="H305" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="n">
-        <v>63.92</v>
-      </c>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J305" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10914,24 +10093,21 @@
         <v>4095.790569461827</v>
       </c>
       <c r="G306" t="n">
-        <v>-829495.9800175071</v>
-      </c>
-      <c r="H306" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="n">
-        <v>63.92</v>
-      </c>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J306" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10953,24 +10129,21 @@
         <v>260.3402</v>
       </c>
       <c r="G307" t="n">
-        <v>-829235.6398175071</v>
-      </c>
-      <c r="H307" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="n">
-        <v>63</v>
-      </c>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J307" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10992,24 +10165,21 @@
         <v>40</v>
       </c>
       <c r="G308" t="n">
-        <v>-829235.6398175071</v>
-      </c>
-      <c r="H308" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="n">
-        <v>63.8</v>
-      </c>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J308" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11031,24 +10201,21 @@
         <v>1676</v>
       </c>
       <c r="G309" t="n">
-        <v>-830911.6398175071</v>
-      </c>
-      <c r="H309" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="n">
-        <v>63.8</v>
-      </c>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J309" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11070,24 +10237,21 @@
         <v>1088.0846</v>
       </c>
       <c r="G310" t="n">
-        <v>-831999.7244175071</v>
-      </c>
-      <c r="H310" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="n">
-        <v>63</v>
-      </c>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J310" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11109,24 +10273,21 @@
         <v>19546.9198</v>
       </c>
       <c r="G311" t="n">
-        <v>-851546.6442175071</v>
-      </c>
-      <c r="H311" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="n">
-        <v>62.91</v>
-      </c>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J311" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11148,24 +10309,21 @@
         <v>35593.8583</v>
       </c>
       <c r="G312" t="n">
-        <v>-887140.5025175071</v>
-      </c>
-      <c r="H312" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J312" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11187,24 +10345,21 @@
         <v>11541.26</v>
       </c>
       <c r="G313" t="n">
-        <v>-887140.5025175071</v>
-      </c>
-      <c r="H313" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="n">
-        <v>62.62</v>
-      </c>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J313" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11226,24 +10381,21 @@
         <v>9687.3568</v>
       </c>
       <c r="G314" t="n">
-        <v>-896827.859317507</v>
-      </c>
-      <c r="H314" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="n">
-        <v>62.62</v>
-      </c>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J314" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11265,24 +10417,21 @@
         <v>4700.4416</v>
       </c>
       <c r="G315" t="n">
-        <v>-896827.859317507</v>
-      </c>
-      <c r="H315" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
       <c r="I315" t="n">
-        <v>62.16</v>
-      </c>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J315" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11304,24 +10453,21 @@
         <v>6526.1037</v>
       </c>
       <c r="G316" t="n">
-        <v>-896827.859317507</v>
-      </c>
-      <c r="H316" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
       <c r="I316" t="n">
-        <v>62.16</v>
-      </c>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J316" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11343,24 +10489,21 @@
         <v>531.5403</v>
       </c>
       <c r="G317" t="n">
-        <v>-896827.859317507</v>
-      </c>
-      <c r="H317" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
       <c r="I317" t="n">
-        <v>62.16</v>
-      </c>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J317" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -11382,24 +10525,21 @@
         <v>11867.7456</v>
       </c>
       <c r="G318" t="n">
-        <v>-884960.113717507</v>
-      </c>
-      <c r="H318" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
       <c r="I318" t="n">
-        <v>62.16</v>
-      </c>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J318" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -11421,24 +10561,21 @@
         <v>86.7518</v>
       </c>
       <c r="G319" t="n">
-        <v>-885046.865517507</v>
-      </c>
-      <c r="H319" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
       <c r="I319" t="n">
-        <v>63.34</v>
-      </c>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
+        <v>62.79</v>
+      </c>
+      <c r="J319" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
